--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="769">
   <si>
     <t>TestCases</t>
   </si>
@@ -1740,6 +1740,618 @@
   </si>
   <si>
     <t>ICIC94450874745</t>
+  </si>
+  <si>
+    <t>6751912269</t>
+  </si>
+  <si>
+    <t>Aabha</t>
+  </si>
+  <si>
+    <t>MunafSen24293@example.net</t>
+  </si>
+  <si>
+    <t>1995-07-05</t>
+  </si>
+  <si>
+    <t>081146446250311</t>
+  </si>
+  <si>
+    <t>1ad100f81678fb13</t>
+  </si>
+  <si>
+    <t>711450037486054</t>
+  </si>
+  <si>
+    <t>IDEP136738438361FNLT</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>59999808041</t>
+  </si>
+  <si>
+    <t>NNLTLN</t>
+  </si>
+  <si>
+    <t>BNPL7136389923369245</t>
+  </si>
+  <si>
+    <t>59999991703</t>
+  </si>
+  <si>
+    <t>DKNOQT</t>
+  </si>
+  <si>
+    <t>59999860630</t>
+  </si>
+  <si>
+    <t>KPIURQ</t>
+  </si>
+  <si>
+    <t>59999750001</t>
+  </si>
+  <si>
+    <t>RRBAPM</t>
+  </si>
+  <si>
+    <t>59999485140</t>
+  </si>
+  <si>
+    <t>CRGUTU</t>
+  </si>
+  <si>
+    <t>59999220028</t>
+  </si>
+  <si>
+    <t>TPAFEQ</t>
+  </si>
+  <si>
+    <t>59999919776</t>
+  </si>
+  <si>
+    <t>UCTPNC</t>
+  </si>
+  <si>
+    <t>59999669998</t>
+  </si>
+  <si>
+    <t>IGEHML</t>
+  </si>
+  <si>
+    <t>59999339302</t>
+  </si>
+  <si>
+    <t>USPPUI</t>
+  </si>
+  <si>
+    <t>59999298356</t>
+  </si>
+  <si>
+    <t>JCOOOL</t>
+  </si>
+  <si>
+    <t>156.0</t>
+  </si>
+  <si>
+    <t>6102134660</t>
+  </si>
+  <si>
+    <t>Kajol</t>
+  </si>
+  <si>
+    <t>AatifRaj18545@example.net</t>
+  </si>
+  <si>
+    <t>1982-08-12</t>
+  </si>
+  <si>
+    <t>750637552830433</t>
+  </si>
+  <si>
+    <t>b590c6a088f804cc</t>
+  </si>
+  <si>
+    <t>628097138394208</t>
+  </si>
+  <si>
+    <t>335577016102134660</t>
+  </si>
+  <si>
+    <t>ICIC85628191121</t>
+  </si>
+  <si>
+    <t>6727342911</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
+    <t>NareshSarma62543@example.net</t>
+  </si>
+  <si>
+    <t>1980-01-03</t>
+  </si>
+  <si>
+    <t>009585956256110</t>
+  </si>
+  <si>
+    <t>2fe4a05e23ef2f3e</t>
+  </si>
+  <si>
+    <t>760744227204446</t>
+  </si>
+  <si>
+    <t>335577016727342911</t>
+  </si>
+  <si>
+    <t>ICIC91013920189</t>
+  </si>
+  <si>
+    <t>7222801589</t>
+  </si>
+  <si>
+    <t>Megha</t>
+  </si>
+  <si>
+    <t>RashidGokhale51971@example.net</t>
+  </si>
+  <si>
+    <t>1980-03-04</t>
+  </si>
+  <si>
+    <t>974785719864785</t>
+  </si>
+  <si>
+    <t>d044f2731cb11ba8</t>
+  </si>
+  <si>
+    <t>428775978239094</t>
+  </si>
+  <si>
+    <t>IDEP167386785828E29F</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>59999629307</t>
+  </si>
+  <si>
+    <t>ABPSNS</t>
+  </si>
+  <si>
+    <t>59999567179</t>
+  </si>
+  <si>
+    <t>HKPIBR</t>
+  </si>
+  <si>
+    <t>59999567475</t>
+  </si>
+  <si>
+    <t>HRLQRF</t>
+  </si>
+  <si>
+    <t>59999536058</t>
+  </si>
+  <si>
+    <t>EKSQJO</t>
+  </si>
+  <si>
+    <t>59999580937</t>
+  </si>
+  <si>
+    <t>IRQUBS</t>
+  </si>
+  <si>
+    <t>59999503733</t>
+  </si>
+  <si>
+    <t>ETMKPN</t>
+  </si>
+  <si>
+    <t>59999204531</t>
+  </si>
+  <si>
+    <t>PGJKPK</t>
+  </si>
+  <si>
+    <t>59999002209</t>
+  </si>
+  <si>
+    <t>ELQGNB</t>
+  </si>
+  <si>
+    <t>59999630886</t>
+  </si>
+  <si>
+    <t>FCEASA</t>
+  </si>
+  <si>
+    <t>59999324459</t>
+  </si>
+  <si>
+    <t>RNOFHA</t>
+  </si>
+  <si>
+    <t>9847203942</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>HrishikeshMasih44673@example.net</t>
+  </si>
+  <si>
+    <t>1971-11-12</t>
+  </si>
+  <si>
+    <t>983506743182856</t>
+  </si>
+  <si>
+    <t>9aed43b516c5c335</t>
+  </si>
+  <si>
+    <t>519214077658350</t>
+  </si>
+  <si>
+    <t>IDEP167388187174LI9A</t>
+  </si>
+  <si>
+    <t>8632910519</t>
+  </si>
+  <si>
+    <t>Astha</t>
+  </si>
+  <si>
+    <t>DineshDave51866@example.net</t>
+  </si>
+  <si>
+    <t>1974-06-06</t>
+  </si>
+  <si>
+    <t>216285680312623</t>
+  </si>
+  <si>
+    <t>247698afbb20b58b</t>
+  </si>
+  <si>
+    <t>631337972990645</t>
+  </si>
+  <si>
+    <t>6711586650</t>
+  </si>
+  <si>
+    <t>Prabha</t>
+  </si>
+  <si>
+    <t>FerozWagle95644@example.net</t>
+  </si>
+  <si>
+    <t>1988-11-11</t>
+  </si>
+  <si>
+    <t>955953862797599</t>
+  </si>
+  <si>
+    <t>f06b3084092d9084</t>
+  </si>
+  <si>
+    <t>849105569408695</t>
+  </si>
+  <si>
+    <t>IDEP173688945333YB12</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>59999258390</t>
+  </si>
+  <si>
+    <t>PJUIPK</t>
+  </si>
+  <si>
+    <t>59999389657</t>
+  </si>
+  <si>
+    <t>TFSOOH</t>
+  </si>
+  <si>
+    <t>59999725488</t>
+  </si>
+  <si>
+    <t>TCDFBK</t>
+  </si>
+  <si>
+    <t>59999627021</t>
+  </si>
+  <si>
+    <t>QNMPQI</t>
+  </si>
+  <si>
+    <t>59999915863</t>
+  </si>
+  <si>
+    <t>UPLRHC</t>
+  </si>
+  <si>
+    <t>59999250141</t>
+  </si>
+  <si>
+    <t>PDLELR</t>
+  </si>
+  <si>
+    <t>59999689984</t>
+  </si>
+  <si>
+    <t>UTMTDP</t>
+  </si>
+  <si>
+    <t>59999089453</t>
+  </si>
+  <si>
+    <t>CSJMFG</t>
+  </si>
+  <si>
+    <t>59999707804</t>
+  </si>
+  <si>
+    <t>CKAMLQ</t>
+  </si>
+  <si>
+    <t>59999188036</t>
+  </si>
+  <si>
+    <t>NIFURB</t>
+  </si>
+  <si>
+    <t>7006045685</t>
+  </si>
+  <si>
+    <t>Anusha</t>
+  </si>
+  <si>
+    <t>RadheshyamPalan13751@example.net</t>
+  </si>
+  <si>
+    <t>1982-04-17</t>
+  </si>
+  <si>
+    <t>514414960854331</t>
+  </si>
+  <si>
+    <t>9d867dbcf7f241e4</t>
+  </si>
+  <si>
+    <t>931959851584921</t>
+  </si>
+  <si>
+    <t>IDEP317627169852UF3B</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>59999159226</t>
+  </si>
+  <si>
+    <t>JAUKKS</t>
+  </si>
+  <si>
+    <t>59999640157</t>
+  </si>
+  <si>
+    <t>RQBEHP</t>
+  </si>
+  <si>
+    <t>59999608566</t>
+  </si>
+  <si>
+    <t>HDNDAD</t>
+  </si>
+  <si>
+    <t>59999791627</t>
+  </si>
+  <si>
+    <t>HSKTFO</t>
+  </si>
+  <si>
+    <t>59999273621</t>
+  </si>
+  <si>
+    <t>ORGTGN</t>
+  </si>
+  <si>
+    <t>59999573287</t>
+  </si>
+  <si>
+    <t>ITQRHK</t>
+  </si>
+  <si>
+    <t>59999021260</t>
+  </si>
+  <si>
+    <t>FFKMIS</t>
+  </si>
+  <si>
+    <t>59999949450</t>
+  </si>
+  <si>
+    <t>DMTUSN</t>
+  </si>
+  <si>
+    <t>59999497582</t>
+  </si>
+  <si>
+    <t>ALILNO</t>
+  </si>
+  <si>
+    <t>59999323542</t>
+  </si>
+  <si>
+    <t>TCCNDE</t>
+  </si>
+  <si>
+    <t>9386578545</t>
+  </si>
+  <si>
+    <t>Rimi</t>
+  </si>
+  <si>
+    <t>NeerendraMadan57558@example.net</t>
+  </si>
+  <si>
+    <t>1982-01-16</t>
+  </si>
+  <si>
+    <t>010041097026779</t>
+  </si>
+  <si>
+    <t>3b834813ab3f16e3</t>
+  </si>
+  <si>
+    <t>153302344846279</t>
+  </si>
+  <si>
+    <t>IDEP173649311289XYRT</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>59999215664</t>
+  </si>
+  <si>
+    <t>RBGQSO</t>
+  </si>
+  <si>
+    <t>BNPL7613495877744198</t>
+  </si>
+  <si>
+    <t>59999357149</t>
+  </si>
+  <si>
+    <t>EGDRCT</t>
+  </si>
+  <si>
+    <t>59999512464</t>
+  </si>
+  <si>
+    <t>EPTIHA</t>
+  </si>
+  <si>
+    <t>59999324528</t>
+  </si>
+  <si>
+    <t>KGHNAO</t>
+  </si>
+  <si>
+    <t>59999932280</t>
+  </si>
+  <si>
+    <t>DHJBAJ</t>
+  </si>
+  <si>
+    <t>59999864286</t>
+  </si>
+  <si>
+    <t>CGDOHO</t>
+  </si>
+  <si>
+    <t>59999845751</t>
+  </si>
+  <si>
+    <t>FLNHKD</t>
+  </si>
+  <si>
+    <t>59999727885</t>
+  </si>
+  <si>
+    <t>KMSLEG</t>
+  </si>
+  <si>
+    <t>59999727792</t>
+  </si>
+  <si>
+    <t>NQMQDB</t>
+  </si>
+  <si>
+    <t>59999197378</t>
+  </si>
+  <si>
+    <t>FUTKPH</t>
+  </si>
+  <si>
+    <t>335577019386578545</t>
+  </si>
+  <si>
+    <t>ICIC97695109732</t>
+  </si>
+  <si>
+    <t>ICIC94432780747</t>
   </si>
 </sst>
 </file>
@@ -2239,7 +2851,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>556</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2359,22 +2971,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>518</v>
+        <v>739</v>
       </c>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>545</v>
+        <v>764</v>
       </c>
       <c r="F2" t="s">
         <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>546</v>
+        <v>765</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2711,7 +3323,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>528</v>
+        <v>747</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -2808,16 +3420,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>561</v>
+        <v>737</v>
       </c>
       <c r="C2" t="s">
-        <v>562</v>
+        <v>738</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>560</v>
+        <v>736</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2920,7 +3532,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>554</v>
+        <v>766</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -2932,7 +3544,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>555</v>
+        <v>767</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2941,7 +3553,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>156.0</v>
+        <v>135.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3803,13 +4415,13 @@
         <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>557</v>
+        <v>733</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>558</v>
+        <v>734</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>559</v>
+        <v>735</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4208,7 +4820,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>563</v>
+        <v>766</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -4220,7 +4832,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>564</v>
+        <v>768</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4229,7 +4841,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>156.0</v>
+        <v>135.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4356,10 +4968,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>556</v>
+        <v>732</v>
       </c>
       <c r="E2" t="s">
-        <v>558</v>
+        <v>734</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4371,7 +4983,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>560</v>
+        <v>736</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4380,10 +4992,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>518</v>
+        <v>739</v>
       </c>
       <c r="M2" t="n">
-        <v>4217195.0</v>
+        <v>4218183.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4409,7 +5021,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>558</v>
+        <v>734</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -4421,7 +5033,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>560</v>
+        <v>736</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -4430,10 +5042,10 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>518</v>
+        <v>739</v>
       </c>
       <c r="M3" t="n">
-        <v>4217195.0</v>
+        <v>4218183.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -4493,7 +5105,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>556</v>
+        <v>732</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4510,7 +5122,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>556</v>
+        <v>732</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4527,7 +5139,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>556</v>
+        <v>732</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4544,7 +5156,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>556</v>
+        <v>732</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4561,7 +5173,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>556</v>
+        <v>732</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4730,7 +5342,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>560</v>
+        <v>736</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4974,7 +5586,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>560</v>
+        <v>736</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5189,7 +5801,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>557</v>
+        <v>733</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -5272,7 +5884,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>518</v>
+        <v>739</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -5570,7 +6182,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>518</v>
+        <v>739</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5590,7 +6202,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
+        <v>739</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5610,7 +6222,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>518</v>
+        <v>739</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5630,7 +6242,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>518</v>
+        <v>739</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5650,7 +6262,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>518</v>
+        <v>739</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5670,7 +6282,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>518</v>
+        <v>739</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5690,7 +6302,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>518</v>
+        <v>739</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5749,7 +6361,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -5763,7 +6375,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="803">
   <si>
     <t>TestCases</t>
   </si>
@@ -2352,6 +2352,108 @@
   </si>
   <si>
     <t>ICIC94432780747</t>
+  </si>
+  <si>
+    <t>9769476773</t>
+  </si>
+  <si>
+    <t>Mayawati</t>
+  </si>
+  <si>
+    <t>TusharChar32051@example.net</t>
+  </si>
+  <si>
+    <t>1993-03-31</t>
+  </si>
+  <si>
+    <t>448035296243153</t>
+  </si>
+  <si>
+    <t>fddd45bb789cb702</t>
+  </si>
+  <si>
+    <t>346119585266373</t>
+  </si>
+  <si>
+    <t>IDEP763178819813GA5J</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>59999677839</t>
+  </si>
+  <si>
+    <t>TSILOE</t>
+  </si>
+  <si>
+    <t>BNPL6137781931822854</t>
+  </si>
+  <si>
+    <t>59999867534</t>
+  </si>
+  <si>
+    <t>NMNHEU</t>
+  </si>
+  <si>
+    <t>59999995530</t>
+  </si>
+  <si>
+    <t>BJKRCP</t>
+  </si>
+  <si>
+    <t>59999878354</t>
+  </si>
+  <si>
+    <t>OFOBMM</t>
+  </si>
+  <si>
+    <t>59999857727</t>
+  </si>
+  <si>
+    <t>FHESCI</t>
+  </si>
+  <si>
+    <t>59999652485</t>
+  </si>
+  <si>
+    <t>THULUK</t>
+  </si>
+  <si>
+    <t>59999973213</t>
+  </si>
+  <si>
+    <t>ITBCFJ</t>
+  </si>
+  <si>
+    <t>59999330947</t>
+  </si>
+  <si>
+    <t>RNJNJI</t>
+  </si>
+  <si>
+    <t>59999445270</t>
+  </si>
+  <si>
+    <t>RFHIGD</t>
+  </si>
+  <si>
+    <t>59999463097</t>
+  </si>
+  <si>
+    <t>IONBFN</t>
+  </si>
+  <si>
+    <t>335577019769476773</t>
+  </si>
+  <si>
+    <t>ICIC91834809196</t>
+  </si>
+  <si>
+    <t>ICIC93645518425</t>
   </si>
 </sst>
 </file>
@@ -2851,7 +2953,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>732</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2971,22 +3073,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="C2" t="s">
-        <v>575</v>
+        <v>778</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>764</v>
+        <v>798</v>
       </c>
       <c r="F2" t="s">
         <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>765</v>
+        <v>799</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3323,7 +3425,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>747</v>
+        <v>781</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -3420,16 +3522,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>737</v>
+        <v>774</v>
       </c>
       <c r="C2" t="s">
-        <v>738</v>
+        <v>775</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>736</v>
+        <v>773</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3532,7 +3634,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>766</v>
+        <v>800</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3544,7 +3646,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>767</v>
+        <v>801</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3553,7 +3655,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>135.0</v>
+        <v>142.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4415,13 +4517,13 @@
         <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>733</v>
+        <v>770</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>734</v>
+        <v>771</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>735</v>
+        <v>772</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4820,7 +4922,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>766</v>
+        <v>800</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -4832,7 +4934,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4841,7 +4943,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>135.0</v>
+        <v>142.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4968,10 +5070,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>732</v>
+        <v>769</v>
       </c>
       <c r="E2" t="s">
-        <v>734</v>
+        <v>771</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4983,7 +5085,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>736</v>
+        <v>773</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4992,10 +5094,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="M2" t="n">
-        <v>4218183.0</v>
+        <v>4218412.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5021,7 +5123,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>734</v>
+        <v>771</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5033,7 +5135,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>736</v>
+        <v>773</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5042,10 +5144,10 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="M3" t="n">
-        <v>4218183.0</v>
+        <v>4218412.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -5105,7 +5207,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>732</v>
+        <v>769</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5122,7 +5224,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>732</v>
+        <v>769</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5139,7 +5241,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>732</v>
+        <v>769</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5156,7 +5258,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>732</v>
+        <v>769</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5173,7 +5275,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>732</v>
+        <v>769</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5342,7 +5444,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>736</v>
+        <v>773</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5586,7 +5688,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>736</v>
+        <v>773</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5801,7 +5903,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>733</v>
+        <v>770</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -5884,7 +5986,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -6182,7 +6284,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6202,7 +6304,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6222,7 +6324,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6242,7 +6344,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6262,7 +6364,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6282,7 +6384,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6302,7 +6404,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6361,7 +6463,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>575</v>
+        <v>778</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -6375,7 +6477,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>575</v>
+        <v>778</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="895">
   <si>
     <t>TestCases</t>
   </si>
@@ -2454,6 +2454,282 @@
   </si>
   <si>
     <t>ICIC93645518425</t>
+  </si>
+  <si>
+    <t>6981439539</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>GovindChacko65625@example.net</t>
+  </si>
+  <si>
+    <t>1989-03-02</t>
+  </si>
+  <si>
+    <t>076884711381364</t>
+  </si>
+  <si>
+    <t>bd2cbb45ad2bf7ce</t>
+  </si>
+  <si>
+    <t>703250519497086</t>
+  </si>
+  <si>
+    <t>IDEP167348569651I47G</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>59999845362</t>
+  </si>
+  <si>
+    <t>RPKFCB</t>
+  </si>
+  <si>
+    <t>59999434508</t>
+  </si>
+  <si>
+    <t>PBNKUE</t>
+  </si>
+  <si>
+    <t>59999569822</t>
+  </si>
+  <si>
+    <t>SHTBEC</t>
+  </si>
+  <si>
+    <t>59999464741</t>
+  </si>
+  <si>
+    <t>AQIIJS</t>
+  </si>
+  <si>
+    <t>59999380777</t>
+  </si>
+  <si>
+    <t>UGMSGU</t>
+  </si>
+  <si>
+    <t>59999968277</t>
+  </si>
+  <si>
+    <t>OKLPDN</t>
+  </si>
+  <si>
+    <t>59999977118</t>
+  </si>
+  <si>
+    <t>SGIALA</t>
+  </si>
+  <si>
+    <t>59999025313</t>
+  </si>
+  <si>
+    <t>UJGTKQ</t>
+  </si>
+  <si>
+    <t>59999341674</t>
+  </si>
+  <si>
+    <t>MTMPPH</t>
+  </si>
+  <si>
+    <t>59999414698</t>
+  </si>
+  <si>
+    <t>MCMCPB</t>
+  </si>
+  <si>
+    <t>7249874933</t>
+  </si>
+  <si>
+    <t>Neela</t>
+  </si>
+  <si>
+    <t>AmritMerchant99820@example.net</t>
+  </si>
+  <si>
+    <t>1994-07-20</t>
+  </si>
+  <si>
+    <t>367117175962942</t>
+  </si>
+  <si>
+    <t>baf4b44cf12286d2</t>
+  </si>
+  <si>
+    <t>538756784192906</t>
+  </si>
+  <si>
+    <t>IDEP631745195849VS9C</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>59999274864</t>
+  </si>
+  <si>
+    <t>NUHABA</t>
+  </si>
+  <si>
+    <t>59999910826</t>
+  </si>
+  <si>
+    <t>NPPTQR</t>
+  </si>
+  <si>
+    <t>59999634049</t>
+  </si>
+  <si>
+    <t>RRMLHK</t>
+  </si>
+  <si>
+    <t>59999813617</t>
+  </si>
+  <si>
+    <t>HEQCLK</t>
+  </si>
+  <si>
+    <t>59999729634</t>
+  </si>
+  <si>
+    <t>UBRBUH</t>
+  </si>
+  <si>
+    <t>59999045225</t>
+  </si>
+  <si>
+    <t>EJDKKS</t>
+  </si>
+  <si>
+    <t>59999015810</t>
+  </si>
+  <si>
+    <t>KRTLSI</t>
+  </si>
+  <si>
+    <t>59999122728</t>
+  </si>
+  <si>
+    <t>ACJPTI</t>
+  </si>
+  <si>
+    <t>59999125010</t>
+  </si>
+  <si>
+    <t>UCRTCQ</t>
+  </si>
+  <si>
+    <t>59999923046</t>
+  </si>
+  <si>
+    <t>BUMEBH</t>
+  </si>
+  <si>
+    <t>7912158774</t>
+  </si>
+  <si>
+    <t>Vimala</t>
+  </si>
+  <si>
+    <t>MukundNarasimhan63920@example.net</t>
+  </si>
+  <si>
+    <t>1985-12-10</t>
+  </si>
+  <si>
+    <t>735302538280837</t>
+  </si>
+  <si>
+    <t>96b0efdccd5f144d</t>
+  </si>
+  <si>
+    <t>036230894353268</t>
+  </si>
+  <si>
+    <t>IDEP6713464328875B3G</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>59999425806</t>
+  </si>
+  <si>
+    <t>MHNMKF</t>
+  </si>
+  <si>
+    <t>BNPL7361466897649374</t>
+  </si>
+  <si>
+    <t>59999740487</t>
+  </si>
+  <si>
+    <t>KPAPFF</t>
+  </si>
+  <si>
+    <t>59999213667</t>
+  </si>
+  <si>
+    <t>NPUOCU</t>
+  </si>
+  <si>
+    <t>59999542814</t>
+  </si>
+  <si>
+    <t>CJBQKT</t>
+  </si>
+  <si>
+    <t>59999826029</t>
+  </si>
+  <si>
+    <t>TKOKHH</t>
+  </si>
+  <si>
+    <t>59999946567</t>
+  </si>
+  <si>
+    <t>HRPMMG</t>
+  </si>
+  <si>
+    <t>59999369023</t>
+  </si>
+  <si>
+    <t>DCHLQP</t>
+  </si>
+  <si>
+    <t>59999840807</t>
+  </si>
+  <si>
+    <t>MPOUTD</t>
+  </si>
+  <si>
+    <t>59999586166</t>
+  </si>
+  <si>
+    <t>KHEMGE</t>
+  </si>
+  <si>
+    <t>59999614612</t>
+  </si>
+  <si>
+    <t>QDIGSO</t>
+  </si>
+  <si>
+    <t>335577017912158774</t>
+  </si>
+  <si>
+    <t>ICIC97510175593</t>
+  </si>
+  <si>
+    <t>ICIC95637547715</t>
   </si>
 </sst>
 </file>
@@ -2953,7 +3229,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>769</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3073,22 +3349,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
       <c r="C2" t="s">
-        <v>778</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>798</v>
+        <v>890</v>
       </c>
       <c r="F2" t="s">
         <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>799</v>
+        <v>891</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3425,7 +3701,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>781</v>
+        <v>873</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -3522,16 +3798,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>774</v>
+        <v>867</v>
       </c>
       <c r="C2" t="s">
-        <v>775</v>
+        <v>868</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3634,7 +3910,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>800</v>
+        <v>892</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3646,7 +3922,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>801</v>
+        <v>893</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3655,7 +3931,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>142.0</v>
+        <v>171.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4517,13 +4793,13 @@
         <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>770</v>
+        <v>863</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>771</v>
+        <v>864</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>772</v>
+        <v>865</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4922,7 +5198,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>800</v>
+        <v>892</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -4934,7 +5210,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>802</v>
+        <v>894</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4943,7 +5219,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>142.0</v>
+        <v>171.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5070,10 +5346,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>769</v>
+        <v>862</v>
       </c>
       <c r="E2" t="s">
-        <v>771</v>
+        <v>864</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5085,7 +5361,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5094,10 +5370,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
       <c r="M2" t="n">
-        <v>4218412.0</v>
+        <v>4219116.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5123,7 +5399,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>771</v>
+        <v>864</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5135,7 +5411,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5144,10 +5420,10 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
       <c r="M3" t="n">
-        <v>4218412.0</v>
+        <v>4219116.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -5207,7 +5483,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>769</v>
+        <v>862</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5224,7 +5500,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>769</v>
+        <v>862</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5241,7 +5517,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>769</v>
+        <v>862</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5258,7 +5534,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>769</v>
+        <v>862</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5275,7 +5551,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>769</v>
+        <v>862</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5444,7 +5720,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5688,7 +5964,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5903,7 +6179,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>770</v>
+        <v>863</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -5986,7 +6262,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -6284,7 +6560,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6304,7 +6580,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6324,7 +6600,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6344,7 +6620,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6364,7 +6640,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6384,7 +6660,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6404,7 +6680,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6463,7 +6739,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>778</v>
+        <v>342</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -6477,7 +6753,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>778</v>
+        <v>342</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0310F9-6644-4FE0-B323-2D7FEE80CBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8DBD85-DE83-404C-8A2B-10BD1F7E46A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="342">
   <si>
     <t>TestCases</t>
   </si>
@@ -800,1936 +800,277 @@
     <t>1979-09-20</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>59999941531</t>
-  </si>
-  <si>
-    <t>PDLSSB</t>
-  </si>
-  <si>
-    <t>BNPL6173334429592354</t>
-  </si>
-  <si>
-    <t>335577018022488974</t>
-  </si>
-  <si>
-    <t>ICIC96741173239</t>
-  </si>
-  <si>
-    <t>335577016567605462</t>
-  </si>
-  <si>
-    <t>ICIC85529876828</t>
-  </si>
-  <si>
-    <t>9700240188</t>
-  </si>
-  <si>
-    <t>Julie</t>
-  </si>
-  <si>
-    <t>AbhishekSinghal21322@example.net</t>
-  </si>
-  <si>
-    <t>1995-05-08</t>
-  </si>
-  <si>
-    <t>037689572138235</t>
-  </si>
-  <si>
-    <t>4ca2086df2164f33</t>
-  </si>
-  <si>
-    <t>471333882949212</t>
-  </si>
-  <si>
-    <t>6124235145</t>
-  </si>
-  <si>
-    <t>Kasturba</t>
-  </si>
-  <si>
-    <t>AlbertDeshpande32376@example.net</t>
-  </si>
-  <si>
-    <t>1980-06-22</t>
-  </si>
-  <si>
-    <t>088395871930961</t>
-  </si>
-  <si>
-    <t>c75bb197054ec7e5</t>
-  </si>
-  <si>
-    <t>104798087801290</t>
-  </si>
-  <si>
     <t>PRMO1265511495691SLQ</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>IDEP763145888649KSWA</t>
-  </si>
-  <si>
-    <t>6015226097</t>
-  </si>
-  <si>
-    <t>Nupur</t>
-  </si>
-  <si>
-    <t>KalpitBaral93390@example.net</t>
-  </si>
-  <si>
-    <t>1988-02-12</t>
-  </si>
-  <si>
-    <t>908036977287348</t>
-  </si>
-  <si>
-    <t>1bbcb77632611b1d</t>
-  </si>
-  <si>
-    <t>116554284794531</t>
-  </si>
-  <si>
-    <t>7272970255</t>
-  </si>
-  <si>
-    <t>Radha</t>
-  </si>
-  <si>
-    <t>ZahirSani97110@example.net</t>
-  </si>
-  <si>
-    <t>1990-10-09</t>
-  </si>
-  <si>
-    <t>851471838803362</t>
-  </si>
-  <si>
-    <t>458751f4225395a2</t>
-  </si>
-  <si>
-    <t>356432426324914</t>
-  </si>
-  <si>
-    <t>9036552877</t>
-  </si>
-  <si>
-    <t>Gayatri</t>
-  </si>
-  <si>
-    <t>KarimSachar47553@example.net</t>
-  </si>
-  <si>
-    <t>1980-09-06</t>
-  </si>
-  <si>
-    <t>773021909128762</t>
-  </si>
-  <si>
-    <t>68118c399ac58af2</t>
-  </si>
-  <si>
-    <t>868513997904183</t>
-  </si>
-  <si>
-    <t>IDEP6137464747753L94</t>
-  </si>
-  <si>
-    <t>7484731248</t>
-  </si>
-  <si>
-    <t>Nilima</t>
-  </si>
-  <si>
-    <t>IshatMehan16651@example.net</t>
-  </si>
-  <si>
-    <t>1990-06-10</t>
-  </si>
-  <si>
-    <t>069968089234708</t>
-  </si>
-  <si>
-    <t>5e3820122b62eda7</t>
-  </si>
-  <si>
-    <t>967282933192267</t>
-  </si>
-  <si>
-    <t>IDEP361746658328ULQR</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>146</t>
+    <t>185</t>
+  </si>
+  <si>
+    <t>335577019386578545</t>
+  </si>
+  <si>
+    <t>ICIC97695109732</t>
+  </si>
+  <si>
+    <t>ICIC94432780747</t>
+  </si>
+  <si>
+    <t>9509964338</t>
+  </si>
+  <si>
+    <t>Urmila</t>
+  </si>
+  <si>
+    <t>ArpitSingh40747@example.net</t>
+  </si>
+  <si>
+    <t>1973-01-02</t>
+  </si>
+  <si>
+    <t>530500205641028</t>
+  </si>
+  <si>
+    <t>b590525159ad3b8a</t>
+  </si>
+  <si>
+    <t>075742602219633</t>
+  </si>
+  <si>
+    <t>IDEP617355253858HFRW</t>
+  </si>
+  <si>
+    <t>59999154641</t>
+  </si>
+  <si>
+    <t>CFECRG</t>
+  </si>
+  <si>
+    <t>7166417676</t>
+  </si>
+  <si>
+    <t>Nandini</t>
+  </si>
+  <si>
+    <t>JaswantSehgal55365@example.net</t>
+  </si>
+  <si>
+    <t>1979-11-29</t>
+  </si>
+  <si>
+    <t>396413253210592</t>
+  </si>
+  <si>
+    <t>59805ca73b00a010</t>
+  </si>
+  <si>
+    <t>500642833297728</t>
+  </si>
+  <si>
+    <t>IDEP376155912815DG64</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>154</t>
   </si>
   <si>
     <t>124</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>153</t>
+    <t>142</t>
+  </si>
+  <si>
+    <t>59999700876</t>
+  </si>
+  <si>
+    <t>HSJEGU</t>
+  </si>
+  <si>
+    <t>BNPL6317561871789451</t>
+  </si>
+  <si>
+    <t>59999706809</t>
+  </si>
+  <si>
+    <t>BDJEUJ</t>
+  </si>
+  <si>
+    <t>59999975507</t>
+  </si>
+  <si>
+    <t>SGOFIP</t>
+  </si>
+  <si>
+    <t>59999737823</t>
+  </si>
+  <si>
+    <t>HCHSRL</t>
+  </si>
+  <si>
+    <t>59999149074</t>
+  </si>
+  <si>
+    <t>AESQHJ</t>
+  </si>
+  <si>
+    <t>59999965130</t>
+  </si>
+  <si>
+    <t>BNGQPP</t>
+  </si>
+  <si>
+    <t>59999864526</t>
+  </si>
+  <si>
+    <t>PSQLSQ</t>
+  </si>
+  <si>
+    <t>59999284088</t>
+  </si>
+  <si>
+    <t>MFRMEJ</t>
+  </si>
+  <si>
+    <t>59999629559</t>
+  </si>
+  <si>
+    <t>EIIBKH</t>
+  </si>
+  <si>
+    <t>59999422708</t>
+  </si>
+  <si>
+    <t>NQMBBJ</t>
+  </si>
+  <si>
+    <t>335577017166417676</t>
+  </si>
+  <si>
+    <t>ICIC81469000321</t>
+  </si>
+  <si>
+    <t>ICIC91830599163</t>
+  </si>
+  <si>
+    <t>9737682126</t>
+  </si>
+  <si>
+    <t>Shanti</t>
+  </si>
+  <si>
+    <t>HarpreetTrivedi50877@example.net</t>
+  </si>
+  <si>
+    <t>1977-11-03</t>
+  </si>
+  <si>
+    <t>123614136841160</t>
+  </si>
+  <si>
+    <t>f014061d01d6e3a3</t>
+  </si>
+  <si>
+    <t>145462532619382</t>
+  </si>
+  <si>
+    <t>IDEP137656492692XZL3</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>191</t>
   </si>
   <si>
     <t>182</t>
   </si>
   <si>
-    <t>59999490412</t>
-  </si>
-  <si>
-    <t>JBSKJM</t>
-  </si>
-  <si>
-    <t>BNPL7136471946167524</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>7058653582</t>
-  </si>
-  <si>
-    <t>Sabina</t>
-  </si>
-  <si>
-    <t>SatishwarDevan85917@example.net</t>
-  </si>
-  <si>
-    <t>1992-03-11</t>
-  </si>
-  <si>
-    <t>845860057953008</t>
-  </si>
-  <si>
-    <t>74216353f1417fce</t>
-  </si>
-  <si>
-    <t>901054014316217</t>
-  </si>
-  <si>
-    <t>335577017058653582</t>
-  </si>
-  <si>
-    <t>ICIC80420765351</t>
-  </si>
-  <si>
-    <t>6294597656</t>
-  </si>
-  <si>
-    <t>Hina</t>
-  </si>
-  <si>
-    <t>AbhishekKhalsa82224@example.net</t>
-  </si>
-  <si>
-    <t>1976-09-12</t>
-  </si>
-  <si>
-    <t>940087203648886</t>
-  </si>
-  <si>
-    <t>a5a2d33d321781f6</t>
-  </si>
-  <si>
-    <t>177064492969277</t>
-  </si>
-  <si>
-    <t>335577016294597656</t>
-  </si>
-  <si>
-    <t>ICIC83779745515</t>
-  </si>
-  <si>
-    <t>9743078328</t>
-  </si>
-  <si>
-    <t>AlbertNayar10700@example.net</t>
-  </si>
-  <si>
-    <t>1973-10-04</t>
-  </si>
-  <si>
-    <t>674460372801291</t>
-  </si>
-  <si>
-    <t>0ab221d186f595c5</t>
-  </si>
-  <si>
-    <t>718809057083781</t>
-  </si>
-  <si>
-    <t>IDEP671347965878JL25</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>59999355169</t>
-  </si>
-  <si>
-    <t>OIESMK</t>
-  </si>
-  <si>
-    <t>BNPL1367485157683286</t>
-  </si>
-  <si>
-    <t>164.0</t>
-  </si>
-  <si>
-    <t>9609394279</t>
-  </si>
-  <si>
-    <t>Mukti</t>
-  </si>
-  <si>
-    <t>CharlieMurty90507@example.net</t>
-  </si>
-  <si>
-    <t>1982-04-20</t>
-  </si>
-  <si>
-    <t>895572825541101</t>
-  </si>
-  <si>
-    <t>22e1ba94c9aaa291</t>
-  </si>
-  <si>
-    <t>762926588010821</t>
-  </si>
-  <si>
-    <t>335577019609394279</t>
-  </si>
-  <si>
-    <t>ICIC93383777920</t>
-  </si>
-  <si>
-    <t>9310001142</t>
-  </si>
-  <si>
-    <t>Isha</t>
-  </si>
-  <si>
-    <t>UsmanMohanty68990@example.net</t>
-  </si>
-  <si>
-    <t>1980-08-10</t>
-  </si>
-  <si>
-    <t>550204845546888</t>
-  </si>
-  <si>
-    <t>f9fd7a748f1ea767</t>
-  </si>
-  <si>
-    <t>912771392099894</t>
-  </si>
-  <si>
-    <t>335577019310001142</t>
-  </si>
-  <si>
-    <t>ICIC85007872842</t>
-  </si>
-  <si>
-    <t>6968950257</t>
-  </si>
-  <si>
-    <t>Nagma</t>
-  </si>
-  <si>
-    <t>GauravJacob41126@example.net</t>
-  </si>
-  <si>
-    <t>1972-06-02</t>
-  </si>
-  <si>
-    <t>826940418969340</t>
-  </si>
-  <si>
-    <t>24f8725734c1ab92</t>
-  </si>
-  <si>
-    <t>141610717429738</t>
-  </si>
-  <si>
-    <t>IDEP371615346929IXD7</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>59999312836</t>
-  </si>
-  <si>
-    <t>OTJQEP</t>
-  </si>
-  <si>
-    <t>BNPL6371158959344235</t>
-  </si>
-  <si>
-    <t>160.0</t>
-  </si>
-  <si>
-    <t>6640536402</t>
-  </si>
-  <si>
-    <t>NirmalBahl72839@example.net</t>
-  </si>
-  <si>
-    <t>1971-08-04</t>
-  </si>
-  <si>
-    <t>807929377056226</t>
-  </si>
-  <si>
-    <t>fce2bf7ed616d9aa</t>
-  </si>
-  <si>
-    <t>977065272670144</t>
-  </si>
-  <si>
-    <t>335577016640536402</t>
-  </si>
-  <si>
-    <t>ICIC90864691132</t>
-  </si>
-  <si>
-    <t>8675645334</t>
-  </si>
-  <si>
-    <t>Nalini</t>
-  </si>
-  <si>
-    <t>PeterDial89253@example.net</t>
-  </si>
-  <si>
-    <t>1977-12-12</t>
-  </si>
-  <si>
-    <t>333738435756385</t>
-  </si>
-  <si>
-    <t>5a5e845643156f97</t>
-  </si>
-  <si>
-    <t>120899608643631</t>
-  </si>
-  <si>
-    <t>335577018675645334</t>
-  </si>
-  <si>
-    <t>ICIC88081785054</t>
-  </si>
-  <si>
-    <t>8864564482</t>
-  </si>
-  <si>
-    <t>NeerendraRege60786@example.net</t>
-  </si>
-  <si>
-    <t>1984-01-21</t>
-  </si>
-  <si>
-    <t>629103204998770</t>
-  </si>
-  <si>
-    <t>dfeeca82ca947e42</t>
-  </si>
-  <si>
-    <t>096842160479135</t>
-  </si>
-  <si>
-    <t>IDEP617316331778KR5B</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>187</t>
+    <t>123</t>
+  </si>
+  <si>
+    <t>168</t>
   </si>
   <si>
     <t>102</t>
   </si>
   <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>59999548972</t>
-  </si>
-  <si>
-    <t>HPPQMA</t>
-  </si>
-  <si>
-    <t>BNPL3617168988535961</t>
-  </si>
-  <si>
-    <t>59999175214</t>
-  </si>
-  <si>
-    <t>ALNIDK</t>
-  </si>
-  <si>
-    <t>59999178387</t>
-  </si>
-  <si>
-    <t>TQEFKB</t>
-  </si>
-  <si>
-    <t>59999494185</t>
-  </si>
-  <si>
-    <t>TATSLK</t>
-  </si>
-  <si>
-    <t>59999523384</t>
-  </si>
-  <si>
-    <t>NBESER</t>
-  </si>
-  <si>
-    <t>59999832334</t>
-  </si>
-  <si>
-    <t>BRJNKM</t>
-  </si>
-  <si>
-    <t>59999649757</t>
-  </si>
-  <si>
-    <t>OSNFHN</t>
-  </si>
-  <si>
-    <t>59999836815</t>
-  </si>
-  <si>
-    <t>FFFPUE</t>
-  </si>
-  <si>
-    <t>59999998268</t>
-  </si>
-  <si>
-    <t>LHNGTI</t>
-  </si>
-  <si>
-    <t>59999099464</t>
-  </si>
-  <si>
-    <t>UCPRPR</t>
-  </si>
-  <si>
-    <t>153.0</t>
-  </si>
-  <si>
-    <t>7771934638</t>
-  </si>
-  <si>
-    <t>SidSood27491@example.net</t>
-  </si>
-  <si>
-    <t>1986-07-24</t>
-  </si>
-  <si>
-    <t>439409956684751</t>
-  </si>
-  <si>
-    <t>b8412f269bde7cf7</t>
-  </si>
-  <si>
-    <t>542656211265818</t>
-  </si>
-  <si>
-    <t>335577017771934638</t>
-  </si>
-  <si>
-    <t>ICIC95612143921</t>
-  </si>
-  <si>
-    <t>9701215508</t>
-  </si>
-  <si>
-    <t>Parminder</t>
-  </si>
-  <si>
-    <t>RahimTella18562@example.net</t>
-  </si>
-  <si>
-    <t>1974-01-18</t>
-  </si>
-  <si>
-    <t>463839126526491</t>
-  </si>
-  <si>
-    <t>0b7cd5ebb1bec5ed</t>
-  </si>
-  <si>
-    <t>865500553839773</t>
-  </si>
-  <si>
-    <t>335577019701215508</t>
-  </si>
-  <si>
-    <t>ICIC95522332264</t>
-  </si>
-  <si>
-    <t>9099109930</t>
-  </si>
-  <si>
-    <t>Pinky</t>
-  </si>
-  <si>
-    <t>BholaNazareth19613@example.net</t>
-  </si>
-  <si>
-    <t>169354016247049</t>
-  </si>
-  <si>
-    <t>796f6e3d629444f6</t>
-  </si>
-  <si>
-    <t>035196882955953</t>
-  </si>
-  <si>
-    <t>IDEP671317786885NARZ</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>59999896942</t>
-  </si>
-  <si>
-    <t>JPKFNA</t>
-  </si>
-  <si>
-    <t>BNPL6371183362128394</t>
-  </si>
-  <si>
-    <t>59999301384</t>
-  </si>
-  <si>
-    <t>KCFAPO</t>
-  </si>
-  <si>
-    <t>59999451742</t>
-  </si>
-  <si>
-    <t>TMARDU</t>
-  </si>
-  <si>
-    <t>59999236655</t>
-  </si>
-  <si>
-    <t>JHJHSB</t>
-  </si>
-  <si>
-    <t>59999911133</t>
-  </si>
-  <si>
-    <t>MSHFSK</t>
-  </si>
-  <si>
-    <t>59999202568</t>
-  </si>
-  <si>
-    <t>IEJMND</t>
-  </si>
-  <si>
-    <t>59999975246</t>
-  </si>
-  <si>
-    <t>EPFEMD</t>
-  </si>
-  <si>
-    <t>59999489222</t>
-  </si>
-  <si>
-    <t>RPQDNH</t>
-  </si>
-  <si>
-    <t>59999457687</t>
-  </si>
-  <si>
-    <t>TIIFDC</t>
-  </si>
-  <si>
-    <t>59999035855</t>
-  </si>
-  <si>
-    <t>AMPNGS</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>7303423047</t>
-  </si>
-  <si>
-    <t>Sona</t>
-  </si>
-  <si>
-    <t>AlbertSaha73895@example.net</t>
-  </si>
-  <si>
-    <t>1976-04-20</t>
-  </si>
-  <si>
-    <t>966468003153823</t>
-  </si>
-  <si>
-    <t>342fae53a1a8e574</t>
-  </si>
-  <si>
-    <t>632362577070741</t>
-  </si>
-  <si>
-    <t>335577017303423047</t>
-  </si>
-  <si>
-    <t>ICIC96619256494</t>
-  </si>
-  <si>
-    <t>7710141346</t>
-  </si>
-  <si>
-    <t>Indira</t>
-  </si>
-  <si>
-    <t>AkshayWali13714@example.net</t>
-  </si>
-  <si>
-    <t>1983-03-14</t>
-  </si>
-  <si>
-    <t>174417607262330</t>
-  </si>
-  <si>
-    <t>cc9201daf40da043</t>
-  </si>
-  <si>
-    <t>474777538539768</t>
-  </si>
-  <si>
-    <t>335577017710141346</t>
-  </si>
-  <si>
-    <t>ICIC84975030072</t>
-  </si>
-  <si>
-    <t>8231712936</t>
-  </si>
-  <si>
-    <t>Bhaagyasree</t>
-  </si>
-  <si>
-    <t>BharatSahni57016@example.net</t>
-  </si>
-  <si>
-    <t>1977-01-26</t>
-  </si>
-  <si>
-    <t>772755400435587</t>
-  </si>
-  <si>
-    <t>f36c5b67ca955828</t>
-  </si>
-  <si>
-    <t>012693749207005</t>
-  </si>
-  <si>
-    <t>IDEP167318868611NDSG</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>59999555273</t>
-  </si>
-  <si>
-    <t>AAMUJH</t>
-  </si>
-  <si>
-    <t>BNPL3167194288883419</t>
-  </si>
-  <si>
-    <t>59999908865</t>
-  </si>
-  <si>
-    <t>UGRGJO</t>
-  </si>
-  <si>
-    <t>59999892213</t>
-  </si>
-  <si>
-    <t>BKSGPR</t>
-  </si>
-  <si>
-    <t>59999623027</t>
-  </si>
-  <si>
-    <t>OGSRSL</t>
-  </si>
-  <si>
-    <t>59999151069</t>
-  </si>
-  <si>
-    <t>ECFDIQ</t>
-  </si>
-  <si>
-    <t>59999949331</t>
-  </si>
-  <si>
-    <t>DIUMMS</t>
-  </si>
-  <si>
-    <t>59999222692</t>
-  </si>
-  <si>
-    <t>LQTTQE</t>
-  </si>
-  <si>
-    <t>59999630612</t>
-  </si>
-  <si>
-    <t>OJGNMN</t>
-  </si>
-  <si>
-    <t>59999535937</t>
-  </si>
-  <si>
-    <t>LJOBMP</t>
-  </si>
-  <si>
-    <t>59999108432</t>
-  </si>
-  <si>
-    <t>GSOSGC</t>
-  </si>
-  <si>
-    <t>105.0</t>
-  </si>
-  <si>
-    <t>9979515556</t>
-  </si>
-  <si>
-    <t>DavidPandey79396@example.net</t>
-  </si>
-  <si>
-    <t>1979-10-07</t>
-  </si>
-  <si>
-    <t>441616290480425</t>
-  </si>
-  <si>
-    <t>0d94ecfa78c338ca</t>
-  </si>
-  <si>
-    <t>490387020015457</t>
-  </si>
-  <si>
-    <t>335577019979515556</t>
-  </si>
-  <si>
-    <t>ICIC97830626178</t>
-  </si>
-  <si>
-    <t>6920613110</t>
-  </si>
-  <si>
-    <t>Shweta</t>
-  </si>
-  <si>
-    <t>HarbhajanPandey67992@example.net</t>
-  </si>
-  <si>
-    <t>1985-01-22</t>
-  </si>
-  <si>
-    <t>238829092118781</t>
-  </si>
-  <si>
-    <t>7fb2e09df5254617</t>
-  </si>
-  <si>
-    <t>487956172222585</t>
-  </si>
-  <si>
-    <t>335577016920613110</t>
-  </si>
-  <si>
-    <t>ICIC94450874745</t>
-  </si>
-  <si>
-    <t>6751912269</t>
-  </si>
-  <si>
-    <t>Aabha</t>
-  </si>
-  <si>
-    <t>MunafSen24293@example.net</t>
-  </si>
-  <si>
-    <t>1995-07-05</t>
-  </si>
-  <si>
-    <t>081146446250311</t>
-  </si>
-  <si>
-    <t>1ad100f81678fb13</t>
-  </si>
-  <si>
-    <t>711450037486054</t>
-  </si>
-  <si>
-    <t>IDEP136738438361FNLT</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>59999808041</t>
-  </si>
-  <si>
-    <t>NNLTLN</t>
-  </si>
-  <si>
-    <t>BNPL7136389923369245</t>
-  </si>
-  <si>
-    <t>59999991703</t>
-  </si>
-  <si>
-    <t>DKNOQT</t>
-  </si>
-  <si>
-    <t>59999860630</t>
-  </si>
-  <si>
-    <t>KPIURQ</t>
-  </si>
-  <si>
-    <t>59999750001</t>
-  </si>
-  <si>
-    <t>RRBAPM</t>
-  </si>
-  <si>
-    <t>59999485140</t>
-  </si>
-  <si>
-    <t>CRGUTU</t>
-  </si>
-  <si>
-    <t>59999220028</t>
-  </si>
-  <si>
-    <t>TPAFEQ</t>
-  </si>
-  <si>
-    <t>59999919776</t>
-  </si>
-  <si>
-    <t>UCTPNC</t>
-  </si>
-  <si>
-    <t>59999669998</t>
-  </si>
-  <si>
-    <t>IGEHML</t>
-  </si>
-  <si>
-    <t>59999339302</t>
-  </si>
-  <si>
-    <t>USPPUI</t>
-  </si>
-  <si>
-    <t>59999298356</t>
-  </si>
-  <si>
-    <t>JCOOOL</t>
-  </si>
-  <si>
-    <t>156.0</t>
-  </si>
-  <si>
-    <t>6102134660</t>
-  </si>
-  <si>
-    <t>Kajol</t>
-  </si>
-  <si>
-    <t>AatifRaj18545@example.net</t>
-  </si>
-  <si>
-    <t>1982-08-12</t>
-  </si>
-  <si>
-    <t>750637552830433</t>
-  </si>
-  <si>
-    <t>b590c6a088f804cc</t>
-  </si>
-  <si>
-    <t>628097138394208</t>
-  </si>
-  <si>
-    <t>335577016102134660</t>
-  </si>
-  <si>
-    <t>ICIC85628191121</t>
-  </si>
-  <si>
-    <t>6727342911</t>
-  </si>
-  <si>
-    <t>Tulsi</t>
-  </si>
-  <si>
-    <t>NareshSarma62543@example.net</t>
-  </si>
-  <si>
-    <t>1980-01-03</t>
-  </si>
-  <si>
-    <t>009585956256110</t>
-  </si>
-  <si>
-    <t>2fe4a05e23ef2f3e</t>
-  </si>
-  <si>
-    <t>760744227204446</t>
-  </si>
-  <si>
-    <t>335577016727342911</t>
-  </si>
-  <si>
-    <t>ICIC91013920189</t>
-  </si>
-  <si>
-    <t>7222801589</t>
-  </si>
-  <si>
-    <t>Megha</t>
-  </si>
-  <si>
-    <t>RashidGokhale51971@example.net</t>
-  </si>
-  <si>
-    <t>1980-03-04</t>
-  </si>
-  <si>
-    <t>974785719864785</t>
-  </si>
-  <si>
-    <t>d044f2731cb11ba8</t>
-  </si>
-  <si>
-    <t>428775978239094</t>
-  </si>
-  <si>
-    <t>IDEP167386785828E29F</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>59999629307</t>
-  </si>
-  <si>
-    <t>ABPSNS</t>
-  </si>
-  <si>
-    <t>59999567179</t>
-  </si>
-  <si>
-    <t>HKPIBR</t>
-  </si>
-  <si>
-    <t>59999567475</t>
-  </si>
-  <si>
-    <t>HRLQRF</t>
-  </si>
-  <si>
-    <t>59999536058</t>
-  </si>
-  <si>
-    <t>EKSQJO</t>
-  </si>
-  <si>
-    <t>59999580937</t>
-  </si>
-  <si>
-    <t>IRQUBS</t>
-  </si>
-  <si>
-    <t>59999503733</t>
-  </si>
-  <si>
-    <t>ETMKPN</t>
-  </si>
-  <si>
-    <t>59999204531</t>
-  </si>
-  <si>
-    <t>PGJKPK</t>
-  </si>
-  <si>
-    <t>59999002209</t>
-  </si>
-  <si>
-    <t>ELQGNB</t>
-  </si>
-  <si>
-    <t>59999630886</t>
-  </si>
-  <si>
-    <t>FCEASA</t>
-  </si>
-  <si>
-    <t>59999324459</t>
-  </si>
-  <si>
-    <t>RNOFHA</t>
-  </si>
-  <si>
-    <t>9847203942</t>
-  </si>
-  <si>
-    <t>Fatima</t>
-  </si>
-  <si>
-    <t>HrishikeshMasih44673@example.net</t>
-  </si>
-  <si>
-    <t>1971-11-12</t>
-  </si>
-  <si>
-    <t>983506743182856</t>
-  </si>
-  <si>
-    <t>9aed43b516c5c335</t>
-  </si>
-  <si>
-    <t>519214077658350</t>
-  </si>
-  <si>
-    <t>IDEP167388187174LI9A</t>
-  </si>
-  <si>
-    <t>8632910519</t>
-  </si>
-  <si>
-    <t>Astha</t>
-  </si>
-  <si>
-    <t>DineshDave51866@example.net</t>
-  </si>
-  <si>
-    <t>1974-06-06</t>
-  </si>
-  <si>
-    <t>216285680312623</t>
-  </si>
-  <si>
-    <t>247698afbb20b58b</t>
-  </si>
-  <si>
-    <t>631337972990645</t>
-  </si>
-  <si>
-    <t>6711586650</t>
-  </si>
-  <si>
-    <t>Prabha</t>
-  </si>
-  <si>
-    <t>FerozWagle95644@example.net</t>
-  </si>
-  <si>
-    <t>1988-11-11</t>
-  </si>
-  <si>
-    <t>955953862797599</t>
-  </si>
-  <si>
-    <t>f06b3084092d9084</t>
-  </si>
-  <si>
-    <t>849105569408695</t>
-  </si>
-  <si>
-    <t>IDEP173688945333YB12</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>59999258390</t>
-  </si>
-  <si>
-    <t>PJUIPK</t>
-  </si>
-  <si>
-    <t>59999389657</t>
-  </si>
-  <si>
-    <t>TFSOOH</t>
-  </si>
-  <si>
-    <t>59999725488</t>
-  </si>
-  <si>
-    <t>TCDFBK</t>
-  </si>
-  <si>
-    <t>59999627021</t>
-  </si>
-  <si>
-    <t>QNMPQI</t>
-  </si>
-  <si>
-    <t>59999915863</t>
-  </si>
-  <si>
-    <t>UPLRHC</t>
-  </si>
-  <si>
-    <t>59999250141</t>
-  </si>
-  <si>
-    <t>PDLELR</t>
-  </si>
-  <si>
-    <t>59999689984</t>
-  </si>
-  <si>
-    <t>UTMTDP</t>
-  </si>
-  <si>
-    <t>59999089453</t>
-  </si>
-  <si>
-    <t>CSJMFG</t>
-  </si>
-  <si>
-    <t>59999707804</t>
-  </si>
-  <si>
-    <t>CKAMLQ</t>
-  </si>
-  <si>
-    <t>59999188036</t>
-  </si>
-  <si>
-    <t>NIFURB</t>
-  </si>
-  <si>
-    <t>7006045685</t>
-  </si>
-  <si>
-    <t>Anusha</t>
-  </si>
-  <si>
-    <t>RadheshyamPalan13751@example.net</t>
-  </si>
-  <si>
-    <t>1982-04-17</t>
-  </si>
-  <si>
-    <t>514414960854331</t>
-  </si>
-  <si>
-    <t>9d867dbcf7f241e4</t>
-  </si>
-  <si>
-    <t>931959851584921</t>
-  </si>
-  <si>
-    <t>IDEP317627169852UF3B</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>59999159226</t>
-  </si>
-  <si>
-    <t>JAUKKS</t>
-  </si>
-  <si>
-    <t>59999640157</t>
-  </si>
-  <si>
-    <t>RQBEHP</t>
-  </si>
-  <si>
-    <t>59999608566</t>
-  </si>
-  <si>
-    <t>HDNDAD</t>
-  </si>
-  <si>
-    <t>59999791627</t>
-  </si>
-  <si>
-    <t>HSKTFO</t>
-  </si>
-  <si>
-    <t>59999273621</t>
-  </si>
-  <si>
-    <t>ORGTGN</t>
-  </si>
-  <si>
-    <t>59999573287</t>
-  </si>
-  <si>
-    <t>ITQRHK</t>
-  </si>
-  <si>
-    <t>59999021260</t>
-  </si>
-  <si>
-    <t>FFKMIS</t>
-  </si>
-  <si>
-    <t>59999949450</t>
-  </si>
-  <si>
-    <t>DMTUSN</t>
-  </si>
-  <si>
-    <t>59999497582</t>
-  </si>
-  <si>
-    <t>ALILNO</t>
-  </si>
-  <si>
-    <t>59999323542</t>
-  </si>
-  <si>
-    <t>TCCNDE</t>
-  </si>
-  <si>
-    <t>9386578545</t>
-  </si>
-  <si>
-    <t>Rimi</t>
-  </si>
-  <si>
-    <t>NeerendraMadan57558@example.net</t>
-  </si>
-  <si>
-    <t>1982-01-16</t>
-  </si>
-  <si>
-    <t>010041097026779</t>
-  </si>
-  <si>
-    <t>3b834813ab3f16e3</t>
-  </si>
-  <si>
-    <t>153302344846279</t>
-  </si>
-  <si>
-    <t>IDEP173649311289XYRT</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>59999215664</t>
-  </si>
-  <si>
-    <t>RBGQSO</t>
-  </si>
-  <si>
-    <t>BNPL7613495877744198</t>
-  </si>
-  <si>
-    <t>59999357149</t>
-  </si>
-  <si>
-    <t>EGDRCT</t>
-  </si>
-  <si>
-    <t>59999512464</t>
-  </si>
-  <si>
-    <t>EPTIHA</t>
-  </si>
-  <si>
-    <t>59999324528</t>
-  </si>
-  <si>
-    <t>KGHNAO</t>
-  </si>
-  <si>
-    <t>59999932280</t>
-  </si>
-  <si>
-    <t>DHJBAJ</t>
-  </si>
-  <si>
-    <t>59999864286</t>
-  </si>
-  <si>
-    <t>CGDOHO</t>
-  </si>
-  <si>
-    <t>59999845751</t>
-  </si>
-  <si>
-    <t>FLNHKD</t>
-  </si>
-  <si>
-    <t>59999727885</t>
-  </si>
-  <si>
-    <t>KMSLEG</t>
-  </si>
-  <si>
-    <t>59999727792</t>
-  </si>
-  <si>
-    <t>NQMQDB</t>
-  </si>
-  <si>
-    <t>59999197378</t>
-  </si>
-  <si>
-    <t>FUTKPH</t>
-  </si>
-  <si>
-    <t>335577019386578545</t>
-  </si>
-  <si>
-    <t>ICIC97695109732</t>
-  </si>
-  <si>
-    <t>ICIC94432780747</t>
-  </si>
-  <si>
-    <t>9769476773</t>
-  </si>
-  <si>
-    <t>Mayawati</t>
-  </si>
-  <si>
-    <t>TusharChar32051@example.net</t>
-  </si>
-  <si>
-    <t>1993-03-31</t>
-  </si>
-  <si>
-    <t>448035296243153</t>
-  </si>
-  <si>
-    <t>fddd45bb789cb702</t>
-  </si>
-  <si>
-    <t>346119585266373</t>
-  </si>
-  <si>
-    <t>IDEP763178819813GA5J</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>59999677839</t>
-  </si>
-  <si>
-    <t>TSILOE</t>
-  </si>
-  <si>
-    <t>BNPL6137781931822854</t>
-  </si>
-  <si>
-    <t>59999867534</t>
-  </si>
-  <si>
-    <t>NMNHEU</t>
-  </si>
-  <si>
-    <t>59999995530</t>
-  </si>
-  <si>
-    <t>BJKRCP</t>
-  </si>
-  <si>
-    <t>59999878354</t>
-  </si>
-  <si>
-    <t>OFOBMM</t>
-  </si>
-  <si>
-    <t>59999857727</t>
-  </si>
-  <si>
-    <t>FHESCI</t>
-  </si>
-  <si>
-    <t>59999652485</t>
-  </si>
-  <si>
-    <t>THULUK</t>
-  </si>
-  <si>
-    <t>59999973213</t>
-  </si>
-  <si>
-    <t>ITBCFJ</t>
-  </si>
-  <si>
-    <t>59999330947</t>
-  </si>
-  <si>
-    <t>RNJNJI</t>
-  </si>
-  <si>
-    <t>59999445270</t>
-  </si>
-  <si>
-    <t>RFHIGD</t>
-  </si>
-  <si>
-    <t>59999463097</t>
-  </si>
-  <si>
-    <t>IONBFN</t>
-  </si>
-  <si>
-    <t>335577019769476773</t>
-  </si>
-  <si>
-    <t>ICIC91834809196</t>
-  </si>
-  <si>
-    <t>ICIC93645518425</t>
-  </si>
-  <si>
-    <t>6981439539</t>
-  </si>
-  <si>
-    <t>Mini</t>
-  </si>
-  <si>
-    <t>GovindChacko65625@example.net</t>
-  </si>
-  <si>
-    <t>1989-03-02</t>
-  </si>
-  <si>
-    <t>076884711381364</t>
-  </si>
-  <si>
-    <t>bd2cbb45ad2bf7ce</t>
-  </si>
-  <si>
-    <t>703250519497086</t>
-  </si>
-  <si>
-    <t>IDEP167348569651I47G</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>59999845362</t>
-  </si>
-  <si>
-    <t>RPKFCB</t>
-  </si>
-  <si>
-    <t>59999434508</t>
-  </si>
-  <si>
-    <t>PBNKUE</t>
-  </si>
-  <si>
-    <t>59999569822</t>
-  </si>
-  <si>
-    <t>SHTBEC</t>
-  </si>
-  <si>
-    <t>59999464741</t>
-  </si>
-  <si>
-    <t>AQIIJS</t>
-  </si>
-  <si>
-    <t>59999380777</t>
-  </si>
-  <si>
-    <t>UGMSGU</t>
-  </si>
-  <si>
-    <t>59999968277</t>
-  </si>
-  <si>
-    <t>OKLPDN</t>
-  </si>
-  <si>
-    <t>59999977118</t>
-  </si>
-  <si>
-    <t>SGIALA</t>
-  </si>
-  <si>
-    <t>59999025313</t>
-  </si>
-  <si>
-    <t>UJGTKQ</t>
-  </si>
-  <si>
-    <t>59999341674</t>
-  </si>
-  <si>
-    <t>MTMPPH</t>
-  </si>
-  <si>
-    <t>59999414698</t>
-  </si>
-  <si>
-    <t>MCMCPB</t>
-  </si>
-  <si>
-    <t>7249874933</t>
-  </si>
-  <si>
-    <t>Neela</t>
-  </si>
-  <si>
-    <t>AmritMerchant99820@example.net</t>
-  </si>
-  <si>
-    <t>1994-07-20</t>
-  </si>
-  <si>
-    <t>367117175962942</t>
-  </si>
-  <si>
-    <t>baf4b44cf12286d2</t>
-  </si>
-  <si>
-    <t>538756784192906</t>
-  </si>
-  <si>
-    <t>IDEP631745195849VS9C</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>59999274864</t>
-  </si>
-  <si>
-    <t>NUHABA</t>
-  </si>
-  <si>
-    <t>59999910826</t>
-  </si>
-  <si>
-    <t>NPPTQR</t>
-  </si>
-  <si>
-    <t>59999634049</t>
-  </si>
-  <si>
-    <t>RRMLHK</t>
-  </si>
-  <si>
-    <t>59999813617</t>
-  </si>
-  <si>
-    <t>HEQCLK</t>
-  </si>
-  <si>
-    <t>59999729634</t>
-  </si>
-  <si>
-    <t>UBRBUH</t>
-  </si>
-  <si>
-    <t>59999045225</t>
-  </si>
-  <si>
-    <t>EJDKKS</t>
-  </si>
-  <si>
-    <t>59999015810</t>
-  </si>
-  <si>
-    <t>KRTLSI</t>
-  </si>
-  <si>
-    <t>59999122728</t>
-  </si>
-  <si>
-    <t>ACJPTI</t>
-  </si>
-  <si>
-    <t>59999125010</t>
-  </si>
-  <si>
-    <t>UCRTCQ</t>
-  </si>
-  <si>
-    <t>59999923046</t>
-  </si>
-  <si>
-    <t>BUMEBH</t>
-  </si>
-  <si>
-    <t>7912158774</t>
-  </si>
-  <si>
-    <t>Vimala</t>
-  </si>
-  <si>
-    <t>MukundNarasimhan63920@example.net</t>
-  </si>
-  <si>
-    <t>1985-12-10</t>
-  </si>
-  <si>
-    <t>735302538280837</t>
-  </si>
-  <si>
-    <t>96b0efdccd5f144d</t>
-  </si>
-  <si>
-    <t>036230894353268</t>
-  </si>
-  <si>
-    <t>IDEP6713464328875B3G</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>59999425806</t>
-  </si>
-  <si>
-    <t>MHNMKF</t>
-  </si>
-  <si>
-    <t>BNPL7361466897649374</t>
-  </si>
-  <si>
-    <t>59999740487</t>
-  </si>
-  <si>
-    <t>KPAPFF</t>
-  </si>
-  <si>
-    <t>59999213667</t>
-  </si>
-  <si>
-    <t>NPUOCU</t>
-  </si>
-  <si>
-    <t>59999542814</t>
-  </si>
-  <si>
-    <t>CJBQKT</t>
-  </si>
-  <si>
-    <t>59999826029</t>
-  </si>
-  <si>
-    <t>TKOKHH</t>
-  </si>
-  <si>
-    <t>59999946567</t>
-  </si>
-  <si>
-    <t>HRPMMG</t>
-  </si>
-  <si>
-    <t>59999369023</t>
-  </si>
-  <si>
-    <t>DCHLQP</t>
-  </si>
-  <si>
-    <t>59999840807</t>
-  </si>
-  <si>
-    <t>MPOUTD</t>
-  </si>
-  <si>
-    <t>59999586166</t>
-  </si>
-  <si>
-    <t>KHEMGE</t>
-  </si>
-  <si>
-    <t>59999614612</t>
-  </si>
-  <si>
-    <t>QDIGSO</t>
-  </si>
-  <si>
-    <t>335577017912158774</t>
-  </si>
-  <si>
-    <t>ICIC97510175593</t>
-  </si>
-  <si>
-    <t>ICIC95637547715</t>
+    <t>59999356181</t>
+  </si>
+  <si>
+    <t>DMDASS</t>
+  </si>
+  <si>
+    <t>BNPL3761576384654692</t>
+  </si>
+  <si>
+    <t>59999702071</t>
+  </si>
+  <si>
+    <t>TFEDNO</t>
+  </si>
+  <si>
+    <t>59999829897</t>
+  </si>
+  <si>
+    <t>RBQRQG</t>
+  </si>
+  <si>
+    <t>59999779796</t>
+  </si>
+  <si>
+    <t>RCSCSD</t>
+  </si>
+  <si>
+    <t>59999993652</t>
+  </si>
+  <si>
+    <t>RRBGSI</t>
+  </si>
+  <si>
+    <t>59999099433</t>
+  </si>
+  <si>
+    <t>NSPQAS</t>
+  </si>
+  <si>
+    <t>59999124675</t>
+  </si>
+  <si>
+    <t>LHANCU</t>
+  </si>
+  <si>
+    <t>59999977630</t>
+  </si>
+  <si>
+    <t>SSPKPF</t>
+  </si>
+  <si>
+    <t>59999508686</t>
+  </si>
+  <si>
+    <t>LORKBI</t>
+  </si>
+  <si>
+    <t>59999595313</t>
+  </si>
+  <si>
+    <t>SELMUB</t>
+  </si>
+  <si>
+    <t>335577019737682126</t>
+  </si>
+  <si>
+    <t>ICIC83772804279</t>
+  </si>
+  <si>
+    <t>ICIC99050622883</t>
   </si>
 </sst>
 </file>
@@ -3229,7 +1570,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>862</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3296,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0FC63-D631-4AC8-B268-689CB743335F}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3349,22 +1690,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>869</v>
+        <v>311</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>890</v>
+        <v>337</v>
       </c>
       <c r="F2" t="s">
         <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>891</v>
+        <v>338</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3701,7 +2042,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>873</v>
+        <v>320</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -3798,16 +2139,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>867</v>
+        <v>309</v>
       </c>
       <c r="C2" t="s">
-        <v>868</v>
+        <v>310</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>866</v>
+        <v>308</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3910,7 +2251,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>892</v>
+        <v>339</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3922,7 +2263,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>893</v>
+        <v>340</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3931,7 +2272,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>171.0</v>
+        <v>142.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4729,7 +3070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -4793,13 +3134,13 @@
         <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>863</v>
+        <v>305</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>864</v>
+        <v>306</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>865</v>
+        <v>307</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4808,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>219</v>
@@ -5198,7 +3539,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>892</v>
+        <v>339</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -5210,7 +3551,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>894</v>
+        <v>341</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -5219,7 +3560,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>171.0</v>
+        <v>142.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5346,10 +3687,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>862</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
-        <v>864</v>
+        <v>306</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5361,7 +3702,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>866</v>
+        <v>308</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5370,10 +3711,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>869</v>
+        <v>311</v>
       </c>
       <c r="M2" t="n">
-        <v>4219116.0</v>
+        <v>4219297.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5399,7 +3740,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>864</v>
+        <v>306</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5411,7 +3752,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>866</v>
+        <v>308</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5420,10 +3761,10 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>869</v>
+        <v>311</v>
       </c>
       <c r="M3" t="n">
-        <v>4219116.0</v>
+        <v>4219297.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -5483,7 +3824,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>862</v>
+        <v>304</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5500,7 +3841,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>862</v>
+        <v>304</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5517,7 +3858,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>862</v>
+        <v>304</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5534,7 +3875,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>862</v>
+        <v>304</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5551,7 +3892,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>862</v>
+        <v>304</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5720,7 +4061,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>866</v>
+        <v>308</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5964,7 +4305,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>866</v>
+        <v>308</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6179,7 +4520,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>863</v>
+        <v>305</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -6262,7 +4603,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>869</v>
+        <v>311</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -6560,7 +4901,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>869</v>
+        <v>311</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6580,7 +4921,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>869</v>
+        <v>311</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6600,7 +4941,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>869</v>
+        <v>311</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6620,7 +4961,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>869</v>
+        <v>311</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6640,7 +4981,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>869</v>
+        <v>311</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6660,7 +5001,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>869</v>
+        <v>311</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6680,7 +5021,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>869</v>
+        <v>311</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6739,7 +5080,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -6753,7 +5094,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="481">
   <si>
     <t>TestCases</t>
   </si>
@@ -1071,6 +1071,423 @@
   </si>
   <si>
     <t>ICIC99050622883</t>
+  </si>
+  <si>
+    <t>8647056691</t>
+  </si>
+  <si>
+    <t>Swati</t>
+  </si>
+  <si>
+    <t>ShashankKumar39911@example.net</t>
+  </si>
+  <si>
+    <t>1982-04-02</t>
+  </si>
+  <si>
+    <t>433411261504167</t>
+  </si>
+  <si>
+    <t>c5ac628c3474847a</t>
+  </si>
+  <si>
+    <t>169586405267290</t>
+  </si>
+  <si>
+    <t>IDEP674136248383NMED</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>59999203802</t>
+  </si>
+  <si>
+    <t>FTAEKD</t>
+  </si>
+  <si>
+    <t>59999331432</t>
+  </si>
+  <si>
+    <t>FBQRLG</t>
+  </si>
+  <si>
+    <t>59999529747</t>
+  </si>
+  <si>
+    <t>LIDNED</t>
+  </si>
+  <si>
+    <t>59999744720</t>
+  </si>
+  <si>
+    <t>DPGRNR</t>
+  </si>
+  <si>
+    <t>59999874151</t>
+  </si>
+  <si>
+    <t>IMMSFK</t>
+  </si>
+  <si>
+    <t>59999427124</t>
+  </si>
+  <si>
+    <t>IDADHM</t>
+  </si>
+  <si>
+    <t>59999248609</t>
+  </si>
+  <si>
+    <t>LDCSBM</t>
+  </si>
+  <si>
+    <t>59999552669</t>
+  </si>
+  <si>
+    <t>TIFOAS</t>
+  </si>
+  <si>
+    <t>59999596732</t>
+  </si>
+  <si>
+    <t>MJKUOT</t>
+  </si>
+  <si>
+    <t>59999022775</t>
+  </si>
+  <si>
+    <t>PQFNFB</t>
+  </si>
+  <si>
+    <t>8205492318</t>
+  </si>
+  <si>
+    <t>Ankita</t>
+  </si>
+  <si>
+    <t>ManpreetSodhani89878@example.net</t>
+  </si>
+  <si>
+    <t>1993-11-21</t>
+  </si>
+  <si>
+    <t>707259087127872</t>
+  </si>
+  <si>
+    <t>914aa4461ec71669</t>
+  </si>
+  <si>
+    <t>153936873815229</t>
+  </si>
+  <si>
+    <t>IDEP17463894415832U9</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>59999587102</t>
+  </si>
+  <si>
+    <t>MFPUNN</t>
+  </si>
+  <si>
+    <t>BNPL7641391621322941</t>
+  </si>
+  <si>
+    <t>59999767752</t>
+  </si>
+  <si>
+    <t>PISDHI</t>
+  </si>
+  <si>
+    <t>59999366808</t>
+  </si>
+  <si>
+    <t>JOAKPM</t>
+  </si>
+  <si>
+    <t>59999875033</t>
+  </si>
+  <si>
+    <t>QUARRI</t>
+  </si>
+  <si>
+    <t>59999380215</t>
+  </si>
+  <si>
+    <t>FBRIAG</t>
+  </si>
+  <si>
+    <t>59999462101</t>
+  </si>
+  <si>
+    <t>RRRLIH</t>
+  </si>
+  <si>
+    <t>59999515004</t>
+  </si>
+  <si>
+    <t>GSSIOG</t>
+  </si>
+  <si>
+    <t>59999891007</t>
+  </si>
+  <si>
+    <t>EQNNBE</t>
+  </si>
+  <si>
+    <t>59999081543</t>
+  </si>
+  <si>
+    <t>ONUPJR</t>
+  </si>
+  <si>
+    <t>59999864297</t>
+  </si>
+  <si>
+    <t>JBOLLH</t>
+  </si>
+  <si>
+    <t>335577018205492318</t>
+  </si>
+  <si>
+    <t>ICIC97216320577</t>
+  </si>
+  <si>
+    <t>ICIC94240690053</t>
+  </si>
+  <si>
+    <t>8471529584</t>
+  </si>
+  <si>
+    <t>Nagma</t>
+  </si>
+  <si>
+    <t>MohanKannan31582@example.net</t>
+  </si>
+  <si>
+    <t>1991-09-28</t>
+  </si>
+  <si>
+    <t>200241175436763</t>
+  </si>
+  <si>
+    <t>1fffd748e7431968</t>
+  </si>
+  <si>
+    <t>334791485879010</t>
+  </si>
+  <si>
+    <t>IDEP647148425565VMIQ</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>59999700156</t>
+  </si>
+  <si>
+    <t>AHUUQE</t>
+  </si>
+  <si>
+    <t>59999861333</t>
+  </si>
+  <si>
+    <t>ALQFGO</t>
+  </si>
+  <si>
+    <t>59999114456</t>
+  </si>
+  <si>
+    <t>HKIQKQ</t>
+  </si>
+  <si>
+    <t>59999761285</t>
+  </si>
+  <si>
+    <t>PSFNNS</t>
+  </si>
+  <si>
+    <t>59999620092</t>
+  </si>
+  <si>
+    <t>JHKGRO</t>
+  </si>
+  <si>
+    <t>59999787224</t>
+  </si>
+  <si>
+    <t>AGFRFO</t>
+  </si>
+  <si>
+    <t>59999108169</t>
+  </si>
+  <si>
+    <t>DTBUUD</t>
+  </si>
+  <si>
+    <t>59999604920</t>
+  </si>
+  <si>
+    <t>UATTNR</t>
+  </si>
+  <si>
+    <t>59999501287</t>
+  </si>
+  <si>
+    <t>JFSQIR</t>
+  </si>
+  <si>
+    <t>59999544451</t>
+  </si>
+  <si>
+    <t>DSNQMI</t>
+  </si>
+  <si>
+    <t>9647717011</t>
+  </si>
+  <si>
+    <t>Nutan</t>
+  </si>
+  <si>
+    <t>ShashankPersad57045@example.net</t>
+  </si>
+  <si>
+    <t>1970-05-03</t>
+  </si>
+  <si>
+    <t>401151852003322</t>
+  </si>
+  <si>
+    <t>6b884328048290c3</t>
+  </si>
+  <si>
+    <t>140286930186974</t>
+  </si>
+  <si>
+    <t>IDEP614742379698A4SN</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>59999036402</t>
+  </si>
+  <si>
+    <t>LTTLUN</t>
+  </si>
+  <si>
+    <t>59999840417</t>
+  </si>
+  <si>
+    <t>KFUGIP</t>
+  </si>
+  <si>
+    <t>59999346847</t>
+  </si>
+  <si>
+    <t>KTMLSK</t>
+  </si>
+  <si>
+    <t>59999986753</t>
+  </si>
+  <si>
+    <t>MSBLNH</t>
+  </si>
+  <si>
+    <t>59999774419</t>
+  </si>
+  <si>
+    <t>LFESFF</t>
+  </si>
+  <si>
+    <t>59999030964</t>
+  </si>
+  <si>
+    <t>HIQIKO</t>
+  </si>
+  <si>
+    <t>59999611764</t>
+  </si>
+  <si>
+    <t>QRKJDR</t>
+  </si>
+  <si>
+    <t>59999569355</t>
+  </si>
+  <si>
+    <t>RCLNET</t>
+  </si>
+  <si>
+    <t>59999664949</t>
+  </si>
+  <si>
+    <t>MLEAEK</t>
+  </si>
+  <si>
+    <t>59999872048</t>
+  </si>
+  <si>
+    <t>TQELHQ</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1987,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>304</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1690,22 +2107,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>456</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>426</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>337</v>
+        <v>479</v>
       </c>
       <c r="F2" t="s">
         <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>338</v>
+        <v>480</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2041,9 +2458,7 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
-        <v>320</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
@@ -2139,16 +2554,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>454</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>455</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>453</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2251,7 +2666,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>339</v>
+        <v>412</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -2263,7 +2678,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>340</v>
+        <v>413</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2272,7 +2687,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>142.0</v>
+        <v>149.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3134,13 +3549,13 @@
         <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>305</v>
+        <v>450</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>306</v>
+        <v>451</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>307</v>
+        <v>452</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3539,7 +3954,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>339</v>
+        <v>412</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3551,7 +3966,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>341</v>
+        <v>414</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3560,7 +3975,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>142.0</v>
+        <v>149.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3687,10 +4102,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>304</v>
+        <v>449</v>
       </c>
       <c r="E2" t="s">
-        <v>306</v>
+        <v>451</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3702,7 +4117,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>308</v>
+        <v>453</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3711,10 +4126,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>311</v>
+        <v>456</v>
       </c>
       <c r="M2" t="n">
-        <v>4219297.0</v>
+        <v>4219742.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3740,7 +4155,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>451</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -3752,7 +4167,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>308</v>
+        <v>453</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -3761,10 +4176,10 @@
         <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>311</v>
+        <v>456</v>
       </c>
       <c r="M3" t="n">
-        <v>4219297.0</v>
+        <v>4219742.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -3824,7 +4239,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>304</v>
+        <v>449</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3841,7 +4256,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>304</v>
+        <v>449</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3858,7 +4273,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>304</v>
+        <v>449</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3875,7 +4290,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>304</v>
+        <v>449</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3892,7 +4307,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>304</v>
+        <v>449</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4061,7 +4476,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>308</v>
+        <v>453</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4305,7 +4720,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>308</v>
+        <v>453</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4520,7 +4935,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>450</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -4603,7 +5018,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>456</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -4901,7 +5316,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>456</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4921,7 +5336,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>456</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4941,7 +5356,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>456</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -4961,7 +5376,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>456</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4981,7 +5396,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>456</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5001,7 +5416,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>456</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5021,7 +5436,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>311</v>
+        <v>456</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5080,7 +5495,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>426</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -5094,7 +5509,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>426</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8DBD85-DE83-404C-8A2B-10BD1F7E46A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679CB33F-7EF8-4518-A28A-D33C55A746D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="482">
   <si>
     <t>TestCases</t>
   </si>
@@ -236,9 +236,6 @@
     <t>approximate_sms</t>
   </si>
   <si>
-    <t>registeruser_200</t>
-  </si>
-  <si>
     <t>9.0.0</t>
   </si>
   <si>
@@ -803,691 +800,697 @@
     <t>PRMO1265511495691SLQ</t>
   </si>
   <si>
+    <t>335577018205492318</t>
+  </si>
+  <si>
+    <t>ICIC97216320577</t>
+  </si>
+  <si>
+    <t>ICIC94240690053</t>
+  </si>
+  <si>
+    <t>8487862317</t>
+  </si>
+  <si>
+    <t>Aditi</t>
+  </si>
+  <si>
+    <t>AslamBose54326@example.net</t>
+  </si>
+  <si>
+    <t>1994-06-28</t>
+  </si>
+  <si>
+    <t>040468839368322</t>
+  </si>
+  <si>
+    <t>94ac802ff86d5f72</t>
+  </si>
+  <si>
+    <t>036691872522176</t>
+  </si>
+  <si>
+    <t>IDEP176427342884TU8P</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>59999408763</t>
+  </si>
+  <si>
+    <t>DJELHE</t>
+  </si>
+  <si>
+    <t>8326692667</t>
+  </si>
+  <si>
+    <t>Alaknanda</t>
+  </si>
+  <si>
+    <t>UmeshAnthony92991@example.net</t>
+  </si>
+  <si>
+    <t>1986-04-22</t>
+  </si>
+  <si>
+    <t>9892189981</t>
+  </si>
+  <si>
+    <t>171017823025694</t>
+  </si>
+  <si>
+    <t>7244249594</t>
+  </si>
+  <si>
+    <t>Esha</t>
+  </si>
+  <si>
+    <t>NaseerMahajan82083@example.net</t>
+  </si>
+  <si>
+    <t>1974-11-02</t>
+  </si>
+  <si>
+    <t>173917023587740</t>
+  </si>
+  <si>
+    <t>9917124452</t>
+  </si>
+  <si>
+    <t>Swati</t>
+  </si>
+  <si>
+    <t>AarifChowdhury25644@example.net</t>
+  </si>
+  <si>
+    <t>1988-12-07</t>
+  </si>
+  <si>
+    <t>313611882813286</t>
+  </si>
+  <si>
+    <t>fe44b676b5d655d7</t>
+  </si>
+  <si>
+    <t>495229247731034</t>
+  </si>
+  <si>
+    <t>8857314148</t>
+  </si>
+  <si>
+    <t>Aayushi</t>
+  </si>
+  <si>
+    <t>MohitMehrotra73295@example.net</t>
+  </si>
+  <si>
+    <t>1976-03-12</t>
+  </si>
+  <si>
+    <t>155358997617407</t>
+  </si>
+  <si>
+    <t>09a3d398b1ab794a</t>
+  </si>
+  <si>
+    <t>271268997323022</t>
+  </si>
+  <si>
+    <t>IDEP647128158421JCWB</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>59999188962</t>
+  </si>
+  <si>
+    <t>TGFIOO</t>
+  </si>
+  <si>
+    <t>BNPL6714283489388172</t>
+  </si>
+  <si>
+    <t>59999358069</t>
+  </si>
+  <si>
+    <t>UTGQHC</t>
+  </si>
+  <si>
+    <t>59999030580</t>
+  </si>
+  <si>
+    <t>UGGOFL</t>
+  </si>
+  <si>
+    <t>59999054333</t>
+  </si>
+  <si>
+    <t>PBNCBH</t>
+  </si>
+  <si>
+    <t>59999431090</t>
+  </si>
+  <si>
+    <t>PBRSSH</t>
+  </si>
+  <si>
+    <t>59999584491</t>
+  </si>
+  <si>
+    <t>UGTCLL</t>
+  </si>
+  <si>
+    <t>59999463398</t>
+  </si>
+  <si>
+    <t>OLHSDN</t>
+  </si>
+  <si>
+    <t>59999125620</t>
+  </si>
+  <si>
+    <t>KHIMGC</t>
+  </si>
+  <si>
+    <t>59999633293</t>
+  </si>
+  <si>
+    <t>MCGKEM</t>
+  </si>
+  <si>
+    <t>59999124435</t>
+  </si>
+  <si>
+    <t>QJSGTL</t>
+  </si>
+  <si>
+    <t>335577018857314148</t>
+  </si>
+  <si>
+    <t>ICIC91584832001</t>
+  </si>
+  <si>
+    <t>ICIC88645516879</t>
+  </si>
+  <si>
+    <t>9221670029</t>
+  </si>
+  <si>
+    <t>Smriti</t>
+  </si>
+  <si>
+    <t>SubhashLata92262@example.net</t>
+  </si>
+  <si>
+    <t>1972-03-31</t>
+  </si>
+  <si>
+    <t>387155792852019</t>
+  </si>
+  <si>
+    <t>03ca92be96d4e285</t>
+  </si>
+  <si>
+    <t>819416378654916</t>
+  </si>
+  <si>
+    <t>IDEP716428998354NEPY</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>59999219717</t>
+  </si>
+  <si>
+    <t>GMQSBK</t>
+  </si>
+  <si>
+    <t>BNPL4671291826111394</t>
+  </si>
+  <si>
+    <t>59999992728</t>
+  </si>
+  <si>
+    <t>HUQDMI</t>
+  </si>
+  <si>
+    <t>59999927893</t>
+  </si>
+  <si>
+    <t>ABTHHG</t>
+  </si>
+  <si>
+    <t>59999764889</t>
+  </si>
+  <si>
+    <t>PALGRP</t>
+  </si>
+  <si>
+    <t>59999189352</t>
+  </si>
+  <si>
+    <t>QSEBIO</t>
+  </si>
+  <si>
+    <t>59999561881</t>
+  </si>
+  <si>
+    <t>SEDBJP</t>
+  </si>
+  <si>
+    <t>59999990991</t>
+  </si>
+  <si>
+    <t>LJBICR</t>
+  </si>
+  <si>
+    <t>59999244127</t>
+  </si>
+  <si>
+    <t>SAGBFE</t>
+  </si>
+  <si>
+    <t>59999745289</t>
+  </si>
+  <si>
+    <t>MPIOPR</t>
+  </si>
+  <si>
+    <t>59999239209</t>
+  </si>
+  <si>
+    <t>QSIBLK</t>
+  </si>
+  <si>
+    <t>335577019221670029</t>
+  </si>
+  <si>
+    <t>ICIC84524563923</t>
+  </si>
+  <si>
+    <t>ICIC84662451466</t>
+  </si>
+  <si>
+    <t>8748863011</t>
+  </si>
+  <si>
+    <t>Chitra</t>
+  </si>
+  <si>
+    <t>MunafThomas75633@example.net</t>
+  </si>
+  <si>
+    <t>1990-07-18</t>
+  </si>
+  <si>
+    <t>660539461665893</t>
+  </si>
+  <si>
+    <t>cf91f3b90f942fed</t>
+  </si>
+  <si>
+    <t>990195598727857</t>
+  </si>
+  <si>
+    <t>IDEP674114218436DMZE</t>
+  </si>
+  <si>
+    <t>6756050772</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>RameshJohal19429@example.net</t>
+  </si>
+  <si>
+    <t>1978-08-28</t>
+  </si>
+  <si>
+    <t>677951606124994</t>
+  </si>
+  <si>
+    <t>eb71180941ad2f41</t>
+  </si>
+  <si>
+    <t>841722559864055</t>
+  </si>
+  <si>
+    <t>IDEP671473253326VKS6</t>
+  </si>
+  <si>
     <t>185</t>
   </si>
   <si>
-    <t>335577019386578545</t>
-  </si>
-  <si>
-    <t>ICIC97695109732</t>
-  </si>
-  <si>
-    <t>ICIC94432780747</t>
-  </si>
-  <si>
-    <t>9509964338</t>
-  </si>
-  <si>
-    <t>Urmila</t>
-  </si>
-  <si>
-    <t>ArpitSingh40747@example.net</t>
-  </si>
-  <si>
-    <t>1973-01-02</t>
-  </si>
-  <si>
-    <t>530500205641028</t>
-  </si>
-  <si>
-    <t>b590525159ad3b8a</t>
-  </si>
-  <si>
-    <t>075742602219633</t>
-  </si>
-  <si>
-    <t>IDEP617355253858HFRW</t>
-  </si>
-  <si>
-    <t>59999154641</t>
-  </si>
-  <si>
-    <t>CFECRG</t>
-  </si>
-  <si>
-    <t>7166417676</t>
-  </si>
-  <si>
-    <t>Nandini</t>
-  </si>
-  <si>
-    <t>JaswantSehgal55365@example.net</t>
-  </si>
-  <si>
-    <t>1979-11-29</t>
-  </si>
-  <si>
-    <t>396413253210592</t>
-  </si>
-  <si>
-    <t>59805ca73b00a010</t>
-  </si>
-  <si>
-    <t>500642833297728</t>
-  </si>
-  <si>
-    <t>IDEP376155912815DG64</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>59999540847</t>
+  </si>
+  <si>
+    <t>MFNTRN</t>
+  </si>
+  <si>
+    <t>BNPL6471734316641382</t>
+  </si>
+  <si>
+    <t>59999171108</t>
+  </si>
+  <si>
+    <t>LSKSSO</t>
+  </si>
+  <si>
+    <t>59999940520</t>
+  </si>
+  <si>
+    <t>RFONGG</t>
+  </si>
+  <si>
+    <t>59999740558</t>
+  </si>
+  <si>
+    <t>STGFBI</t>
+  </si>
+  <si>
+    <t>59999413380</t>
+  </si>
+  <si>
+    <t>DSQKRR</t>
+  </si>
+  <si>
+    <t>59999786866</t>
+  </si>
+  <si>
+    <t>HQNCOF</t>
+  </si>
+  <si>
+    <t>59999912994</t>
+  </si>
+  <si>
+    <t>IMLUQA</t>
+  </si>
+  <si>
+    <t>59999213800</t>
+  </si>
+  <si>
+    <t>DJUMAL</t>
+  </si>
+  <si>
+    <t>59999439462</t>
+  </si>
+  <si>
+    <t>CIKAEN</t>
+  </si>
+  <si>
+    <t>59999811711</t>
+  </si>
+  <si>
+    <t>KGISGU</t>
+  </si>
+  <si>
+    <t>335577016756050772</t>
+  </si>
+  <si>
+    <t>ICIC89703667110</t>
+  </si>
+  <si>
+    <t>ICIC96448807836</t>
+  </si>
+  <si>
+    <t>9692013590</t>
+  </si>
+  <si>
+    <t>ParvezSoni93830@example.net</t>
+  </si>
+  <si>
+    <t>1970-09-25</t>
+  </si>
+  <si>
+    <t>356811105856272</t>
+  </si>
+  <si>
+    <t>12767cd7e96960d3</t>
+  </si>
+  <si>
+    <t>670710749282979</t>
+  </si>
+  <si>
+    <t>IDEP716474919174IHE1</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>59999390385</t>
+  </si>
+  <si>
+    <t>NCBJAH</t>
+  </si>
+  <si>
+    <t>BNPL4716758933481476</t>
+  </si>
+  <si>
+    <t>59999307510</t>
+  </si>
+  <si>
+    <t>KARHRP</t>
+  </si>
+  <si>
+    <t>59999115361</t>
+  </si>
+  <si>
+    <t>RCEGIS</t>
+  </si>
+  <si>
+    <t>59999360453</t>
+  </si>
+  <si>
+    <t>SCLLCR</t>
+  </si>
+  <si>
+    <t>59999204574</t>
+  </si>
+  <si>
+    <t>LRQGGB</t>
+  </si>
+  <si>
+    <t>59999330901</t>
+  </si>
+  <si>
+    <t>IRMKCQ</t>
+  </si>
+  <si>
+    <t>59999698686</t>
+  </si>
+  <si>
+    <t>UBOMQK</t>
+  </si>
+  <si>
+    <t>59999886620</t>
+  </si>
+  <si>
+    <t>MFETFD</t>
+  </si>
+  <si>
+    <t>59999395112</t>
+  </si>
+  <si>
+    <t>OKLGGG</t>
+  </si>
+  <si>
+    <t>59999652526</t>
+  </si>
+  <si>
+    <t>EQJFMO</t>
+  </si>
+  <si>
+    <t>335577019692013590</t>
+  </si>
+  <si>
+    <t>ICIC83912010321</t>
+  </si>
+  <si>
+    <t>ICIC83144503296</t>
+  </si>
+  <si>
+    <t>8308839607</t>
+  </si>
+  <si>
+    <t>Narmada</t>
+  </si>
+  <si>
+    <t>NawabDave99169@example.net</t>
+  </si>
+  <si>
+    <t>1982-12-20</t>
+  </si>
+  <si>
+    <t>122988758322803</t>
+  </si>
+  <si>
+    <t>3178d8022eeb651b</t>
+  </si>
+  <si>
+    <t>797502890459300</t>
+  </si>
+  <si>
+    <t>IDEP174655993688AND8</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>148</t>
   </si>
   <si>
     <t>174</t>
   </si>
   <si>
-    <t>159</t>
+    <t>187</t>
+  </si>
+  <si>
+    <t>146</t>
   </si>
   <si>
     <t>141</t>
   </si>
   <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>59999700876</t>
-  </si>
-  <si>
-    <t>HSJEGU</t>
-  </si>
-  <si>
-    <t>BNPL6317561871789451</t>
-  </si>
-  <si>
-    <t>59999706809</t>
-  </si>
-  <si>
-    <t>BDJEUJ</t>
-  </si>
-  <si>
-    <t>59999975507</t>
-  </si>
-  <si>
-    <t>SGOFIP</t>
-  </si>
-  <si>
-    <t>59999737823</t>
-  </si>
-  <si>
-    <t>HCHSRL</t>
-  </si>
-  <si>
-    <t>59999149074</t>
-  </si>
-  <si>
-    <t>AESQHJ</t>
-  </si>
-  <si>
-    <t>59999965130</t>
-  </si>
-  <si>
-    <t>BNGQPP</t>
-  </si>
-  <si>
-    <t>59999864526</t>
-  </si>
-  <si>
-    <t>PSQLSQ</t>
-  </si>
-  <si>
-    <t>59999284088</t>
-  </si>
-  <si>
-    <t>MFRMEJ</t>
-  </si>
-  <si>
-    <t>59999629559</t>
-  </si>
-  <si>
-    <t>EIIBKH</t>
-  </si>
-  <si>
-    <t>59999422708</t>
-  </si>
-  <si>
-    <t>NQMBBJ</t>
-  </si>
-  <si>
-    <t>335577017166417676</t>
-  </si>
-  <si>
-    <t>ICIC81469000321</t>
-  </si>
-  <si>
-    <t>ICIC91830599163</t>
-  </si>
-  <si>
-    <t>9737682126</t>
-  </si>
-  <si>
-    <t>Shanti</t>
-  </si>
-  <si>
-    <t>HarpreetTrivedi50877@example.net</t>
-  </si>
-  <si>
-    <t>1977-11-03</t>
-  </si>
-  <si>
-    <t>123614136841160</t>
-  </si>
-  <si>
-    <t>f014061d01d6e3a3</t>
-  </si>
-  <si>
-    <t>145462532619382</t>
-  </si>
-  <si>
-    <t>IDEP137656492692XZL3</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>59999356181</t>
-  </si>
-  <si>
-    <t>DMDASS</t>
-  </si>
-  <si>
-    <t>BNPL3761576384654692</t>
-  </si>
-  <si>
-    <t>59999702071</t>
-  </si>
-  <si>
-    <t>TFEDNO</t>
-  </si>
-  <si>
-    <t>59999829897</t>
-  </si>
-  <si>
-    <t>RBQRQG</t>
-  </si>
-  <si>
-    <t>59999779796</t>
-  </si>
-  <si>
-    <t>RCSCSD</t>
-  </si>
-  <si>
-    <t>59999993652</t>
-  </si>
-  <si>
-    <t>RRBGSI</t>
-  </si>
-  <si>
-    <t>59999099433</t>
-  </si>
-  <si>
-    <t>NSPQAS</t>
-  </si>
-  <si>
-    <t>59999124675</t>
-  </si>
-  <si>
-    <t>LHANCU</t>
-  </si>
-  <si>
-    <t>59999977630</t>
-  </si>
-  <si>
-    <t>SSPKPF</t>
-  </si>
-  <si>
-    <t>59999508686</t>
-  </si>
-  <si>
-    <t>LORKBI</t>
-  </si>
-  <si>
-    <t>59999595313</t>
-  </si>
-  <si>
-    <t>SELMUB</t>
-  </si>
-  <si>
-    <t>335577019737682126</t>
-  </si>
-  <si>
-    <t>ICIC83772804279</t>
-  </si>
-  <si>
-    <t>ICIC99050622883</t>
-  </si>
-  <si>
-    <t>8647056691</t>
-  </si>
-  <si>
-    <t>Swati</t>
-  </si>
-  <si>
-    <t>ShashankKumar39911@example.net</t>
-  </si>
-  <si>
-    <t>1982-04-02</t>
-  </si>
-  <si>
-    <t>433411261504167</t>
-  </si>
-  <si>
-    <t>c5ac628c3474847a</t>
-  </si>
-  <si>
-    <t>169586405267290</t>
-  </si>
-  <si>
-    <t>IDEP674136248383NMED</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>59999203802</t>
-  </si>
-  <si>
-    <t>FTAEKD</t>
-  </si>
-  <si>
-    <t>59999331432</t>
-  </si>
-  <si>
-    <t>FBQRLG</t>
-  </si>
-  <si>
-    <t>59999529747</t>
-  </si>
-  <si>
-    <t>LIDNED</t>
-  </si>
-  <si>
-    <t>59999744720</t>
-  </si>
-  <si>
-    <t>DPGRNR</t>
-  </si>
-  <si>
-    <t>59999874151</t>
-  </si>
-  <si>
-    <t>IMMSFK</t>
-  </si>
-  <si>
-    <t>59999427124</t>
-  </si>
-  <si>
-    <t>IDADHM</t>
-  </si>
-  <si>
-    <t>59999248609</t>
-  </si>
-  <si>
-    <t>LDCSBM</t>
-  </si>
-  <si>
-    <t>59999552669</t>
-  </si>
-  <si>
-    <t>TIFOAS</t>
-  </si>
-  <si>
-    <t>59999596732</t>
-  </si>
-  <si>
-    <t>MJKUOT</t>
-  </si>
-  <si>
-    <t>59999022775</t>
-  </si>
-  <si>
-    <t>PQFNFB</t>
-  </si>
-  <si>
-    <t>8205492318</t>
-  </si>
-  <si>
-    <t>Ankita</t>
-  </si>
-  <si>
-    <t>ManpreetSodhani89878@example.net</t>
-  </si>
-  <si>
-    <t>1993-11-21</t>
-  </si>
-  <si>
-    <t>707259087127872</t>
-  </si>
-  <si>
-    <t>914aa4461ec71669</t>
-  </si>
-  <si>
-    <t>153936873815229</t>
-  </si>
-  <si>
-    <t>IDEP17463894415832U9</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>59999587102</t>
-  </si>
-  <si>
-    <t>MFPUNN</t>
-  </si>
-  <si>
-    <t>BNPL7641391621322941</t>
-  </si>
-  <si>
-    <t>59999767752</t>
-  </si>
-  <si>
-    <t>PISDHI</t>
-  </si>
-  <si>
-    <t>59999366808</t>
-  </si>
-  <si>
-    <t>JOAKPM</t>
-  </si>
-  <si>
-    <t>59999875033</t>
-  </si>
-  <si>
-    <t>QUARRI</t>
-  </si>
-  <si>
-    <t>59999380215</t>
-  </si>
-  <si>
-    <t>FBRIAG</t>
-  </si>
-  <si>
-    <t>59999462101</t>
-  </si>
-  <si>
-    <t>RRRLIH</t>
-  </si>
-  <si>
-    <t>59999515004</t>
-  </si>
-  <si>
-    <t>GSSIOG</t>
-  </si>
-  <si>
-    <t>59999891007</t>
-  </si>
-  <si>
-    <t>EQNNBE</t>
-  </si>
-  <si>
-    <t>59999081543</t>
-  </si>
-  <si>
-    <t>ONUPJR</t>
-  </si>
-  <si>
-    <t>59999864297</t>
-  </si>
-  <si>
-    <t>JBOLLH</t>
-  </si>
-  <si>
-    <t>335577018205492318</t>
-  </si>
-  <si>
-    <t>ICIC97216320577</t>
-  </si>
-  <si>
-    <t>ICIC94240690053</t>
-  </si>
-  <si>
-    <t>8471529584</t>
-  </si>
-  <si>
-    <t>Nagma</t>
-  </si>
-  <si>
-    <t>MohanKannan31582@example.net</t>
-  </si>
-  <si>
-    <t>1991-09-28</t>
-  </si>
-  <si>
-    <t>200241175436763</t>
-  </si>
-  <si>
-    <t>1fffd748e7431968</t>
-  </si>
-  <si>
-    <t>334791485879010</t>
-  </si>
-  <si>
-    <t>IDEP647148425565VMIQ</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>59999700156</t>
-  </si>
-  <si>
-    <t>AHUUQE</t>
-  </si>
-  <si>
-    <t>59999861333</t>
-  </si>
-  <si>
-    <t>ALQFGO</t>
-  </si>
-  <si>
-    <t>59999114456</t>
-  </si>
-  <si>
-    <t>HKIQKQ</t>
-  </si>
-  <si>
-    <t>59999761285</t>
-  </si>
-  <si>
-    <t>PSFNNS</t>
-  </si>
-  <si>
-    <t>59999620092</t>
-  </si>
-  <si>
-    <t>JHKGRO</t>
-  </si>
-  <si>
-    <t>59999787224</t>
-  </si>
-  <si>
-    <t>AGFRFO</t>
-  </si>
-  <si>
-    <t>59999108169</t>
-  </si>
-  <si>
-    <t>DTBUUD</t>
-  </si>
-  <si>
-    <t>59999604920</t>
-  </si>
-  <si>
-    <t>UATTNR</t>
-  </si>
-  <si>
-    <t>59999501287</t>
-  </si>
-  <si>
-    <t>JFSQIR</t>
-  </si>
-  <si>
-    <t>59999544451</t>
-  </si>
-  <si>
-    <t>DSNQMI</t>
-  </si>
-  <si>
-    <t>9647717011</t>
-  </si>
-  <si>
-    <t>Nutan</t>
-  </si>
-  <si>
-    <t>ShashankPersad57045@example.net</t>
-  </si>
-  <si>
-    <t>1970-05-03</t>
-  </si>
-  <si>
-    <t>401151852003322</t>
-  </si>
-  <si>
-    <t>6b884328048290c3</t>
-  </si>
-  <si>
-    <t>140286930186974</t>
-  </si>
-  <si>
-    <t>IDEP614742379698A4SN</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>59999036402</t>
-  </si>
-  <si>
-    <t>LTTLUN</t>
-  </si>
-  <si>
-    <t>59999840417</t>
-  </si>
-  <si>
-    <t>KFUGIP</t>
-  </si>
-  <si>
-    <t>59999346847</t>
-  </si>
-  <si>
-    <t>KTMLSK</t>
-  </si>
-  <si>
-    <t>59999986753</t>
-  </si>
-  <si>
-    <t>MSBLNH</t>
-  </si>
-  <si>
-    <t>59999774419</t>
-  </si>
-  <si>
-    <t>LFESFF</t>
-  </si>
-  <si>
-    <t>59999030964</t>
-  </si>
-  <si>
-    <t>HIQIKO</t>
-  </si>
-  <si>
-    <t>59999611764</t>
-  </si>
-  <si>
-    <t>QRKJDR</t>
-  </si>
-  <si>
-    <t>59999569355</t>
-  </si>
-  <si>
-    <t>RCLNET</t>
-  </si>
-  <si>
-    <t>59999664949</t>
-  </si>
-  <si>
-    <t>MLEAEK</t>
-  </si>
-  <si>
-    <t>59999872048</t>
-  </si>
-  <si>
-    <t>TQELHQ</t>
+    <t>59999803020</t>
+  </si>
+  <si>
+    <t>PERDJB</t>
+  </si>
+  <si>
+    <t>BNPL6714561833877218</t>
+  </si>
+  <si>
+    <t>59999981272</t>
+  </si>
+  <si>
+    <t>LIBIIJ</t>
+  </si>
+  <si>
+    <t>59999262035</t>
+  </si>
+  <si>
+    <t>LPDDEO</t>
+  </si>
+  <si>
+    <t>59999821557</t>
+  </si>
+  <si>
+    <t>MEBLDO</t>
+  </si>
+  <si>
+    <t>59999521970</t>
+  </si>
+  <si>
+    <t>OCHDFF</t>
+  </si>
+  <si>
+    <t>59999790583</t>
+  </si>
+  <si>
+    <t>KDKSMM</t>
+  </si>
+  <si>
+    <t>59999766933</t>
+  </si>
+  <si>
+    <t>SEELDE</t>
+  </si>
+  <si>
+    <t>59999073647</t>
+  </si>
+  <si>
+    <t>KRKRCH</t>
+  </si>
+  <si>
+    <t>59999998261</t>
+  </si>
+  <si>
+    <t>HDTGIA</t>
+  </si>
+  <si>
+    <t>59999439113</t>
+  </si>
+  <si>
+    <t>INPLMK</t>
+  </si>
+  <si>
+    <t>335577018308839607</t>
+  </si>
+  <si>
+    <t>ICIC95037345596</t>
+  </si>
+  <si>
+    <t>ICIC81263182099</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1642,7 +1645,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1986,8 +1988,8 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>449</v>
+      <c r="C2" s="14" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2025,18 +2027,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -2054,7 +2056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0FC63-D631-4AC8-B268-689CB743335F}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2078,51 +2080,51 @@
         <v>58</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="H1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="J1" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2131,30 +2133,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
       </c>
       <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
         <v>135</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>139</v>
-      </c>
-      <c r="F3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" t="s">
-        <v>140</v>
       </c>
       <c r="H3" s="2">
         <v>19.494599999999998</v>
@@ -2163,30 +2165,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
         <v>142</v>
       </c>
-      <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
-      </c>
       <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
         <v>135</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>139</v>
-      </c>
-      <c r="F4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" t="s">
-        <v>140</v>
       </c>
       <c r="H4" s="2">
         <v>19.494599999999998</v>
@@ -2195,30 +2197,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
         <v>137</v>
-      </c>
-      <c r="C5" t="s">
-        <v>138</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="E5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" t="s">
         <v>139</v>
-      </c>
-      <c r="F5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" t="s">
-        <v>140</v>
       </c>
       <c r="H5" s="2">
         <v>19.494599999999998</v>
@@ -2227,30 +2229,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
         <v>145</v>
       </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>138</v>
       </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" t="s">
         <v>139</v>
-      </c>
-      <c r="F6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" t="s">
-        <v>140</v>
       </c>
       <c r="H6" s="2">
         <v>19.494599999999998</v>
@@ -2259,30 +2261,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
         <v>137</v>
       </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H7" s="2">
         <v>19.494599999999998</v>
@@ -2291,30 +2293,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
         <v>137</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" t="s">
         <v>138</v>
-      </c>
-      <c r="D8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" t="s">
-        <v>139</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H8" s="2">
         <v>19.494599999999998</v>
@@ -2323,62 +2325,62 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
         <v>137</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" t="s">
         <v>138</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>135</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>139</v>
       </c>
-      <c r="F9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" t="s">
-        <v>140</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I9" s="2">
         <v>72.860399999999998</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
         <v>137</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" t="s">
         <v>138</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>135</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>139</v>
-      </c>
-      <c r="F10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" t="s">
-        <v>140</v>
       </c>
       <c r="H10" s="2">
         <v>19.494599999999998</v>
@@ -2387,30 +2389,30 @@
         <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
         <v>137</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
         <v>138</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>135</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>139</v>
-      </c>
-      <c r="F11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" t="s">
-        <v>140</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>37</v>
@@ -2419,7 +2421,7 @@
         <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2447,20 +2449,22 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2"/>
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>460</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2487,16 +2491,16 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>191</v>
+      <c r="B1" s="21" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="24" t="s">
         <v>192</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2534,16 +2538,16 @@
         <v>56</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>1</v>
@@ -2551,19 +2555,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2613,96 +2617,96 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2">
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H2" s="22">
+        <v>44798.630833333336</v>
+      </c>
+      <c r="I2" t="s">
         <v>175</v>
       </c>
-      <c r="G2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H2" s="23">
-        <v>44798.630833333336</v>
-      </c>
-      <c r="I2" t="s">
-        <v>176</v>
-      </c>
       <c r="J2" t="n">
-        <v>149.0</v>
+        <v>127.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
       </c>
       <c r="L2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M2" t="s">
         <v>177</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>178</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>179</v>
-      </c>
-      <c r="O2" t="s">
-        <v>180</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -2762,42 +2766,42 @@
         <v>25</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
       </c>
       <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>219</v>
+      <c r="I2" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2820,16 +2824,16 @@
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>219</v>
+      <c r="I3" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2852,16 +2856,16 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>219</v>
+      <c r="I4" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2884,23 +2888,23 @@
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>219</v>
+      <c r="I5" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
@@ -2916,23 +2920,23 @@
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>219</v>
+      <c r="I6" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C7" t="s">
@@ -2948,23 +2952,23 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>219</v>
+      <c r="I7" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C8" t="s">
@@ -2980,23 +2984,23 @@
         <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>219</v>
+      <c r="I8" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C9" t="s">
@@ -3012,23 +3016,23 @@
         <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>219</v>
+      <c r="I9" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
@@ -3038,22 +3042,22 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>219</v>
+      <c r="I10" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3114,48 +3118,48 @@
         <v>25</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
       </c>
       <c r="D2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>250</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -3178,19 +3182,19 @@
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -3213,19 +3217,19 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -3248,26 +3252,26 @@
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
@@ -3283,26 +3287,26 @@
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C7" t="s">
@@ -3318,26 +3322,26 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C8" t="s">
@@ -3353,26 +3357,26 @@
         <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C9" t="s">
@@ -3388,26 +3392,26 @@
         <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
@@ -3417,60 +3421,60 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" t="s">
         <v>234</v>
       </c>
-      <c r="C11" t="s">
-        <v>235</v>
-      </c>
       <c r="D11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>250</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>219</v>
+      <c r="I11" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3485,7 +3489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -3529,48 +3533,48 @@
         <v>25</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" t="s">
         <v>234</v>
       </c>
-      <c r="C2" t="s">
-        <v>235</v>
-      </c>
       <c r="D2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>251</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>219</v>
+        <v>250</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -3593,19 +3597,19 @@
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -3628,19 +3632,19 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -3663,26 +3667,26 @@
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
@@ -3698,26 +3702,26 @@
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C7" t="s">
@@ -3733,26 +3737,26 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C8" t="s">
@@ -3768,26 +3772,26 @@
         <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C9" t="s">
@@ -3803,26 +3807,26 @@
         <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
@@ -3832,25 +3836,25 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3892,116 +3896,116 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2">
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>414</v>
-      </c>
-      <c r="H2" s="23">
+        <v>481</v>
+      </c>
+      <c r="H2" s="22">
         <v>44798.630833333336</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>149.0</v>
+        <v>127.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R2" s="2">
         <v>5881300001186</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="22">
         <v>44756.771122685182</v>
       </c>
     </row>
@@ -4018,10 +4022,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17C12E-5343-49E4-B7DD-0A55D5EDDF2C}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4093,101 +4097,51 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" t="n">
+        <v>4221633.0</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L2" t="s">
-        <v>456</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4219742.0</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="14">
+      <c r="O2" s="13">
         <v>49</v>
       </c>
-      <c r="P2" s="14">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3">
-        <v>9892189981</v>
-      </c>
-      <c r="E3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" t="s">
-        <v>456</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4219742.0</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="14">
-        <v>49</v>
-      </c>
-      <c r="P3" s="14">
+      <c r="P2" s="13">
         <v>1210</v>
       </c>
     </row>
@@ -4239,7 +4193,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4256,7 +4210,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4273,7 +4227,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4290,7 +4244,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4307,7 +4261,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4318,12 +4272,12 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7">
         <v>888888</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>9892189981</v>
       </c>
       <c r="D7" t="s">
@@ -4409,7 +4363,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -4450,199 +4404,199 @@
         <v>56</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="F2" s="16">
+      <c r="C2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="F2" s="15">
         <v>18.939800000000002</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>18.939800000000002</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>18.939800000000002</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>18.939800000000002</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="E7" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="15">
         <v>18.939800000000002</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>72.835400000000007</v>
       </c>
     </row>
@@ -4676,143 +4630,143 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="F1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>56</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="17">
+        <v>18.939800000000002</v>
+      </c>
+      <c r="E2" s="17">
+        <v>72.835400000000007</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="18">
-        <v>18.939800000000002</v>
-      </c>
-      <c r="E2" s="18">
-        <v>72.835400000000007</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="C3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="17">
         <v>18.939800000000002</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>72.835400000000007</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="17">
+        <v>18.939800000000002</v>
+      </c>
+      <c r="E4" s="17">
+        <v>72.835400000000007</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="18">
-        <v>18.939800000000002</v>
-      </c>
-      <c r="E4" s="18">
-        <v>72.835400000000007</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>89</v>
+      <c r="H4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="17">
+        <v>18.939800000000002</v>
+      </c>
+      <c r="E5" s="17">
+        <v>72.835400000000007</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="18">
-        <v>18.939800000000002</v>
-      </c>
-      <c r="E5" s="18">
-        <v>72.835400000000007</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="18"/>
+      <c r="H5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4839,33 +4793,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="13">
+        <v>888888</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="14">
-        <v>888888</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4900,63 +4854,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>104</v>
+        <v>445</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4989,284 +4943,284 @@
         <v>58</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>224123</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="19">
+        <v>224123</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="J3" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B4" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E4" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="20">
+      <c r="G4" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="19">
         <v>224123</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="I5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="20" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="19">
+        <v>224123</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="J6" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="F7" s="19">
+        <v>224123</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="20" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="19">
+        <v>224123</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="I8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="19">
+        <v>224123</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="20">
-        <v>224123</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="20">
-        <v>224123</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="20">
-        <v>224123</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="20">
-        <v>224123</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="20">
-        <v>224123</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5299,156 +5253,156 @@
         <v>58</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C2">
         <v>303</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>243</v>
+        <v>214</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C3">
         <v>563</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>243</v>
+        <v>214</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="F3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C4">
         <v>645</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>243</v>
+        <v>214</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C5">
         <v>668</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>243</v>
+        <v>214</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C6">
         <v>725</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>243</v>
+        <v>214</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C7">
         <v>800</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>243</v>
+        <v>214</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C8">
         <v>725</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5478,63 +5432,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>123</v>
-      </c>
       <c r="C2" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="C5">
         <v>67</v>
@@ -5545,30 +5499,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="C6">
         <v>67</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="C7">
         <v>67</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679CB33F-7EF8-4518-A28A-D33C55A746D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412B5F5E-073A-45FA-96CE-FE80C3C3097E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="696">
   <si>
     <t>TestCases</t>
   </si>
@@ -62,18 +62,12 @@
     <t>otp</t>
   </si>
   <si>
-    <t>auth_200</t>
-  </si>
-  <si>
     <t>IDEOPAY</t>
   </si>
   <si>
     <t>MCUMMlBD7gs98HlHL3Py9Syk3xRsvvU5</t>
   </si>
   <si>
-    <t>otp_200</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
@@ -797,700 +791,1348 @@
     <t>1979-09-20</t>
   </si>
   <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>BNPL4716584168284328</t>
+  </si>
+  <si>
+    <t>59999673083</t>
+  </si>
+  <si>
+    <t>RQLIOH</t>
+  </si>
+  <si>
+    <t>335577019162008831</t>
+  </si>
+  <si>
+    <t>ICIC97769179849</t>
+  </si>
+  <si>
+    <t>ICIC87255972694</t>
+  </si>
+  <si>
+    <t>9715746535</t>
+  </si>
+  <si>
+    <t>Mridula</t>
+  </si>
+  <si>
+    <t>AmritSolanki73006@example.net</t>
+  </si>
+  <si>
+    <t>1983-03-22</t>
+  </si>
+  <si>
+    <t>222808682433154</t>
+  </si>
+  <si>
+    <t>8523188e35870601</t>
+  </si>
+  <si>
+    <t>049841518323605</t>
+  </si>
+  <si>
+    <t>8762556143</t>
+  </si>
+  <si>
+    <t>Nilima</t>
+  </si>
+  <si>
+    <t>NakulGoel44192@example.net</t>
+  </si>
+  <si>
+    <t>1980-03-16</t>
+  </si>
+  <si>
+    <t>096660620130761</t>
+  </si>
+  <si>
+    <t>de0bd635b320f9f1</t>
+  </si>
+  <si>
+    <t>588883464808087</t>
+  </si>
+  <si>
     <t>PRMO1265511495691SLQ</t>
   </si>
   <si>
-    <t>335577018205492318</t>
-  </si>
-  <si>
-    <t>ICIC97216320577</t>
-  </si>
-  <si>
-    <t>ICIC94240690053</t>
-  </si>
-  <si>
-    <t>8487862317</t>
-  </si>
-  <si>
-    <t>Aditi</t>
-  </si>
-  <si>
-    <t>AslamBose54326@example.net</t>
-  </si>
-  <si>
-    <t>1994-06-28</t>
-  </si>
-  <si>
-    <t>040468839368322</t>
-  </si>
-  <si>
-    <t>94ac802ff86d5f72</t>
-  </si>
-  <si>
-    <t>036691872522176</t>
-  </si>
-  <si>
-    <t>IDEP176427342884TU8P</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>59999408763</t>
-  </si>
-  <si>
-    <t>DJELHE</t>
-  </si>
-  <si>
-    <t>8326692667</t>
-  </si>
-  <si>
-    <t>Alaknanda</t>
-  </si>
-  <si>
-    <t>UmeshAnthony92991@example.net</t>
-  </si>
-  <si>
-    <t>1986-04-22</t>
-  </si>
-  <si>
-    <t>9892189981</t>
-  </si>
-  <si>
-    <t>171017823025694</t>
-  </si>
-  <si>
-    <t>7244249594</t>
-  </si>
-  <si>
-    <t>Esha</t>
-  </si>
-  <si>
-    <t>NaseerMahajan82083@example.net</t>
-  </si>
-  <si>
-    <t>1974-11-02</t>
-  </si>
-  <si>
-    <t>173917023587740</t>
-  </si>
-  <si>
-    <t>9917124452</t>
-  </si>
-  <si>
-    <t>Swati</t>
-  </si>
-  <si>
-    <t>AarifChowdhury25644@example.net</t>
-  </si>
-  <si>
-    <t>1988-12-07</t>
-  </si>
-  <si>
-    <t>313611882813286</t>
-  </si>
-  <si>
-    <t>fe44b676b5d655d7</t>
-  </si>
-  <si>
-    <t>495229247731034</t>
-  </si>
-  <si>
-    <t>8857314148</t>
-  </si>
-  <si>
-    <t>Aayushi</t>
-  </si>
-  <si>
-    <t>MohitMehrotra73295@example.net</t>
-  </si>
-  <si>
-    <t>1976-03-12</t>
-  </si>
-  <si>
-    <t>155358997617407</t>
-  </si>
-  <si>
-    <t>09a3d398b1ab794a</t>
-  </si>
-  <si>
-    <t>271268997323022</t>
-  </si>
-  <si>
-    <t>IDEP647128158421JCWB</t>
+    <t>IDEP716482838589UPVA</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>59999226653</t>
+  </si>
+  <si>
+    <t>QGLGEN</t>
+  </si>
+  <si>
+    <t>59999301825</t>
+  </si>
+  <si>
+    <t>NHEKHN</t>
+  </si>
+  <si>
+    <t>59999103761</t>
+  </si>
+  <si>
+    <t>IBDIQK</t>
+  </si>
+  <si>
+    <t>59999227241</t>
+  </si>
+  <si>
+    <t>UQFOBO</t>
+  </si>
+  <si>
+    <t>59999543897</t>
+  </si>
+  <si>
+    <t>SPGJTG</t>
+  </si>
+  <si>
+    <t>59999424323</t>
+  </si>
+  <si>
+    <t>FNHBCJ</t>
+  </si>
+  <si>
+    <t>59999400242</t>
+  </si>
+  <si>
+    <t>NISSQG</t>
+  </si>
+  <si>
+    <t>59999688731</t>
+  </si>
+  <si>
+    <t>PRGGPJ</t>
+  </si>
+  <si>
+    <t>59999984020</t>
+  </si>
+  <si>
+    <t>MMHDTF</t>
+  </si>
+  <si>
+    <t>59999324891</t>
+  </si>
+  <si>
+    <t>PCJCQC</t>
+  </si>
+  <si>
+    <t>6748818990</t>
+  </si>
+  <si>
+    <t>Radha</t>
+  </si>
+  <si>
+    <t>TaahidBen10378@example.net</t>
+  </si>
+  <si>
+    <t>1984-12-29</t>
+  </si>
+  <si>
+    <t>771676076449614</t>
+  </si>
+  <si>
+    <t>21ed3efcec36a1b6</t>
+  </si>
+  <si>
+    <t>754557826484351</t>
+  </si>
+  <si>
+    <t>IDEP461782744617BOK3</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>151</t>
   </si>
   <si>
     <t>194</t>
   </si>
   <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>190</t>
+    <t>59999098814</t>
+  </si>
+  <si>
+    <t>UFDMIT</t>
+  </si>
+  <si>
+    <t>BNPL6174829533286974</t>
+  </si>
+  <si>
+    <t>59999032042</t>
+  </si>
+  <si>
+    <t>TSGPER</t>
+  </si>
+  <si>
+    <t>59999948028</t>
+  </si>
+  <si>
+    <t>HULBTK</t>
+  </si>
+  <si>
+    <t>59999026507</t>
+  </si>
+  <si>
+    <t>QPHNRH</t>
+  </si>
+  <si>
+    <t>59999012692</t>
+  </si>
+  <si>
+    <t>UMINTP</t>
+  </si>
+  <si>
+    <t>59999494733</t>
+  </si>
+  <si>
+    <t>LOANKP</t>
+  </si>
+  <si>
+    <t>59999052567</t>
+  </si>
+  <si>
+    <t>NQOKTG</t>
+  </si>
+  <si>
+    <t>59999996830</t>
+  </si>
+  <si>
+    <t>CKOGMB</t>
+  </si>
+  <si>
+    <t>59999712895</t>
+  </si>
+  <si>
+    <t>BEHIFP</t>
+  </si>
+  <si>
+    <t>59999713342</t>
+  </si>
+  <si>
+    <t>PKMUIO</t>
+  </si>
+  <si>
+    <t>335577016748818990</t>
+  </si>
+  <si>
+    <t>ICIC96990823291</t>
+  </si>
+  <si>
+    <t>ICIC88080285629</t>
+  </si>
+  <si>
+    <t>6002233042</t>
+  </si>
+  <si>
+    <t>Richa</t>
+  </si>
+  <si>
+    <t>NitinJani88145@example.net</t>
+  </si>
+  <si>
+    <t>1979-03-01</t>
+  </si>
+  <si>
+    <t>788807690574260</t>
+  </si>
+  <si>
+    <t>5b026ab2df4a0b69</t>
+  </si>
+  <si>
+    <t>954698034532538</t>
+  </si>
+  <si>
+    <t>IDEP164783843644MJ5A</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>174</t>
   </si>
   <si>
     <t>139</t>
   </si>
   <si>
+    <t>59999652447</t>
+  </si>
+  <si>
+    <t>SBAFHG</t>
+  </si>
+  <si>
+    <t>BNPL6471832589947421</t>
+  </si>
+  <si>
+    <t>59999485363</t>
+  </si>
+  <si>
+    <t>HQNSIU</t>
+  </si>
+  <si>
+    <t>59999872271</t>
+  </si>
+  <si>
+    <t>QGTOTC</t>
+  </si>
+  <si>
+    <t>59999014394</t>
+  </si>
+  <si>
+    <t>HLMGSL</t>
+  </si>
+  <si>
+    <t>59999690840</t>
+  </si>
+  <si>
+    <t>IRHEHP</t>
+  </si>
+  <si>
+    <t>59999369275</t>
+  </si>
+  <si>
+    <t>BQFOQC</t>
+  </si>
+  <si>
+    <t>59999487203</t>
+  </si>
+  <si>
+    <t>BKBMCK</t>
+  </si>
+  <si>
+    <t>59999243785</t>
+  </si>
+  <si>
+    <t>FSMQSD</t>
+  </si>
+  <si>
+    <t>59999175318</t>
+  </si>
+  <si>
+    <t>DSDKSM</t>
+  </si>
+  <si>
+    <t>59999688780</t>
+  </si>
+  <si>
+    <t>TIGDND</t>
+  </si>
+  <si>
+    <t>335577016002233042</t>
+  </si>
+  <si>
+    <t>ICIC96633850312</t>
+  </si>
+  <si>
+    <t>ICIC87149734805</t>
+  </si>
+  <si>
+    <t>7868735159</t>
+  </si>
+  <si>
+    <t>Ritika</t>
+  </si>
+  <si>
+    <t>MunafKoshy45803@example.net</t>
+  </si>
+  <si>
+    <t>1976-11-24</t>
+  </si>
+  <si>
+    <t>537062782907028</t>
+  </si>
+  <si>
+    <t>97f3dd6f98d703c5</t>
+  </si>
+  <si>
+    <t>919884179701864</t>
+  </si>
+  <si>
+    <t>6230478246</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>UsmanKamdar57259@example.net</t>
+  </si>
+  <si>
+    <t>1989-11-14</t>
+  </si>
+  <si>
+    <t>822658678855975</t>
+  </si>
+  <si>
+    <t>be79a0a575258f64</t>
+  </si>
+  <si>
+    <t>396922080329938</t>
+  </si>
+  <si>
+    <t>IDEP6174836925339K2T</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>59999988416</t>
+  </si>
+  <si>
+    <t>BHPLPI</t>
+  </si>
+  <si>
+    <t>BNPL6714839825382978</t>
+  </si>
+  <si>
+    <t>59999252933</t>
+  </si>
+  <si>
+    <t>ELFSUQ</t>
+  </si>
+  <si>
+    <t>59999394757</t>
+  </si>
+  <si>
+    <t>BEOOOG</t>
+  </si>
+  <si>
+    <t>59999960772</t>
+  </si>
+  <si>
+    <t>FBRSTS</t>
+  </si>
+  <si>
+    <t>59999640070</t>
+  </si>
+  <si>
+    <t>GPATSF</t>
+  </si>
+  <si>
+    <t>59999440159</t>
+  </si>
+  <si>
+    <t>URAJPL</t>
+  </si>
+  <si>
+    <t>59999263359</t>
+  </si>
+  <si>
+    <t>SMQSBK</t>
+  </si>
+  <si>
+    <t>59999948304</t>
+  </si>
+  <si>
+    <t>NPFOKH</t>
+  </si>
+  <si>
+    <t>59999757935</t>
+  </si>
+  <si>
+    <t>DRLJKR</t>
+  </si>
+  <si>
+    <t>59999838889</t>
+  </si>
+  <si>
+    <t>SSFQPJ</t>
+  </si>
+  <si>
+    <t>335577016230478246</t>
+  </si>
+  <si>
+    <t>ICIC93713849977</t>
+  </si>
+  <si>
+    <t>ICIC83830225108</t>
+  </si>
+  <si>
+    <t>9694822582</t>
+  </si>
+  <si>
+    <t>RajTank43635@example.net</t>
+  </si>
+  <si>
+    <t>1972-12-14</t>
+  </si>
+  <si>
+    <t>286080822984172</t>
+  </si>
+  <si>
+    <t>ed6d671058c264b0</t>
+  </si>
+  <si>
+    <t>853207083347210</t>
+  </si>
+  <si>
+    <t>IDEP167484813527T48Q</t>
+  </si>
+  <si>
+    <t>9595078810</t>
+  </si>
+  <si>
+    <t>BahadurRana51024@example.net</t>
+  </si>
+  <si>
+    <t>1984-04-15</t>
+  </si>
+  <si>
+    <t>079612622548574</t>
+  </si>
+  <si>
+    <t>f2227396c97b1aa6</t>
+  </si>
+  <si>
+    <t>216432021855585</t>
+  </si>
+  <si>
+    <t>9712579710</t>
+  </si>
+  <si>
+    <t>Afreen</t>
+  </si>
+  <si>
+    <t>TaahidSwaminathan15458@example.net</t>
+  </si>
+  <si>
+    <t>1983-11-03</t>
+  </si>
+  <si>
+    <t>484989239538282</t>
+  </si>
+  <si>
+    <t>d0334d56ae1ca181</t>
+  </si>
+  <si>
+    <t>587380515222583</t>
+  </si>
+  <si>
+    <t>6732320937</t>
+  </si>
+  <si>
+    <t>Hema</t>
+  </si>
+  <si>
+    <t>HetanChohan73778@example.net</t>
+  </si>
+  <si>
+    <t>1977-10-07</t>
+  </si>
+  <si>
+    <t>509845771717703</t>
+  </si>
+  <si>
+    <t>3c2d3813d72fa2bf</t>
+  </si>
+  <si>
+    <t>671276806437632</t>
+  </si>
+  <si>
+    <t>IDEP14678669848965PZ</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>59999925657</t>
+  </si>
+  <si>
+    <t>ESBPGM</t>
+  </si>
+  <si>
+    <t>BNPL4617869149234138</t>
+  </si>
+  <si>
+    <t>59999464892</t>
+  </si>
+  <si>
+    <t>FFAKID</t>
+  </si>
+  <si>
+    <t>59999552702</t>
+  </si>
+  <si>
+    <t>ONPBMD</t>
+  </si>
+  <si>
+    <t>59999054668</t>
+  </si>
+  <si>
+    <t>DFILJS</t>
+  </si>
+  <si>
+    <t>59999184672</t>
+  </si>
+  <si>
+    <t>NMRHQU</t>
+  </si>
+  <si>
+    <t>59999337111</t>
+  </si>
+  <si>
+    <t>URMAFF</t>
+  </si>
+  <si>
+    <t>59999029751</t>
+  </si>
+  <si>
+    <t>QREUDB</t>
+  </si>
+  <si>
+    <t>59999179073</t>
+  </si>
+  <si>
+    <t>JOPERU</t>
+  </si>
+  <si>
+    <t>59999645626</t>
+  </si>
+  <si>
+    <t>GNDIMO</t>
+  </si>
+  <si>
+    <t>59999432487</t>
+  </si>
+  <si>
+    <t>SEJPSJ</t>
+  </si>
+  <si>
+    <t>335577016732320937</t>
+  </si>
+  <si>
+    <t>ICIC95950486108</t>
+  </si>
+  <si>
+    <t>ICIC95982771939</t>
+  </si>
+  <si>
+    <t>8467809162</t>
+  </si>
+  <si>
+    <t>Nishita</t>
+  </si>
+  <si>
+    <t>KabeerMurty43558@example.net</t>
+  </si>
+  <si>
+    <t>475117564219457</t>
+  </si>
+  <si>
+    <t>504db99d292e06e6</t>
+  </si>
+  <si>
+    <t>866653308039238</t>
+  </si>
+  <si>
+    <t>IDEP641788183886ART4</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
     <t>178</t>
   </si>
   <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>59999188962</t>
-  </si>
-  <si>
-    <t>TGFIOO</t>
-  </si>
-  <si>
-    <t>BNPL6714283489388172</t>
-  </si>
-  <si>
-    <t>59999358069</t>
-  </si>
-  <si>
-    <t>UTGQHC</t>
-  </si>
-  <si>
-    <t>59999030580</t>
-  </si>
-  <si>
-    <t>UGGOFL</t>
-  </si>
-  <si>
-    <t>59999054333</t>
-  </si>
-  <si>
-    <t>PBNCBH</t>
-  </si>
-  <si>
-    <t>59999431090</t>
-  </si>
-  <si>
-    <t>PBRSSH</t>
-  </si>
-  <si>
-    <t>59999584491</t>
-  </si>
-  <si>
-    <t>UGTCLL</t>
-  </si>
-  <si>
-    <t>59999463398</t>
-  </si>
-  <si>
-    <t>OLHSDN</t>
-  </si>
-  <si>
-    <t>59999125620</t>
-  </si>
-  <si>
-    <t>KHIMGC</t>
-  </si>
-  <si>
-    <t>59999633293</t>
-  </si>
-  <si>
-    <t>MCGKEM</t>
-  </si>
-  <si>
-    <t>59999124435</t>
-  </si>
-  <si>
-    <t>QJSGTL</t>
-  </si>
-  <si>
-    <t>335577018857314148</t>
-  </si>
-  <si>
-    <t>ICIC91584832001</t>
-  </si>
-  <si>
-    <t>ICIC88645516879</t>
-  </si>
-  <si>
-    <t>9221670029</t>
-  </si>
-  <si>
-    <t>Smriti</t>
-  </si>
-  <si>
-    <t>SubhashLata92262@example.net</t>
-  </si>
-  <si>
-    <t>1972-03-31</t>
-  </si>
-  <si>
-    <t>387155792852019</t>
-  </si>
-  <si>
-    <t>03ca92be96d4e285</t>
-  </si>
-  <si>
-    <t>819416378654916</t>
-  </si>
-  <si>
-    <t>IDEP716428998354NEPY</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>156</t>
+    <t>126</t>
+  </si>
+  <si>
+    <t>59999923200</t>
+  </si>
+  <si>
+    <t>BAOKFL</t>
+  </si>
+  <si>
+    <t>BNPL4716883161451645</t>
+  </si>
+  <si>
+    <t>59999328616</t>
+  </si>
+  <si>
+    <t>FLIIPT</t>
+  </si>
+  <si>
+    <t>59999301887</t>
+  </si>
+  <si>
+    <t>GFDHTD</t>
+  </si>
+  <si>
+    <t>59999406180</t>
+  </si>
+  <si>
+    <t>USAPHD</t>
+  </si>
+  <si>
+    <t>59999282253</t>
+  </si>
+  <si>
+    <t>AMPNKU</t>
+  </si>
+  <si>
+    <t>59999332072</t>
+  </si>
+  <si>
+    <t>CLQATK</t>
+  </si>
+  <si>
+    <t>59999814603</t>
+  </si>
+  <si>
+    <t>QIOTOT</t>
+  </si>
+  <si>
+    <t>59999609208</t>
+  </si>
+  <si>
+    <t>ILGNDU</t>
+  </si>
+  <si>
+    <t>59999682597</t>
+  </si>
+  <si>
+    <t>IBTKKM</t>
+  </si>
+  <si>
+    <t>59999598374</t>
+  </si>
+  <si>
+    <t>KBIGOA</t>
+  </si>
+  <si>
+    <t>335577018467809162</t>
+  </si>
+  <si>
+    <t>ICIC95486353806</t>
+  </si>
+  <si>
+    <t>ICIC83138831265</t>
+  </si>
+  <si>
+    <t>7368451015</t>
+  </si>
+  <si>
+    <t>Madhavi</t>
+  </si>
+  <si>
+    <t>BholaVohra89231@example.net</t>
+  </si>
+  <si>
+    <t>1978-05-14</t>
+  </si>
+  <si>
+    <t>468004578747559</t>
+  </si>
+  <si>
+    <t>b45043f997ea0383</t>
+  </si>
+  <si>
+    <t>389146506069436</t>
+  </si>
+  <si>
+    <t>IDEP4176891884866W9U</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>59999645221</t>
+  </si>
+  <si>
+    <t>JNSTBL</t>
+  </si>
+  <si>
+    <t>BNPL1746893196712794</t>
+  </si>
+  <si>
+    <t>59999922147</t>
+  </si>
+  <si>
+    <t>LJMCLR</t>
+  </si>
+  <si>
+    <t>59999917143</t>
+  </si>
+  <si>
+    <t>GOJQJE</t>
+  </si>
+  <si>
+    <t>59999458594</t>
+  </si>
+  <si>
+    <t>DGNMSA</t>
+  </si>
+  <si>
+    <t>59999293065</t>
+  </si>
+  <si>
+    <t>RJLIBA</t>
+  </si>
+  <si>
+    <t>59999996288</t>
+  </si>
+  <si>
+    <t>THNOUM</t>
+  </si>
+  <si>
+    <t>59999694278</t>
+  </si>
+  <si>
+    <t>FJIKFU</t>
+  </si>
+  <si>
+    <t>59999312767</t>
+  </si>
+  <si>
+    <t>USCGSQ</t>
+  </si>
+  <si>
+    <t>59999943582</t>
+  </si>
+  <si>
+    <t>IPROIU</t>
+  </si>
+  <si>
+    <t>59999288265</t>
+  </si>
+  <si>
+    <t>AKLHCG</t>
+  </si>
+  <si>
+    <t>335577017368451015</t>
+  </si>
+  <si>
+    <t>ICIC85260629888</t>
+  </si>
+  <si>
+    <t>ICIC87387356910</t>
+  </si>
+  <si>
+    <t>7315060729</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>AnimeshSingh54458@example.net</t>
+  </si>
+  <si>
+    <t>1978-01-28</t>
+  </si>
+  <si>
+    <t>709355848146066</t>
+  </si>
+  <si>
+    <t>3fe3bc585165bb02</t>
+  </si>
+  <si>
+    <t>714932113918982</t>
+  </si>
+  <si>
+    <t>8522478078</t>
+  </si>
+  <si>
+    <t>Kalyani</t>
+  </si>
+  <si>
+    <t>HimeshRamroop97608@example.net</t>
+  </si>
+  <si>
+    <t>1992-10-12</t>
+  </si>
+  <si>
+    <t>146195455449036</t>
+  </si>
+  <si>
+    <t>02bc27aa7b5d61d9</t>
+  </si>
+  <si>
+    <t>129852059802835</t>
+  </si>
+  <si>
+    <t>IDEP4617111858334L86</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>59999746027</t>
+  </si>
+  <si>
+    <t>BKUGIK</t>
+  </si>
+  <si>
+    <t>BNPL4716113942474985</t>
+  </si>
+  <si>
+    <t>59999489340</t>
+  </si>
+  <si>
+    <t>RMFBML</t>
+  </si>
+  <si>
+    <t>59999503859</t>
+  </si>
+  <si>
+    <t>QHMFQR</t>
+  </si>
+  <si>
+    <t>59999275366</t>
+  </si>
+  <si>
+    <t>HKKIGI</t>
+  </si>
+  <si>
+    <t>59999148392</t>
+  </si>
+  <si>
+    <t>UGCIFL</t>
+  </si>
+  <si>
+    <t>59999671787</t>
+  </si>
+  <si>
+    <t>QBACJB</t>
+  </si>
+  <si>
+    <t>59999911153</t>
+  </si>
+  <si>
+    <t>OAHBJL</t>
+  </si>
+  <si>
+    <t>59999795541</t>
+  </si>
+  <si>
+    <t>FAUSTP</t>
+  </si>
+  <si>
+    <t>59999335843</t>
+  </si>
+  <si>
+    <t>GAPTPH</t>
+  </si>
+  <si>
+    <t>59999209501</t>
+  </si>
+  <si>
+    <t>IGJGKQ</t>
+  </si>
+  <si>
+    <t>335577018522478078</t>
+  </si>
+  <si>
+    <t>ICIC96173191738</t>
+  </si>
+  <si>
+    <t>ICIC92735561415</t>
+  </si>
+  <si>
+    <t>9434353840</t>
+  </si>
+  <si>
+    <t>Dipti</t>
+  </si>
+  <si>
+    <t>MohanlalHans67271@example.net</t>
+  </si>
+  <si>
+    <t>1992-04-28</t>
+  </si>
+  <si>
+    <t>717412319857992</t>
+  </si>
+  <si>
+    <t>cc3885b3a90871b3</t>
+  </si>
+  <si>
+    <t>409084743065386</t>
+  </si>
+  <si>
+    <t>IDEP147618233125O34T</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>177</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>124</t>
   </si>
   <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>59999219717</t>
-  </si>
-  <si>
-    <t>GMQSBK</t>
-  </si>
-  <si>
-    <t>BNPL4671291826111394</t>
-  </si>
-  <si>
-    <t>59999992728</t>
-  </si>
-  <si>
-    <t>HUQDMI</t>
-  </si>
-  <si>
-    <t>59999927893</t>
-  </si>
-  <si>
-    <t>ABTHHG</t>
-  </si>
-  <si>
-    <t>59999764889</t>
-  </si>
-  <si>
-    <t>PALGRP</t>
-  </si>
-  <si>
-    <t>59999189352</t>
-  </si>
-  <si>
-    <t>QSEBIO</t>
-  </si>
-  <si>
-    <t>59999561881</t>
-  </si>
-  <si>
-    <t>SEDBJP</t>
-  </si>
-  <si>
-    <t>59999990991</t>
-  </si>
-  <si>
-    <t>LJBICR</t>
-  </si>
-  <si>
-    <t>59999244127</t>
-  </si>
-  <si>
-    <t>SAGBFE</t>
-  </si>
-  <si>
-    <t>59999745289</t>
-  </si>
-  <si>
-    <t>MPIOPR</t>
-  </si>
-  <si>
-    <t>59999239209</t>
-  </si>
-  <si>
-    <t>QSIBLK</t>
-  </si>
-  <si>
-    <t>335577019221670029</t>
-  </si>
-  <si>
-    <t>ICIC84524563923</t>
-  </si>
-  <si>
-    <t>ICIC84662451466</t>
-  </si>
-  <si>
-    <t>8748863011</t>
-  </si>
-  <si>
-    <t>Chitra</t>
-  </si>
-  <si>
-    <t>MunafThomas75633@example.net</t>
-  </si>
-  <si>
-    <t>1990-07-18</t>
-  </si>
-  <si>
-    <t>660539461665893</t>
-  </si>
-  <si>
-    <t>cf91f3b90f942fed</t>
-  </si>
-  <si>
-    <t>990195598727857</t>
-  </si>
-  <si>
-    <t>IDEP674114218436DMZE</t>
-  </si>
-  <si>
-    <t>6756050772</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>RameshJohal19429@example.net</t>
-  </si>
-  <si>
-    <t>1978-08-28</t>
-  </si>
-  <si>
-    <t>677951606124994</t>
-  </si>
-  <si>
-    <t>eb71180941ad2f41</t>
-  </si>
-  <si>
-    <t>841722559864055</t>
-  </si>
-  <si>
-    <t>IDEP671473253326VKS6</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>184</t>
+    <t>148</t>
+  </si>
+  <si>
+    <t>59999711599</t>
+  </si>
+  <si>
+    <t>RLPKSC</t>
+  </si>
+  <si>
+    <t>BNPL1746184385459468</t>
+  </si>
+  <si>
+    <t>59999196282</t>
+  </si>
+  <si>
+    <t>JBGDUP</t>
+  </si>
+  <si>
+    <t>59999945633</t>
+  </si>
+  <si>
+    <t>PQPDEN</t>
+  </si>
+  <si>
+    <t>59999514810</t>
+  </si>
+  <si>
+    <t>QJMJBP</t>
+  </si>
+  <si>
+    <t>59999210701</t>
+  </si>
+  <si>
+    <t>NHTQSS</t>
+  </si>
+  <si>
+    <t>59999852778</t>
+  </si>
+  <si>
+    <t>JHOLCH</t>
+  </si>
+  <si>
+    <t>59999084380</t>
+  </si>
+  <si>
+    <t>DGFKQM</t>
+  </si>
+  <si>
+    <t>59999306715</t>
+  </si>
+  <si>
+    <t>MJJHIH</t>
+  </si>
+  <si>
+    <t>59999687033</t>
+  </si>
+  <si>
+    <t>ALCGLD</t>
+  </si>
+  <si>
+    <t>59999262270</t>
+  </si>
+  <si>
+    <t>LMCTHS</t>
+  </si>
+  <si>
+    <t>335577019434353840</t>
+  </si>
+  <si>
+    <t>ICIC90205141806</t>
+  </si>
+  <si>
+    <t>ICIC87223612706</t>
+  </si>
+  <si>
+    <t>7041714755</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>PreetKapur85937@example.net</t>
+  </si>
+  <si>
+    <t>1978-10-04</t>
+  </si>
+  <si>
+    <t>450374739051914</t>
+  </si>
+  <si>
+    <t>2bba4ea0d08e7c59</t>
+  </si>
+  <si>
+    <t>325154658303295</t>
+  </si>
+  <si>
+    <t>IDEP6741223621452RJM</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>59999056150</t>
+  </si>
+  <si>
+    <t>BSQJDS</t>
+  </si>
+  <si>
+    <t>BNPL6417225728276513</t>
+  </si>
+  <si>
+    <t>59999882363</t>
+  </si>
+  <si>
+    <t>FQSKDT</t>
+  </si>
+  <si>
+    <t>59999712428</t>
+  </si>
+  <si>
+    <t>KFUTOD</t>
+  </si>
+  <si>
+    <t>59999383308</t>
+  </si>
+  <si>
+    <t>IFSDMT</t>
+  </si>
+  <si>
+    <t>59999043421</t>
+  </si>
+  <si>
+    <t>RNDHEN</t>
+  </si>
+  <si>
+    <t>59999232606</t>
+  </si>
+  <si>
+    <t>RTAPMA</t>
+  </si>
+  <si>
+    <t>59999122844</t>
+  </si>
+  <si>
+    <t>JKSCRT</t>
+  </si>
+  <si>
+    <t>59999671840</t>
+  </si>
+  <si>
+    <t>RERNGH</t>
+  </si>
+  <si>
+    <t>59999697465</t>
+  </si>
+  <si>
+    <t>FDNHMA</t>
+  </si>
+  <si>
+    <t>59999966486</t>
+  </si>
+  <si>
+    <t>QJKSIJ</t>
+  </si>
+  <si>
+    <t>335577017041714755</t>
+  </si>
+  <si>
+    <t>ICIC96962347898</t>
+  </si>
+  <si>
+    <t>ICIC99171033751</t>
+  </si>
+  <si>
+    <t>7755892339</t>
+  </si>
+  <si>
+    <t>Charu</t>
+  </si>
+  <si>
+    <t>OwaisMadan99331@example.net</t>
+  </si>
+  <si>
+    <t>1995-02-28</t>
+  </si>
+  <si>
+    <t>507468535179524</t>
+  </si>
+  <si>
+    <t>d8b1917a3a6c71d9</t>
+  </si>
+  <si>
+    <t>165266301019244</t>
+  </si>
+  <si>
+    <t>IDEP7165648948381VYD</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>141</t>
   </si>
   <si>
     <t>168</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>59999540847</t>
-  </si>
-  <si>
-    <t>MFNTRN</t>
-  </si>
-  <si>
-    <t>BNPL6471734316641382</t>
-  </si>
-  <si>
-    <t>59999171108</t>
-  </si>
-  <si>
-    <t>LSKSSO</t>
-  </si>
-  <si>
-    <t>59999940520</t>
-  </si>
-  <si>
-    <t>RFONGG</t>
-  </si>
-  <si>
-    <t>59999740558</t>
-  </si>
-  <si>
-    <t>STGFBI</t>
-  </si>
-  <si>
-    <t>59999413380</t>
-  </si>
-  <si>
-    <t>DSQKRR</t>
-  </si>
-  <si>
-    <t>59999786866</t>
-  </si>
-  <si>
-    <t>HQNCOF</t>
-  </si>
-  <si>
-    <t>59999912994</t>
-  </si>
-  <si>
-    <t>IMLUQA</t>
-  </si>
-  <si>
-    <t>59999213800</t>
-  </si>
-  <si>
-    <t>DJUMAL</t>
-  </si>
-  <si>
-    <t>59999439462</t>
-  </si>
-  <si>
-    <t>CIKAEN</t>
-  </si>
-  <si>
-    <t>59999811711</t>
-  </si>
-  <si>
-    <t>KGISGU</t>
-  </si>
-  <si>
-    <t>335577016756050772</t>
-  </si>
-  <si>
-    <t>ICIC89703667110</t>
-  </si>
-  <si>
-    <t>ICIC96448807836</t>
-  </si>
-  <si>
-    <t>9692013590</t>
-  </si>
-  <si>
-    <t>ParvezSoni93830@example.net</t>
-  </si>
-  <si>
-    <t>1970-09-25</t>
-  </si>
-  <si>
-    <t>356811105856272</t>
-  </si>
-  <si>
-    <t>12767cd7e96960d3</t>
-  </si>
-  <si>
-    <t>670710749282979</t>
-  </si>
-  <si>
-    <t>IDEP716474919174IHE1</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>59999390385</t>
-  </si>
-  <si>
-    <t>NCBJAH</t>
-  </si>
-  <si>
-    <t>BNPL4716758933481476</t>
-  </si>
-  <si>
-    <t>59999307510</t>
-  </si>
-  <si>
-    <t>KARHRP</t>
-  </si>
-  <si>
-    <t>59999115361</t>
-  </si>
-  <si>
-    <t>RCEGIS</t>
-  </si>
-  <si>
-    <t>59999360453</t>
-  </si>
-  <si>
-    <t>SCLLCR</t>
-  </si>
-  <si>
-    <t>59999204574</t>
-  </si>
-  <si>
-    <t>LRQGGB</t>
-  </si>
-  <si>
-    <t>59999330901</t>
-  </si>
-  <si>
-    <t>IRMKCQ</t>
-  </si>
-  <si>
-    <t>59999698686</t>
-  </si>
-  <si>
-    <t>UBOMQK</t>
-  </si>
-  <si>
-    <t>59999886620</t>
-  </si>
-  <si>
-    <t>MFETFD</t>
-  </si>
-  <si>
-    <t>59999395112</t>
-  </si>
-  <si>
-    <t>OKLGGG</t>
-  </si>
-  <si>
-    <t>59999652526</t>
-  </si>
-  <si>
-    <t>EQJFMO</t>
-  </si>
-  <si>
-    <t>335577019692013590</t>
-  </si>
-  <si>
-    <t>ICIC83912010321</t>
-  </si>
-  <si>
-    <t>ICIC83144503296</t>
-  </si>
-  <si>
-    <t>8308839607</t>
-  </si>
-  <si>
-    <t>Narmada</t>
-  </si>
-  <si>
-    <t>NawabDave99169@example.net</t>
-  </si>
-  <si>
-    <t>1982-12-20</t>
-  </si>
-  <si>
-    <t>122988758322803</t>
-  </si>
-  <si>
-    <t>3178d8022eeb651b</t>
-  </si>
-  <si>
-    <t>797502890459300</t>
-  </si>
-  <si>
-    <t>IDEP174655993688AND8</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>59999803020</t>
-  </si>
-  <si>
-    <t>PERDJB</t>
-  </si>
-  <si>
-    <t>BNPL6714561833877218</t>
-  </si>
-  <si>
-    <t>59999981272</t>
-  </si>
-  <si>
-    <t>LIBIIJ</t>
-  </si>
-  <si>
-    <t>59999262035</t>
-  </si>
-  <si>
-    <t>LPDDEO</t>
-  </si>
-  <si>
-    <t>59999821557</t>
-  </si>
-  <si>
-    <t>MEBLDO</t>
-  </si>
-  <si>
-    <t>59999521970</t>
-  </si>
-  <si>
-    <t>OCHDFF</t>
-  </si>
-  <si>
-    <t>59999790583</t>
-  </si>
-  <si>
-    <t>KDKSMM</t>
-  </si>
-  <si>
-    <t>59999766933</t>
-  </si>
-  <si>
-    <t>SEELDE</t>
-  </si>
-  <si>
-    <t>59999073647</t>
-  </si>
-  <si>
-    <t>KRKRCH</t>
-  </si>
-  <si>
-    <t>59999998261</t>
-  </si>
-  <si>
-    <t>HDTGIA</t>
-  </si>
-  <si>
-    <t>59999439113</t>
-  </si>
-  <si>
-    <t>INPLMK</t>
-  </si>
-  <si>
-    <t>335577018308839607</t>
-  </si>
-  <si>
-    <t>ICIC95037345596</t>
-  </si>
-  <si>
-    <t>ICIC81263182099</t>
+    <t>158</t>
+  </si>
+  <si>
+    <t>59999856181</t>
+  </si>
+  <si>
+    <t>DJRCCU</t>
+  </si>
+  <si>
+    <t>BNPL1576658712386931</t>
+  </si>
+  <si>
+    <t>59999174048</t>
+  </si>
+  <si>
+    <t>QSQTUA</t>
+  </si>
+  <si>
+    <t>59999970298</t>
+  </si>
+  <si>
+    <t>RDHILD</t>
+  </si>
+  <si>
+    <t>59999303596</t>
+  </si>
+  <si>
+    <t>PQORLR</t>
+  </si>
+  <si>
+    <t>59999009749</t>
+  </si>
+  <si>
+    <t>UBPBUB</t>
+  </si>
+  <si>
+    <t>59999958079</t>
+  </si>
+  <si>
+    <t>HTGPGQ</t>
+  </si>
+  <si>
+    <t>59999898606</t>
+  </si>
+  <si>
+    <t>DBFDQM</t>
+  </si>
+  <si>
+    <t>59999756869</t>
+  </si>
+  <si>
+    <t>AQTGGQ</t>
+  </si>
+  <si>
+    <t>59999245965</t>
+  </si>
+  <si>
+    <t>JHJTTT</t>
+  </si>
+  <si>
+    <t>59999354887</t>
+  </si>
+  <si>
+    <t>SIUNAL</t>
+  </si>
+  <si>
+    <t>335577017755892339</t>
+  </si>
+  <si>
+    <t>ICIC88473527369</t>
+  </si>
+  <si>
+    <t>ICIC81678782428</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +2272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1650,9 +2292,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1957,10 +2596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1983,21 +2622,21 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>444</v>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>9892189981</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>989324</v>
@@ -2005,10 +2644,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>913749014423</v>
@@ -2016,35 +2655,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>9892189981</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2056,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0FC63-D631-4AC8-B268-689CB743335F}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2077,54 +2705,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>667</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>671</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>477</v>
+        <v>691</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>478</v>
+        <v>692</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2133,30 +2761,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
         <v>136</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" t="s">
-        <v>138</v>
-      </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H3" s="2">
         <v>19.494599999999998</v>
@@ -2165,30 +2793,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
         <v>136</v>
       </c>
-      <c r="C4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
-        <v>138</v>
-      </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H4" s="2">
         <v>19.494599999999998</v>
@@ -2197,30 +2825,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
         <v>136</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" t="s">
         <v>137</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" t="s">
-        <v>139</v>
       </c>
       <c r="H5" s="2">
         <v>19.494599999999998</v>
@@ -2229,30 +2857,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" t="s">
         <v>136</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" t="s">
         <v>137</v>
-      </c>
-      <c r="D6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" t="s">
-        <v>139</v>
       </c>
       <c r="H6" s="2">
         <v>19.494599999999998</v>
@@ -2261,30 +2889,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" t="s">
         <v>137</v>
-      </c>
-      <c r="D7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" t="s">
-        <v>139</v>
       </c>
       <c r="H7" s="2">
         <v>19.494599999999998</v>
@@ -2293,30 +2921,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
         <v>136</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
         <v>137</v>
-      </c>
-      <c r="D8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>139</v>
       </c>
       <c r="H8" s="2">
         <v>19.494599999999998</v>
@@ -2325,103 +2953,103 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="I9" s="2">
         <v>72.860399999999998</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
         <v>136</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" t="s">
         <v>137</v>
-      </c>
-      <c r="D10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" t="s">
-        <v>139</v>
       </c>
       <c r="H10" s="2">
         <v>19.494599999999998</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
         <v>136</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" t="s">
         <v>137</v>
       </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" t="s">
-        <v>139</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2449,22 +3077,22 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>153</v>
+      <c r="B1" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>674</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2491,16 +3119,16 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>190</v>
+      <c r="B1" s="20" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2532,22 +3160,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>1</v>
@@ -2555,19 +3183,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>665</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>666</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>448</v>
+        <v>664</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2576,7 +3204,7 @@
         <v>72.877700000000004</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2589,7 +3217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF395B7-127D-43DF-A3A9-58CE0AD107A0}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2617,96 +3245,96 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2">
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>479</v>
+        <v>693</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" t="s">
+        <v>694</v>
+      </c>
+      <c r="H2" s="21">
+        <v>44798.630833333336</v>
+      </c>
+      <c r="I2" t="s">
         <v>173</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H2" s="22">
-        <v>44798.630833333336</v>
-      </c>
-      <c r="I2" t="s">
-        <v>175</v>
-      </c>
       <c r="J2" t="n">
-        <v>127.0</v>
+        <v>142.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
       </c>
       <c r="L2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" t="s">
         <v>176</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>177</v>
-      </c>
-      <c r="N2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O2" t="s">
-        <v>179</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -2745,319 +3373,319 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>246</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>218</v>
+      <c r="I2" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>218</v>
+      <c r="I3" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>218</v>
+      <c r="I4" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>218</v>
+      <c r="I5" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>218</v>
+      <c r="I6" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>218</v>
+      <c r="I7" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>218</v>
+      <c r="I8" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>218</v>
+      <c r="I9" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>218</v>
+      <c r="I10" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3097,384 +3725,384 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
         <v>232</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" t="s">
-        <v>234</v>
-      </c>
       <c r="D11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>218</v>
+      <c r="I11" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3489,8 +4117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3512,349 +4140,349 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
       <c r="D2" t="s">
-        <v>445</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>447</v>
+        <v>661</v>
+      </c>
+      <c r="E2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F2" t="s">
+        <v>663</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>250</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>218</v>
+        <v>269</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3896,122 +4524,122 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="2">
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>479</v>
+        <v>693</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" t="s">
+        <v>695</v>
+      </c>
+      <c r="H2" s="21">
+        <v>44798.630833333336</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H2" s="22">
-        <v>44798.630833333336</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="J2" t="n">
-        <v>127.0</v>
+        <v>142.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R2" s="2">
         <v>5881300001186</v>
       </c>
-      <c r="S2" s="22">
+      <c r="S2" s="21">
         <v>44756.771122685182</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4024,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17C12E-5343-49E4-B7DD-0A55D5EDDF2C}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4050,93 +4678,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>444</v>
+        <v>232</v>
+      </c>
+      <c r="D2">
+        <v>9892189981</v>
       </c>
       <c r="E2" t="s">
-        <v>446</v>
+        <v>662</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" t="s">
+        <v>664</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" t="s">
+        <v>667</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4224462.0</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" t="s">
-        <v>451</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4221633.0</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="O2" s="13">
         <v>49</v>
@@ -4153,10 +4781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750BBC0A-5573-4F9C-B1FA-FBD30A0E9E0D}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4187,104 +4815,87 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="B2">
         <v>888888</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>444</v>
+      <c r="C2" s="14">
+        <v>9892189981</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>125111</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>444</v>
+      <c r="C3" t="s">
+        <v>660</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>555555</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>444</v>
+      <c r="C4" t="s">
+        <v>660</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>444</v>
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>660</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>789</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>444</v>
+      <c r="C6" t="s">
+        <v>660</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7">
-        <v>888888</v>
-      </c>
-      <c r="C7" s="15">
-        <v>9892189981</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4311,21 +4922,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4354,16 +4965,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -4398,205 +5009,205 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="F2" s="15">
+        <v>71</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F2" s="14">
         <v>18.939800000000002</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="E3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="14">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="B4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="14">
         <v>18.939800000000002</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>37</v>
+      <c r="G4" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="15">
+      <c r="B5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="14">
         <v>18.939800000000002</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="15">
+        <v>78</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="14">
         <v>18.939800000000002</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="15">
+        <v>80</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="14">
         <v>18.939800000000002</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>37</v>
+      <c r="B8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="15">
+        <v>82</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="14">
         <v>72.835400000000007</v>
       </c>
     </row>
@@ -4630,143 +5241,143 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="17">
+        <v>85</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="16">
         <v>18.939800000000002</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>72.835400000000007</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>76</v>
+      <c r="F2" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>448</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>88</v>
+        <v>664</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="17">
+        <v>90</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="16">
         <v>18.939800000000002</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>72.835400000000007</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="17">
+        <v>91</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="16">
         <v>18.939800000000002</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>72.835400000000007</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>37</v>
+      <c r="F4" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="17">
+        <v>92</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="16">
         <v>18.939800000000002</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>72.835400000000007</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4793,33 +5404,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="13">
         <v>888888</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4854,63 +5465,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>103</v>
+        <v>661</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4924,7 +5535,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4940,287 +5551,287 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="D2" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="18">
+        <v>224123</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="19">
+      <c r="H2" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="18">
         <v>224123</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G3" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="19" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="J4" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="B5" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="F5" s="18">
+        <v>224123</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="18">
+        <v>224123</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="19">
+      <c r="H6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="18">
         <v>224123</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="18">
+        <v>224123</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="18">
+        <v>224123</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="19">
-        <v>224123</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="19">
-        <v>224123</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="19">
-        <v>224123</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="19">
-        <v>224123</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="19">
-        <v>224123</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5250,159 +5861,159 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>667</v>
       </c>
       <c r="C2">
         <v>303</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>242</v>
+        <v>212</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>451</v>
+        <v>667</v>
       </c>
       <c r="C3">
         <v>563</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>242</v>
+        <v>212</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>667</v>
       </c>
       <c r="C4">
         <v>645</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>242</v>
+        <v>212</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>667</v>
       </c>
       <c r="C5">
         <v>668</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>242</v>
+        <v>212</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>667</v>
       </c>
       <c r="C6">
         <v>725</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>242</v>
+        <v>212</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>667</v>
       </c>
       <c r="C7">
         <v>800</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>242</v>
+        <v>212</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>667</v>
       </c>
       <c r="C8">
         <v>725</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5432,97 +6043,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>671</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>37</v>
+        <v>121</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>457</v>
+        <v>671</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="20" t="s">
         <v>122</v>
       </c>
+      <c r="B4" s="19" t="s">
+        <v>120</v>
+      </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="C5">
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="C6">
         <v>67</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="C7">
         <v>67</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="711">
   <si>
     <t>TestCases</t>
   </si>
@@ -2133,6 +2133,51 @@
   </si>
   <si>
     <t>ICIC81678782428</t>
+  </si>
+  <si>
+    <t>9272944595</t>
+  </si>
+  <si>
+    <t>Mukti</t>
+  </si>
+  <si>
+    <t>KushalNarasimhan15639@example.net</t>
+  </si>
+  <si>
+    <t>1977-11-29</t>
+  </si>
+  <si>
+    <t>774873824967610</t>
+  </si>
+  <si>
+    <t>b11e5049a72f7dcd</t>
+  </si>
+  <si>
+    <t>921496290482435</t>
+  </si>
+  <si>
+    <t>IDEP715678268441ZL9P</t>
+  </si>
+  <si>
+    <t>6180163468</t>
+  </si>
+  <si>
+    <t>Gunjan</t>
+  </si>
+  <si>
+    <t>HabibJacob81517@example.net</t>
+  </si>
+  <si>
+    <t>1973-03-14</t>
+  </si>
+  <si>
+    <t>016335768350631</t>
+  </si>
+  <si>
+    <t>9ab1c23d15a27c6c</t>
+  </si>
+  <si>
+    <t>495191531940053</t>
   </si>
 </sst>
 </file>
@@ -2737,7 +2782,7 @@
         <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="C2" t="s">
         <v>671</v>
@@ -3186,16 +3231,16 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>665</v>
+        <v>709</v>
       </c>
       <c r="C2" t="s">
-        <v>666</v>
+        <v>710</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4181,13 +4226,13 @@
         <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>661</v>
+        <v>705</v>
       </c>
       <c r="E2" t="s">
-        <v>662</v>
+        <v>706</v>
       </c>
       <c r="F2" t="s">
-        <v>663</v>
+        <v>707</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>217</v>
@@ -4737,7 +4782,7 @@
         <v>9892189981</v>
       </c>
       <c r="E2" t="s">
-        <v>662</v>
+        <v>706</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>61</v>
@@ -4749,7 +4794,7 @@
         <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>64</v>
@@ -4758,10 +4803,10 @@
         <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="M2" t="n">
-        <v>4224462.0</v>
+        <v>4224672.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>66</v>
@@ -4838,7 +4883,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>660</v>
+        <v>704</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4855,7 +4900,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>660</v>
+        <v>704</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4872,7 +4917,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>660</v>
+        <v>704</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -4889,7 +4934,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>660</v>
+        <v>704</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -5041,7 +5086,7 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -5285,7 +5330,7 @@
         <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>64</v>
@@ -5500,7 +5545,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>661</v>
+        <v>705</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>101</v>
@@ -5583,7 +5628,7 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>107</v>
@@ -5881,7 +5926,7 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5901,7 +5946,7 @@
         <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5921,7 +5966,7 @@
         <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5941,7 +5986,7 @@
         <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5961,7 +6006,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5981,7 +6026,7 @@
         <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6001,7 +6046,7 @@
         <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="742">
   <si>
     <t>TestCases</t>
   </si>
@@ -2178,6 +2178,99 @@
   </si>
   <si>
     <t>495191531940053</t>
+  </si>
+  <si>
+    <t>6997616875</t>
+  </si>
+  <si>
+    <t>Devika</t>
+  </si>
+  <si>
+    <t>JohnTripathi54828@example.net</t>
+  </si>
+  <si>
+    <t>1991-11-09</t>
+  </si>
+  <si>
+    <t>563136402336870</t>
+  </si>
+  <si>
+    <t>81fd8d24de80159d</t>
+  </si>
+  <si>
+    <t>572060837551508</t>
+  </si>
+  <si>
+    <t>IDEP167598578588SG4E</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>59999296270</t>
+  </si>
+  <si>
+    <t>STFHER</t>
+  </si>
+  <si>
+    <t>59999489376</t>
+  </si>
+  <si>
+    <t>RIUHGE</t>
+  </si>
+  <si>
+    <t>59999288655</t>
+  </si>
+  <si>
+    <t>NICSLE</t>
+  </si>
+  <si>
+    <t>59999764548</t>
+  </si>
+  <si>
+    <t>COPULJ</t>
+  </si>
+  <si>
+    <t>59999791079</t>
+  </si>
+  <si>
+    <t>IORDPE</t>
+  </si>
+  <si>
+    <t>59999360160</t>
+  </si>
+  <si>
+    <t>NTHIEE</t>
+  </si>
+  <si>
+    <t>59999580193</t>
+  </si>
+  <si>
+    <t>ITQJTA</t>
+  </si>
+  <si>
+    <t>59999803498</t>
+  </si>
+  <si>
+    <t>ICICMP</t>
+  </si>
+  <si>
+    <t>59999960492</t>
+  </si>
+  <si>
+    <t>HNJOCQ</t>
+  </si>
+  <si>
+    <t>59999849816</t>
+  </si>
+  <si>
+    <t>DNRMDT</t>
   </si>
 </sst>
 </file>
@@ -2782,22 +2875,22 @@
         <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="C2" t="s">
-        <v>671</v>
+        <v>721</v>
       </c>
       <c r="D2" t="s">
         <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="F2" t="s">
         <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3133,9 +3226,7 @@
       <c r="A2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" t="s">
-        <v>674</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>153</v>
       </c>
@@ -3231,16 +3322,16 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="C2" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4226,13 +4317,13 @@
         <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="E2" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="F2" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>217</v>
@@ -4782,7 +4873,7 @@
         <v>9892189981</v>
       </c>
       <c r="E2" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>61</v>
@@ -4794,7 +4885,7 @@
         <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>64</v>
@@ -4803,10 +4894,10 @@
         <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="M2" t="n">
-        <v>4224672.0</v>
+        <v>4224882.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>66</v>
@@ -4883,7 +4974,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4900,7 +4991,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4917,7 +5008,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -4934,7 +5025,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -5086,7 +5177,7 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -5330,7 +5421,7 @@
         <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>64</v>
@@ -5545,7 +5636,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>101</v>
@@ -5628,7 +5719,7 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>107</v>
@@ -5926,7 +6017,7 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5946,7 +6037,7 @@
         <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5966,7 +6057,7 @@
         <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5986,7 +6077,7 @@
         <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6006,7 +6097,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6026,7 +6117,7 @@
         <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6046,7 +6137,7 @@
         <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6105,7 +6196,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>671</v>
+        <v>721</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>237</v>
@@ -6119,7 +6210,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>671</v>
+        <v>721</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>237</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="775">
   <si>
     <t>TestCases</t>
   </si>
@@ -2271,6 +2271,105 @@
   </si>
   <si>
     <t>DNRMDT</t>
+  </si>
+  <si>
+    <t>6275007281</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
+    <t>MukulSaraf55151@example.net</t>
+  </si>
+  <si>
+    <t>1992-12-21</t>
+  </si>
+  <si>
+    <t>853678205255442</t>
+  </si>
+  <si>
+    <t>1ef29b25b3fd002b</t>
+  </si>
+  <si>
+    <t>458560317630499</t>
+  </si>
+  <si>
+    <t>IDEP761543678923BO9T</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>59999737160</t>
+  </si>
+  <si>
+    <t>FMRNKS</t>
+  </si>
+  <si>
+    <t>59999545773</t>
+  </si>
+  <si>
+    <t>SDQBME</t>
+  </si>
+  <si>
+    <t>59999204134</t>
+  </si>
+  <si>
+    <t>GJGGAR</t>
+  </si>
+  <si>
+    <t>59999020659</t>
+  </si>
+  <si>
+    <t>ERFEAA</t>
+  </si>
+  <si>
+    <t>59999916114</t>
+  </si>
+  <si>
+    <t>SCLPEN</t>
+  </si>
+  <si>
+    <t>59999172423</t>
+  </si>
+  <si>
+    <t>UIULUJ</t>
+  </si>
+  <si>
+    <t>59999980261</t>
+  </si>
+  <si>
+    <t>MDQKEA</t>
+  </si>
+  <si>
+    <t>59999995707</t>
+  </si>
+  <si>
+    <t>RJMBDG</t>
+  </si>
+  <si>
+    <t>59999124909</t>
+  </si>
+  <si>
+    <t>EANHEI</t>
+  </si>
+  <si>
+    <t>59999784626</t>
+  </si>
+  <si>
+    <t>HFLRLK</t>
   </si>
 </sst>
 </file>
@@ -2875,22 +2974,20 @@
         <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="C2" t="s">
-        <v>721</v>
+        <v>754</v>
       </c>
       <c r="D2" t="s">
         <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>740</v>
-      </c>
-      <c r="F2" t="s">
-        <v>241</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="F2"/>
       <c r="G2" t="s">
-        <v>741</v>
+        <v>774</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3322,16 +3419,16 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>716</v>
+        <v>747</v>
       </c>
       <c r="C2" t="s">
-        <v>717</v>
+        <v>748</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4317,13 +4414,13 @@
         <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
       <c r="E2" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
       <c r="F2" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>217</v>
@@ -4873,7 +4970,7 @@
         <v>9892189981</v>
       </c>
       <c r="E2" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>61</v>
@@ -4885,7 +4982,7 @@
         <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>64</v>
@@ -4894,10 +4991,10 @@
         <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="M2" t="n">
-        <v>4224882.0</v>
+        <v>4225066.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>66</v>
@@ -4974,7 +5071,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4991,7 +5088,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5008,7 +5105,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -5025,7 +5122,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -5177,7 +5274,7 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -5421,7 +5518,7 @@
         <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>64</v>
@@ -5636,7 +5733,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>101</v>
@@ -5719,7 +5816,7 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>107</v>
@@ -6017,7 +6114,7 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6037,7 +6134,7 @@
         <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6057,7 +6154,7 @@
         <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6077,7 +6174,7 @@
         <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6097,7 +6194,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6117,7 +6214,7 @@
         <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6137,7 +6234,7 @@
         <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6196,7 +6293,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>721</v>
+        <v>754</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>237</v>
@@ -6210,7 +6307,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>721</v>
+        <v>754</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>237</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="846">
   <si>
     <t>TestCases</t>
   </si>
@@ -2370,6 +2370,219 @@
   </si>
   <si>
     <t>HFLRLK</t>
+  </si>
+  <si>
+    <t>6957120133</t>
+  </si>
+  <si>
+    <t>Geetanjali</t>
+  </si>
+  <si>
+    <t>EliasPersad43393@example.net</t>
+  </si>
+  <si>
+    <t>1989-05-26</t>
+  </si>
+  <si>
+    <t>619823104415011</t>
+  </si>
+  <si>
+    <t>4b9637a250e5a302</t>
+  </si>
+  <si>
+    <t>730538094026214</t>
+  </si>
+  <si>
+    <t>IDEP716546957388TQLB</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>59999350341</t>
+  </si>
+  <si>
+    <t>MQBBJG</t>
+  </si>
+  <si>
+    <t>59999132089</t>
+  </si>
+  <si>
+    <t>GSIPSL</t>
+  </si>
+  <si>
+    <t>59999471363</t>
+  </si>
+  <si>
+    <t>KMRSEQ</t>
+  </si>
+  <si>
+    <t>59999192430</t>
+  </si>
+  <si>
+    <t>UOFKQL</t>
+  </si>
+  <si>
+    <t>59999321387</t>
+  </si>
+  <si>
+    <t>OBBHTJ</t>
+  </si>
+  <si>
+    <t>59999620430</t>
+  </si>
+  <si>
+    <t>JADAGB</t>
+  </si>
+  <si>
+    <t>59999762090</t>
+  </si>
+  <si>
+    <t>BPIBJF</t>
+  </si>
+  <si>
+    <t>59999371615</t>
+  </si>
+  <si>
+    <t>HPLPDE</t>
+  </si>
+  <si>
+    <t>59999129477</t>
+  </si>
+  <si>
+    <t>SDQMTN</t>
+  </si>
+  <si>
+    <t>59999880452</t>
+  </si>
+  <si>
+    <t>OHCNST</t>
+  </si>
+  <si>
+    <t>7731874294</t>
+  </si>
+  <si>
+    <t>Aabha</t>
+  </si>
+  <si>
+    <t>JavedSanghvi38495@example.net</t>
+  </si>
+  <si>
+    <t>1991-03-12</t>
+  </si>
+  <si>
+    <t>571464845681029</t>
+  </si>
+  <si>
+    <t>981adcab8c7b649a</t>
+  </si>
+  <si>
+    <t>003783215807304</t>
+  </si>
+  <si>
+    <t>IDEP715648817858BC6N</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>59999182863</t>
+  </si>
+  <si>
+    <t>PLJAOD</t>
+  </si>
+  <si>
+    <t>59999008266</t>
+  </si>
+  <si>
+    <t>BCEPQU</t>
+  </si>
+  <si>
+    <t>59999373730</t>
+  </si>
+  <si>
+    <t>KBIMMB</t>
+  </si>
+  <si>
+    <t>59999492423</t>
+  </si>
+  <si>
+    <t>SSDUSO</t>
+  </si>
+  <si>
+    <t>59999289408</t>
+  </si>
+  <si>
+    <t>IHFAEJ</t>
+  </si>
+  <si>
+    <t>59999521131</t>
+  </si>
+  <si>
+    <t>BEHAKL</t>
+  </si>
+  <si>
+    <t>59999514715</t>
+  </si>
+  <si>
+    <t>AMTNGT</t>
+  </si>
+  <si>
+    <t>59999868467</t>
+  </si>
+  <si>
+    <t>QMDSTK</t>
+  </si>
+  <si>
+    <t>59999363398</t>
+  </si>
+  <si>
+    <t>IDLCDL</t>
+  </si>
+  <si>
+    <t>59999068222</t>
+  </si>
+  <si>
+    <t>JNIGJP</t>
+  </si>
+  <si>
+    <t>7142627450</t>
+  </si>
+  <si>
+    <t>Aayushi</t>
+  </si>
+  <si>
+    <t>PranabZacharia40293@example.net</t>
+  </si>
+  <si>
+    <t>1970-01-28</t>
+  </si>
+  <si>
+    <t>715100059019392</t>
+  </si>
+  <si>
+    <t>9c6261d967275eaf</t>
+  </si>
+  <si>
+    <t>414608773199054</t>
   </si>
 </sst>
 </file>
@@ -2974,20 +3187,20 @@
         <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="C2" t="s">
-        <v>754</v>
+        <v>818</v>
       </c>
       <c r="D2" t="s">
         <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>773</v>
+        <v>837</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>774</v>
+        <v>838</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3419,16 +3632,16 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>747</v>
+        <v>844</v>
       </c>
       <c r="C2" t="s">
-        <v>748</v>
+        <v>845</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>746</v>
+        <v>843</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4414,13 +4627,13 @@
         <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>743</v>
+        <v>840</v>
       </c>
       <c r="E2" t="s">
-        <v>744</v>
+        <v>841</v>
       </c>
       <c r="F2" t="s">
-        <v>745</v>
+        <v>842</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>217</v>
@@ -4970,7 +5183,7 @@
         <v>9892189981</v>
       </c>
       <c r="E2" t="s">
-        <v>744</v>
+        <v>841</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>61</v>
@@ -4982,7 +5195,7 @@
         <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>746</v>
+        <v>843</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>64</v>
@@ -4991,10 +5204,10 @@
         <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="M2" t="n">
-        <v>4225066.0</v>
+        <v>4225161.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>66</v>
@@ -5071,7 +5284,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>742</v>
+        <v>839</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -5088,7 +5301,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>742</v>
+        <v>839</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5105,7 +5318,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>742</v>
+        <v>839</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -5122,7 +5335,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>742</v>
+        <v>839</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -5274,7 +5487,7 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>746</v>
+        <v>843</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -5518,7 +5731,7 @@
         <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>746</v>
+        <v>843</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>64</v>
@@ -5733,7 +5946,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>743</v>
+        <v>840</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>101</v>
@@ -5816,7 +6029,7 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>107</v>
@@ -6114,7 +6327,7 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6134,7 +6347,7 @@
         <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6154,7 +6367,7 @@
         <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6174,7 +6387,7 @@
         <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6194,7 +6407,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6214,7 +6427,7 @@
         <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6234,7 +6447,7 @@
         <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6293,7 +6506,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>754</v>
+        <v>818</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>237</v>
@@ -6307,7 +6520,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>754</v>
+        <v>818</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>237</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="971">
   <si>
     <t>TestCases</t>
   </si>
@@ -2583,6 +2583,381 @@
   </si>
   <si>
     <t>414608773199054</t>
+  </si>
+  <si>
+    <t>9311468883</t>
+  </si>
+  <si>
+    <t>Sweta</t>
+  </si>
+  <si>
+    <t>RajMaraj21864@example.net</t>
+  </si>
+  <si>
+    <t>1977-07-12</t>
+  </si>
+  <si>
+    <t>422558920756886</t>
+  </si>
+  <si>
+    <t>660445e82ecce701</t>
+  </si>
+  <si>
+    <t>665341918164603</t>
+  </si>
+  <si>
+    <t>IDEP716562897935BSR7</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>59999668136</t>
+  </si>
+  <si>
+    <t>JGNKON</t>
+  </si>
+  <si>
+    <t>59999516379</t>
+  </si>
+  <si>
+    <t>RGIRCE</t>
+  </si>
+  <si>
+    <t>59999614979</t>
+  </si>
+  <si>
+    <t>HQROQH</t>
+  </si>
+  <si>
+    <t>59999770975</t>
+  </si>
+  <si>
+    <t>REHENO</t>
+  </si>
+  <si>
+    <t>59999324368</t>
+  </si>
+  <si>
+    <t>DQQIIC</t>
+  </si>
+  <si>
+    <t>59999053812</t>
+  </si>
+  <si>
+    <t>ASUPUG</t>
+  </si>
+  <si>
+    <t>59999032113</t>
+  </si>
+  <si>
+    <t>DATRGG</t>
+  </si>
+  <si>
+    <t>59999097249</t>
+  </si>
+  <si>
+    <t>LNRLRN</t>
+  </si>
+  <si>
+    <t>59999390092</t>
+  </si>
+  <si>
+    <t>EDBMGA</t>
+  </si>
+  <si>
+    <t>59999097491</t>
+  </si>
+  <si>
+    <t>FUIBUT</t>
+  </si>
+  <si>
+    <t>8302744912</t>
+  </si>
+  <si>
+    <t>Rakhi</t>
+  </si>
+  <si>
+    <t>MiteshDeo51218@example.net</t>
+  </si>
+  <si>
+    <t>1972-03-12</t>
+  </si>
+  <si>
+    <t>589012405038146</t>
+  </si>
+  <si>
+    <t>9582f5c536a7b896</t>
+  </si>
+  <si>
+    <t>281945915150664</t>
+  </si>
+  <si>
+    <t>IDEP156763144915LWK5</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>59999311795</t>
+  </si>
+  <si>
+    <t>AOTDMJ</t>
+  </si>
+  <si>
+    <t>BNPL5167633385336512</t>
+  </si>
+  <si>
+    <t>59999235683</t>
+  </si>
+  <si>
+    <t>NREFJL</t>
+  </si>
+  <si>
+    <t>59999415782</t>
+  </si>
+  <si>
+    <t>HQJLNQ</t>
+  </si>
+  <si>
+    <t>59999194495</t>
+  </si>
+  <si>
+    <t>RUFETB</t>
+  </si>
+  <si>
+    <t>59999896489</t>
+  </si>
+  <si>
+    <t>DFBJAT</t>
+  </si>
+  <si>
+    <t>59999719598</t>
+  </si>
+  <si>
+    <t>TFJNUI</t>
+  </si>
+  <si>
+    <t>59999486048</t>
+  </si>
+  <si>
+    <t>CUPRFR</t>
+  </si>
+  <si>
+    <t>59999127503</t>
+  </si>
+  <si>
+    <t>SKDRNC</t>
+  </si>
+  <si>
+    <t>59999697264</t>
+  </si>
+  <si>
+    <t>DSSEID</t>
+  </si>
+  <si>
+    <t>59999603530</t>
+  </si>
+  <si>
+    <t>BHKSIS</t>
+  </si>
+  <si>
+    <t>6733863527</t>
+  </si>
+  <si>
+    <t>Namita</t>
+  </si>
+  <si>
+    <t>DhirajKothari79151@example.net</t>
+  </si>
+  <si>
+    <t>1986-02-16</t>
+  </si>
+  <si>
+    <t>650923136484306</t>
+  </si>
+  <si>
+    <t>d3187e626e76e6fa</t>
+  </si>
+  <si>
+    <t>733439150393100</t>
+  </si>
+  <si>
+    <t>IDEP561763637528PGKH</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>59999719330</t>
+  </si>
+  <si>
+    <t>ENHPLD</t>
+  </si>
+  <si>
+    <t>BNPL6157638186818634</t>
+  </si>
+  <si>
+    <t>59999315866</t>
+  </si>
+  <si>
+    <t>KBRGTB</t>
+  </si>
+  <si>
+    <t>59999620008</t>
+  </si>
+  <si>
+    <t>LHOEMA</t>
+  </si>
+  <si>
+    <t>59999216616</t>
+  </si>
+  <si>
+    <t>KDDNFB</t>
+  </si>
+  <si>
+    <t>59999863643</t>
+  </si>
+  <si>
+    <t>RTNKET</t>
+  </si>
+  <si>
+    <t>59999296292</t>
+  </si>
+  <si>
+    <t>UECJLT</t>
+  </si>
+  <si>
+    <t>59999170307</t>
+  </si>
+  <si>
+    <t>TNMDBM</t>
+  </si>
+  <si>
+    <t>59999091146</t>
+  </si>
+  <si>
+    <t>STNHEP</t>
+  </si>
+  <si>
+    <t>59999853301</t>
+  </si>
+  <si>
+    <t>RBRHQE</t>
+  </si>
+  <si>
+    <t>59999493317</t>
+  </si>
+  <si>
+    <t>KGIBDI</t>
+  </si>
+  <si>
+    <t>335577016733863527</t>
+  </si>
+  <si>
+    <t>ICIC91909891715</t>
+  </si>
+  <si>
+    <t>ICIC92874072799</t>
+  </si>
+  <si>
+    <t>7996872101</t>
+  </si>
+  <si>
+    <t>Riddhi</t>
+  </si>
+  <si>
+    <t>MohitNazareth65140@example.net</t>
+  </si>
+  <si>
+    <t>1977-05-02</t>
+  </si>
+  <si>
+    <t>158208059298678</t>
+  </si>
+  <si>
+    <t>5d68ba4696f4cbea</t>
+  </si>
+  <si>
+    <t>703770657295083</t>
+  </si>
+  <si>
+    <t>IDEP6175647718964813</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>59999791082</t>
+  </si>
+  <si>
+    <t>IFPNDR</t>
+  </si>
+  <si>
+    <t>59999712337</t>
+  </si>
+  <si>
+    <t>EDCCBR</t>
+  </si>
+  <si>
+    <t>59999655333</t>
+  </si>
+  <si>
+    <t>GDRAEA</t>
+  </si>
+  <si>
+    <t>59999404591</t>
+  </si>
+  <si>
+    <t>OEKAKO</t>
+  </si>
+  <si>
+    <t>59999366004</t>
+  </si>
+  <si>
+    <t>FGEBIA</t>
+  </si>
+  <si>
+    <t>59999790922</t>
+  </si>
+  <si>
+    <t>QCOFDR</t>
+  </si>
+  <si>
+    <t>59999826151</t>
+  </si>
+  <si>
+    <t>TSJLAF</t>
+  </si>
+  <si>
+    <t>59999253403</t>
+  </si>
+  <si>
+    <t>OADHIQ</t>
+  </si>
+  <si>
+    <t>59999572809</t>
+  </si>
+  <si>
+    <t>GUAGGB</t>
+  </si>
+  <si>
+    <t>59999734643</t>
+  </si>
+  <si>
+    <t>PRLMSK</t>
   </si>
 </sst>
 </file>
@@ -3187,20 +3562,22 @@
         <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>813</v>
+        <v>948</v>
       </c>
       <c r="C2" t="s">
-        <v>818</v>
+        <v>390</v>
       </c>
       <c r="D2" t="s">
         <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>837</v>
-      </c>
-      <c r="F2"/>
+        <v>969</v>
+      </c>
+      <c r="F2" t="s">
+        <v>241</v>
+      </c>
       <c r="G2" t="s">
-        <v>838</v>
+        <v>970</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3632,16 +4009,16 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>844</v>
+        <v>946</v>
       </c>
       <c r="C2" t="s">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>843</v>
+        <v>945</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3744,7 +4121,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>693</v>
+        <v>938</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>171</v>
@@ -3756,7 +4133,7 @@
         <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>694</v>
+        <v>939</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -3765,7 +4142,7 @@
         <v>173</v>
       </c>
       <c r="J2" t="n">
-        <v>142.0</v>
+        <v>164.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4627,13 +5004,13 @@
         <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>840</v>
+        <v>942</v>
       </c>
       <c r="E2" t="s">
-        <v>841</v>
+        <v>943</v>
       </c>
       <c r="F2" t="s">
-        <v>842</v>
+        <v>944</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>217</v>
@@ -5032,7 +5409,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>693</v>
+        <v>938</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>171</v>
@@ -5044,7 +5421,7 @@
         <v>179</v>
       </c>
       <c r="G2" t="s">
-        <v>695</v>
+        <v>940</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -5053,7 +5430,7 @@
         <v>173</v>
       </c>
       <c r="J2" t="n">
-        <v>142.0</v>
+        <v>164.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5183,7 +5560,7 @@
         <v>9892189981</v>
       </c>
       <c r="E2" t="s">
-        <v>841</v>
+        <v>943</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>61</v>
@@ -5195,7 +5572,7 @@
         <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>843</v>
+        <v>945</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>64</v>
@@ -5204,10 +5581,10 @@
         <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>813</v>
+        <v>948</v>
       </c>
       <c r="M2" t="n">
-        <v>4225161.0</v>
+        <v>4225431.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>66</v>
@@ -5284,7 +5661,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>839</v>
+        <v>941</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -5301,7 +5678,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>839</v>
+        <v>941</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5318,7 +5695,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>839</v>
+        <v>941</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -5335,7 +5712,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>839</v>
+        <v>941</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -5487,7 +5864,7 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>843</v>
+        <v>945</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -5731,7 +6108,7 @@
         <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>843</v>
+        <v>945</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>64</v>
@@ -5946,7 +6323,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>840</v>
+        <v>942</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>101</v>
@@ -6029,7 +6406,7 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>813</v>
+        <v>948</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>107</v>
@@ -6327,7 +6704,7 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>813</v>
+        <v>948</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6347,7 +6724,7 @@
         <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>813</v>
+        <v>948</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6367,7 +6744,7 @@
         <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>813</v>
+        <v>948</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6387,7 +6764,7 @@
         <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>813</v>
+        <v>948</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6407,7 +6784,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>813</v>
+        <v>948</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6427,7 +6804,7 @@
         <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>813</v>
+        <v>948</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6447,7 +6824,7 @@
         <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>813</v>
+        <v>948</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6506,7 +6883,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>818</v>
+        <v>390</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>237</v>
@@ -6520,7 +6897,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>818</v>
+        <v>390</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>237</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2882" uniqueCount="1110">
   <si>
     <t>TestCases</t>
   </si>
@@ -2958,6 +2958,423 @@
   </si>
   <si>
     <t>PRLMSK</t>
+  </si>
+  <si>
+    <t>6593136192</t>
+  </si>
+  <si>
+    <t>RameshSarkar47797@example.net</t>
+  </si>
+  <si>
+    <t>1989-03-11</t>
+  </si>
+  <si>
+    <t>192531761210717</t>
+  </si>
+  <si>
+    <t>fa96356f6578071b</t>
+  </si>
+  <si>
+    <t>639766980256858</t>
+  </si>
+  <si>
+    <t>8907752745</t>
+  </si>
+  <si>
+    <t>AmritPrabhakar90100@example.net</t>
+  </si>
+  <si>
+    <t>1995-07-29</t>
+  </si>
+  <si>
+    <t>037721735857425</t>
+  </si>
+  <si>
+    <t>2714983a868da4de</t>
+  </si>
+  <si>
+    <t>793638797366596</t>
+  </si>
+  <si>
+    <t>7460992029</t>
+  </si>
+  <si>
+    <t>WahidJoshi21627@example.net</t>
+  </si>
+  <si>
+    <t>1977-07-17</t>
+  </si>
+  <si>
+    <t>678251374716629</t>
+  </si>
+  <si>
+    <t>4f0584fc0cb35867</t>
+  </si>
+  <si>
+    <t>063645510748292</t>
+  </si>
+  <si>
+    <t>IDEP716517836466D97S</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>59999167583</t>
+  </si>
+  <si>
+    <t>ENDBPM</t>
+  </si>
+  <si>
+    <t>59999515906</t>
+  </si>
+  <si>
+    <t>URIKSP</t>
+  </si>
+  <si>
+    <t>59999749008</t>
+  </si>
+  <si>
+    <t>ADJPOG</t>
+  </si>
+  <si>
+    <t>59999398648</t>
+  </si>
+  <si>
+    <t>KNBGRG</t>
+  </si>
+  <si>
+    <t>59999382579</t>
+  </si>
+  <si>
+    <t>RPQQSL</t>
+  </si>
+  <si>
+    <t>59999484358</t>
+  </si>
+  <si>
+    <t>OEPIKS</t>
+  </si>
+  <si>
+    <t>59999258796</t>
+  </si>
+  <si>
+    <t>ETUKMM</t>
+  </si>
+  <si>
+    <t>59999450941</t>
+  </si>
+  <si>
+    <t>SNBPMS</t>
+  </si>
+  <si>
+    <t>59999058616</t>
+  </si>
+  <si>
+    <t>JBJLLD</t>
+  </si>
+  <si>
+    <t>59999714927</t>
+  </si>
+  <si>
+    <t>SRLPIN</t>
+  </si>
+  <si>
+    <t>9911637236</t>
+  </si>
+  <si>
+    <t>Zeenat</t>
+  </si>
+  <si>
+    <t>PreetJayaraman88114@example.net</t>
+  </si>
+  <si>
+    <t>1991-10-24</t>
+  </si>
+  <si>
+    <t>095924746177929</t>
+  </si>
+  <si>
+    <t>32f5691a4d740428</t>
+  </si>
+  <si>
+    <t>263704360763014</t>
+  </si>
+  <si>
+    <t>IDEP516717585935GWQY</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>59999665995</t>
+  </si>
+  <si>
+    <t>JFJTHN</t>
+  </si>
+  <si>
+    <t>BNPL5761177912188235</t>
+  </si>
+  <si>
+    <t>59999995399</t>
+  </si>
+  <si>
+    <t>UULRTK</t>
+  </si>
+  <si>
+    <t>59999339972</t>
+  </si>
+  <si>
+    <t>DGNDRL</t>
+  </si>
+  <si>
+    <t>59999028355</t>
+  </si>
+  <si>
+    <t>OGMAFD</t>
+  </si>
+  <si>
+    <t>59999358687</t>
+  </si>
+  <si>
+    <t>CRLTGE</t>
+  </si>
+  <si>
+    <t>59999533391</t>
+  </si>
+  <si>
+    <t>AKRPJN</t>
+  </si>
+  <si>
+    <t>59999991641</t>
+  </si>
+  <si>
+    <t>FRNBLU</t>
+  </si>
+  <si>
+    <t>59999874439</t>
+  </si>
+  <si>
+    <t>NQSQNT</t>
+  </si>
+  <si>
+    <t>59999085193</t>
+  </si>
+  <si>
+    <t>QFGBBA</t>
+  </si>
+  <si>
+    <t>59999420277</t>
+  </si>
+  <si>
+    <t>JBHJPJ</t>
+  </si>
+  <si>
+    <t>335577019911637236</t>
+  </si>
+  <si>
+    <t>ICIC91147106645</t>
+  </si>
+  <si>
+    <t>ICIC97643553029</t>
+  </si>
+  <si>
+    <t>6657112786</t>
+  </si>
+  <si>
+    <t>BinoyaPuri75641@example.net</t>
+  </si>
+  <si>
+    <t>1981-08-02</t>
+  </si>
+  <si>
+    <t>946020633335968</t>
+  </si>
+  <si>
+    <t>d5a388457a31cb7e</t>
+  </si>
+  <si>
+    <t>847608629621761</t>
+  </si>
+  <si>
+    <t>IDEP1567186136316HLA</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>59999856579</t>
+  </si>
+  <si>
+    <t>PTIBFB</t>
+  </si>
+  <si>
+    <t>BNPL5167188154683871</t>
+  </si>
+  <si>
+    <t>59999975384</t>
+  </si>
+  <si>
+    <t>GDETKM</t>
+  </si>
+  <si>
+    <t>59999553980</t>
+  </si>
+  <si>
+    <t>NIPUPA</t>
+  </si>
+  <si>
+    <t>59999064290</t>
+  </si>
+  <si>
+    <t>EHBNNF</t>
+  </si>
+  <si>
+    <t>59999875254</t>
+  </si>
+  <si>
+    <t>BSMHNU</t>
+  </si>
+  <si>
+    <t>59999606039</t>
+  </si>
+  <si>
+    <t>GTBREA</t>
+  </si>
+  <si>
+    <t>59999068236</t>
+  </si>
+  <si>
+    <t>IOTADI</t>
+  </si>
+  <si>
+    <t>59999267968</t>
+  </si>
+  <si>
+    <t>UNNOIS</t>
+  </si>
+  <si>
+    <t>59999436055</t>
+  </si>
+  <si>
+    <t>MOAGPS</t>
+  </si>
+  <si>
+    <t>59999024449</t>
+  </si>
+  <si>
+    <t>UMJNEL</t>
+  </si>
+  <si>
+    <t>335577016657112786</t>
+  </si>
+  <si>
+    <t>ICIC96728570172</t>
+  </si>
+  <si>
+    <t>ICIC84326001763</t>
+  </si>
+  <si>
+    <t>7021675805</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>MotiMukherjee65961@example.net</t>
+  </si>
+  <si>
+    <t>1993-01-25</t>
+  </si>
+  <si>
+    <t>444301644065316</t>
+  </si>
+  <si>
+    <t>691216835f9af061</t>
+  </si>
+  <si>
+    <t>387693520153011</t>
+  </si>
+  <si>
+    <t>IDEP1675193975824UYL</t>
+  </si>
+  <si>
+    <t>59999238713</t>
+  </si>
+  <si>
+    <t>SUQTCE</t>
+  </si>
+  <si>
+    <t>BNPL7156196899675832</t>
+  </si>
+  <si>
+    <t>59999563490</t>
+  </si>
+  <si>
+    <t>BDESNT</t>
+  </si>
+  <si>
+    <t>59999702917</t>
+  </si>
+  <si>
+    <t>NTPPFT</t>
+  </si>
+  <si>
+    <t>59999585055</t>
+  </si>
+  <si>
+    <t>MHNOGS</t>
+  </si>
+  <si>
+    <t>59999073360</t>
+  </si>
+  <si>
+    <t>GAJUMO</t>
+  </si>
+  <si>
+    <t>59999569968</t>
+  </si>
+  <si>
+    <t>GSJGQC</t>
+  </si>
+  <si>
+    <t>59999377547</t>
+  </si>
+  <si>
+    <t>KTKRLK</t>
+  </si>
+  <si>
+    <t>59999027096</t>
+  </si>
+  <si>
+    <t>MBLBNJ</t>
+  </si>
+  <si>
+    <t>59999355286</t>
+  </si>
+  <si>
+    <t>MLRGJP</t>
+  </si>
+  <si>
+    <t>59999356507</t>
+  </si>
+  <si>
+    <t>KKMFJM</t>
+  </si>
+  <si>
+    <t>335577017021675805</t>
+  </si>
+  <si>
+    <t>ICIC86285522569</t>
+  </si>
+  <si>
+    <t>ICIC97029025772</t>
   </si>
 </sst>
 </file>
@@ -3562,22 +3979,22 @@
         <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>948</v>
+        <v>1085</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>818</v>
       </c>
       <c r="D2" t="s">
         <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>969</v>
+        <v>1105</v>
       </c>
       <c r="F2" t="s">
         <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>970</v>
+        <v>1106</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3913,7 +4330,9 @@
       <c r="A2" t="s">
         <v>150</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>1088</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>153</v>
       </c>
@@ -4009,16 +4428,16 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>946</v>
+        <v>1083</v>
       </c>
       <c r="C2" t="s">
-        <v>947</v>
+        <v>1084</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>945</v>
+        <v>1082</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4121,7 +4540,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>938</v>
+        <v>1107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>171</v>
@@ -4133,7 +4552,7 @@
         <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>939</v>
+        <v>1108</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -4142,7 +4561,7 @@
         <v>173</v>
       </c>
       <c r="J2" t="n">
-        <v>164.0</v>
+        <v>162.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -5004,13 +5423,13 @@
         <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>942</v>
+        <v>1079</v>
       </c>
       <c r="E2" t="s">
-        <v>943</v>
+        <v>1080</v>
       </c>
       <c r="F2" t="s">
-        <v>944</v>
+        <v>1081</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>217</v>
@@ -5409,7 +5828,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>938</v>
+        <v>1107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>171</v>
@@ -5421,7 +5840,7 @@
         <v>179</v>
       </c>
       <c r="G2" t="s">
-        <v>940</v>
+        <v>1109</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -5430,7 +5849,7 @@
         <v>173</v>
       </c>
       <c r="J2" t="n">
-        <v>164.0</v>
+        <v>162.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5560,7 +5979,7 @@
         <v>9892189981</v>
       </c>
       <c r="E2" t="s">
-        <v>943</v>
+        <v>1080</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>61</v>
@@ -5572,7 +5991,7 @@
         <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>945</v>
+        <v>1082</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>64</v>
@@ -5581,10 +6000,10 @@
         <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>948</v>
+        <v>1085</v>
       </c>
       <c r="M2" t="n">
-        <v>4225431.0</v>
+        <v>4233263.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>66</v>
@@ -5661,7 +6080,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>941</v>
+        <v>1078</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -5678,7 +6097,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>941</v>
+        <v>1078</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5695,7 +6114,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>941</v>
+        <v>1078</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -5712,7 +6131,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>941</v>
+        <v>1078</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -5864,7 +6283,7 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>945</v>
+        <v>1082</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -6108,7 +6527,7 @@
         <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>945</v>
+        <v>1082</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>64</v>
@@ -6323,7 +6742,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>942</v>
+        <v>1079</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>101</v>
@@ -6406,7 +6825,7 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>948</v>
+        <v>1085</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>107</v>
@@ -6704,7 +7123,7 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>948</v>
+        <v>1085</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6724,7 +7143,7 @@
         <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>948</v>
+        <v>1085</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6744,7 +7163,7 @@
         <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>948</v>
+        <v>1085</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6764,7 +7183,7 @@
         <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>948</v>
+        <v>1085</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6784,7 +7203,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>948</v>
+        <v>1085</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6804,7 +7223,7 @@
         <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>948</v>
+        <v>1085</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6824,7 +7243,7 @@
         <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>948</v>
+        <v>1085</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6883,7 +7302,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>818</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>237</v>
@@ -6897,7 +7316,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>390</v>
+        <v>818</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>237</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2882" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="1497">
   <si>
     <t>TestCases</t>
   </si>
@@ -3375,6 +3375,1167 @@
   </si>
   <si>
     <t>ICIC97029025772</t>
+  </si>
+  <si>
+    <t>9329218903</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>AbhishekLoke52198@example.net</t>
+  </si>
+  <si>
+    <t>1975-09-09</t>
+  </si>
+  <si>
+    <t>928427283360158</t>
+  </si>
+  <si>
+    <t>b892cd61b433d808</t>
+  </si>
+  <si>
+    <t>577609534770582</t>
+  </si>
+  <si>
+    <t>6096787291</t>
+  </si>
+  <si>
+    <t>Nandini</t>
+  </si>
+  <si>
+    <t>MohitMemon25874@example.net</t>
+  </si>
+  <si>
+    <t>1988-09-17</t>
+  </si>
+  <si>
+    <t>466066451089575</t>
+  </si>
+  <si>
+    <t>2d6f95c3ffd36823</t>
+  </si>
+  <si>
+    <t>063941940398398</t>
+  </si>
+  <si>
+    <t>IDEP175684635929AHB5</t>
+  </si>
+  <si>
+    <t>59999210457</t>
+  </si>
+  <si>
+    <t>IGPUSH</t>
+  </si>
+  <si>
+    <t>59999188655</t>
+  </si>
+  <si>
+    <t>ARROFI</t>
+  </si>
+  <si>
+    <t>59999027498</t>
+  </si>
+  <si>
+    <t>TJNIHO</t>
+  </si>
+  <si>
+    <t>59999813173</t>
+  </si>
+  <si>
+    <t>EMSDGS</t>
+  </si>
+  <si>
+    <t>59999976049</t>
+  </si>
+  <si>
+    <t>NUSQLK</t>
+  </si>
+  <si>
+    <t>59999768056</t>
+  </si>
+  <si>
+    <t>HMFCDD</t>
+  </si>
+  <si>
+    <t>59999615834</t>
+  </si>
+  <si>
+    <t>MNGANG</t>
+  </si>
+  <si>
+    <t>59999376179</t>
+  </si>
+  <si>
+    <t>MROJBT</t>
+  </si>
+  <si>
+    <t>59999763772</t>
+  </si>
+  <si>
+    <t>TMHEFU</t>
+  </si>
+  <si>
+    <t>59999807738</t>
+  </si>
+  <si>
+    <t>JDOMFR</t>
+  </si>
+  <si>
+    <t>7957358672</t>
+  </si>
+  <si>
+    <t>Bhaagyasree</t>
+  </si>
+  <si>
+    <t>RaghavanKakar86859@example.net</t>
+  </si>
+  <si>
+    <t>1971-08-21</t>
+  </si>
+  <si>
+    <t>337894296945074</t>
+  </si>
+  <si>
+    <t>fdd1018f57322461</t>
+  </si>
+  <si>
+    <t>260591171036885</t>
+  </si>
+  <si>
+    <t>IDEP576186844778LDXY</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>59999667795</t>
+  </si>
+  <si>
+    <t>OTIFGS</t>
+  </si>
+  <si>
+    <t>BNPL1657862339515839</t>
+  </si>
+  <si>
+    <t>59999662420</t>
+  </si>
+  <si>
+    <t>LKRNMQ</t>
+  </si>
+  <si>
+    <t>59999082927</t>
+  </si>
+  <si>
+    <t>PDJEFP</t>
+  </si>
+  <si>
+    <t>59999825285</t>
+  </si>
+  <si>
+    <t>TEANST</t>
+  </si>
+  <si>
+    <t>59999686793</t>
+  </si>
+  <si>
+    <t>CPSTML</t>
+  </si>
+  <si>
+    <t>59999710732</t>
+  </si>
+  <si>
+    <t>URBDLR</t>
+  </si>
+  <si>
+    <t>59999155508</t>
+  </si>
+  <si>
+    <t>AQRBQI</t>
+  </si>
+  <si>
+    <t>59999025792</t>
+  </si>
+  <si>
+    <t>LUDLIB</t>
+  </si>
+  <si>
+    <t>59999434864</t>
+  </si>
+  <si>
+    <t>HAIOOB</t>
+  </si>
+  <si>
+    <t>59999777984</t>
+  </si>
+  <si>
+    <t>BUQAFL</t>
+  </si>
+  <si>
+    <t>335577017957358672</t>
+  </si>
+  <si>
+    <t>ICIC82519306802</t>
+  </si>
+  <si>
+    <t>ICIC92990480677</t>
+  </si>
+  <si>
+    <t>9948483037</t>
+  </si>
+  <si>
+    <t>Nupur</t>
+  </si>
+  <si>
+    <t>NawabOak47774@example.net</t>
+  </si>
+  <si>
+    <t>1988-08-25</t>
+  </si>
+  <si>
+    <t>173760767768245</t>
+  </si>
+  <si>
+    <t>152d1855fc9388e4</t>
+  </si>
+  <si>
+    <t>424712152798078</t>
+  </si>
+  <si>
+    <t>IDEP5716876884285FAQ</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>59999847093</t>
+  </si>
+  <si>
+    <t>LDQIPD</t>
+  </si>
+  <si>
+    <t>BNPL7561877785125198</t>
+  </si>
+  <si>
+    <t>59999869144</t>
+  </si>
+  <si>
+    <t>QGMTKN</t>
+  </si>
+  <si>
+    <t>59999199265</t>
+  </si>
+  <si>
+    <t>FJBELB</t>
+  </si>
+  <si>
+    <t>59999024309</t>
+  </si>
+  <si>
+    <t>AFBKGS</t>
+  </si>
+  <si>
+    <t>59999965087</t>
+  </si>
+  <si>
+    <t>MFFBFN</t>
+  </si>
+  <si>
+    <t>59999446926</t>
+  </si>
+  <si>
+    <t>EKAHFP</t>
+  </si>
+  <si>
+    <t>59999035686</t>
+  </si>
+  <si>
+    <t>THDSPE</t>
+  </si>
+  <si>
+    <t>59999749282</t>
+  </si>
+  <si>
+    <t>KFIDMK</t>
+  </si>
+  <si>
+    <t>8123495661</t>
+  </si>
+  <si>
+    <t>FaisalInani83672@example.net</t>
+  </si>
+  <si>
+    <t>1994-10-10</t>
+  </si>
+  <si>
+    <t>257579627888541</t>
+  </si>
+  <si>
+    <t>aa922eebd997ce8c</t>
+  </si>
+  <si>
+    <t>168692298675630</t>
+  </si>
+  <si>
+    <t>IDEP761588728839YJ45</t>
+  </si>
+  <si>
+    <t>59999812005</t>
+  </si>
+  <si>
+    <t>FUOFEF</t>
+  </si>
+  <si>
+    <t>BNPL1576889191313569</t>
+  </si>
+  <si>
+    <t>59999057990</t>
+  </si>
+  <si>
+    <t>JABEQM</t>
+  </si>
+  <si>
+    <t>59999644959</t>
+  </si>
+  <si>
+    <t>JGKLNL</t>
+  </si>
+  <si>
+    <t>59999409691</t>
+  </si>
+  <si>
+    <t>UUHCIA</t>
+  </si>
+  <si>
+    <t>59999007813</t>
+  </si>
+  <si>
+    <t>GACIHL</t>
+  </si>
+  <si>
+    <t>59999938338</t>
+  </si>
+  <si>
+    <t>DTENMR</t>
+  </si>
+  <si>
+    <t>59999806766</t>
+  </si>
+  <si>
+    <t>LFLUGT</t>
+  </si>
+  <si>
+    <t>59999208468</t>
+  </si>
+  <si>
+    <t>JLCCGE</t>
+  </si>
+  <si>
+    <t>59999555631</t>
+  </si>
+  <si>
+    <t>JPEAQP</t>
+  </si>
+  <si>
+    <t>59999451386</t>
+  </si>
+  <si>
+    <t>HLKOEO</t>
+  </si>
+  <si>
+    <t>335577018123495661</t>
+  </si>
+  <si>
+    <t>ICIC80308348967</t>
+  </si>
+  <si>
+    <t>ICIC95378051740</t>
+  </si>
+  <si>
+    <t>8975062270</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>RajendraMitra45640@example.net</t>
+  </si>
+  <si>
+    <t>1970-08-02</t>
+  </si>
+  <si>
+    <t>204951879081345</t>
+  </si>
+  <si>
+    <t>6536456ce4d85c5f</t>
+  </si>
+  <si>
+    <t>217445632090383</t>
+  </si>
+  <si>
+    <t>IDEP165718834139N4VK</t>
+  </si>
+  <si>
+    <t>59999017789</t>
+  </si>
+  <si>
+    <t>CUGNOB</t>
+  </si>
+  <si>
+    <t>BNPL5761182181483956</t>
+  </si>
+  <si>
+    <t>59999832506</t>
+  </si>
+  <si>
+    <t>HNQSBS</t>
+  </si>
+  <si>
+    <t>59999766635</t>
+  </si>
+  <si>
+    <t>CCIBID</t>
+  </si>
+  <si>
+    <t>59999726758</t>
+  </si>
+  <si>
+    <t>JFUKHF</t>
+  </si>
+  <si>
+    <t>59999869299</t>
+  </si>
+  <si>
+    <t>KFHHJI</t>
+  </si>
+  <si>
+    <t>59999724858</t>
+  </si>
+  <si>
+    <t>RDBGGG</t>
+  </si>
+  <si>
+    <t>59999858888</t>
+  </si>
+  <si>
+    <t>PNQAFO</t>
+  </si>
+  <si>
+    <t>59999875028</t>
+  </si>
+  <si>
+    <t>KEKJEN</t>
+  </si>
+  <si>
+    <t>59999202079</t>
+  </si>
+  <si>
+    <t>MUHCBL</t>
+  </si>
+  <si>
+    <t>59999595408</t>
+  </si>
+  <si>
+    <t>HSRLED</t>
+  </si>
+  <si>
+    <t>335577018975062270</t>
+  </si>
+  <si>
+    <t>ICIC92049076100</t>
+  </si>
+  <si>
+    <t>ICIC94096070917</t>
+  </si>
+  <si>
+    <t>8127145573</t>
+  </si>
+  <si>
+    <t>Anjana</t>
+  </si>
+  <si>
+    <t>IbrahimSankaran22028@example.net</t>
+  </si>
+  <si>
+    <t>1988-09-30</t>
+  </si>
+  <si>
+    <t>221401797024141</t>
+  </si>
+  <si>
+    <t>514c2b46c191ef8d</t>
+  </si>
+  <si>
+    <t>366408314607949</t>
+  </si>
+  <si>
+    <t>IDEP657116993714J7HR</t>
+  </si>
+  <si>
+    <t>bnpl59999882124</t>
+  </si>
+  <si>
+    <t>TUGNUL</t>
+  </si>
+  <si>
+    <t>BNPL7651171824153924</t>
+  </si>
+  <si>
+    <t>bnpl59999064917</t>
+  </si>
+  <si>
+    <t>LSKSBP</t>
+  </si>
+  <si>
+    <t>bnpl59999157733</t>
+  </si>
+  <si>
+    <t>DANUFN</t>
+  </si>
+  <si>
+    <t>bnpl59999922849</t>
+  </si>
+  <si>
+    <t>RAUCQH</t>
+  </si>
+  <si>
+    <t>bnpl59999194248</t>
+  </si>
+  <si>
+    <t>JROEPL</t>
+  </si>
+  <si>
+    <t>bnpl59999423642</t>
+  </si>
+  <si>
+    <t>FADMOG</t>
+  </si>
+  <si>
+    <t>bnpl59999014037</t>
+  </si>
+  <si>
+    <t>RUQLGT</t>
+  </si>
+  <si>
+    <t>bnpl59999203749</t>
+  </si>
+  <si>
+    <t>SDIPPU</t>
+  </si>
+  <si>
+    <t>bnpl59999381574</t>
+  </si>
+  <si>
+    <t>QSCNFA</t>
+  </si>
+  <si>
+    <t>bnpl59999254586</t>
+  </si>
+  <si>
+    <t>NCMTSF</t>
+  </si>
+  <si>
+    <t>335577018127145573</t>
+  </si>
+  <si>
+    <t>ICIC86024365259</t>
+  </si>
+  <si>
+    <t>ICIC81780720778</t>
+  </si>
+  <si>
+    <t>8868498259</t>
+  </si>
+  <si>
+    <t>Padama</t>
+  </si>
+  <si>
+    <t>SuryaGaba19392@example.net</t>
+  </si>
+  <si>
+    <t>1972-02-20</t>
+  </si>
+  <si>
+    <t>084784040193607</t>
+  </si>
+  <si>
+    <t>2357ee1042016f79</t>
+  </si>
+  <si>
+    <t>864025581904903</t>
+  </si>
+  <si>
+    <t>IDEP561717596881TVIX</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>bnpl59999735721</t>
+  </si>
+  <si>
+    <t>AQJRQD</t>
+  </si>
+  <si>
+    <t>BNPL6715177865785234</t>
+  </si>
+  <si>
+    <t>bnpl59999785026</t>
+  </si>
+  <si>
+    <t>FDMFOJ</t>
+  </si>
+  <si>
+    <t>bnpl59999479229</t>
+  </si>
+  <si>
+    <t>LLRCKB</t>
+  </si>
+  <si>
+    <t>bnpl59999917594</t>
+  </si>
+  <si>
+    <t>CQQDCP</t>
+  </si>
+  <si>
+    <t>bnpl59999309535</t>
+  </si>
+  <si>
+    <t>KDMBEB</t>
+  </si>
+  <si>
+    <t>bnpl59999380336</t>
+  </si>
+  <si>
+    <t>PNMTHE</t>
+  </si>
+  <si>
+    <t>bnpl59999673746</t>
+  </si>
+  <si>
+    <t>OETTDL</t>
+  </si>
+  <si>
+    <t>bnpl59999412421</t>
+  </si>
+  <si>
+    <t>QPDNQS</t>
+  </si>
+  <si>
+    <t>bnpl59999199529</t>
+  </si>
+  <si>
+    <t>ABBLAE</t>
+  </si>
+  <si>
+    <t>bnpl59999329953</t>
+  </si>
+  <si>
+    <t>LRFRAI</t>
+  </si>
+  <si>
+    <t>335577018868498259</t>
+  </si>
+  <si>
+    <t>ICIC91672472263</t>
+  </si>
+  <si>
+    <t>ICIC84283622886</t>
+  </si>
+  <si>
+    <t>8130268874</t>
+  </si>
+  <si>
+    <t>Leela</t>
+  </si>
+  <si>
+    <t>PrabhatMore36067@example.net</t>
+  </si>
+  <si>
+    <t>1986-06-16</t>
+  </si>
+  <si>
+    <t>711994597751704</t>
+  </si>
+  <si>
+    <t>609474019f65a159</t>
+  </si>
+  <si>
+    <t>162674336731290</t>
+  </si>
+  <si>
+    <t>IDEP176518566844JM8Q</t>
+  </si>
+  <si>
+    <t>bnpl59999797240</t>
+  </si>
+  <si>
+    <t>TFJIUU</t>
+  </si>
+  <si>
+    <t>BNPL5617187751884356</t>
+  </si>
+  <si>
+    <t>bnpl59999588152</t>
+  </si>
+  <si>
+    <t>ITAAMF</t>
+  </si>
+  <si>
+    <t>bnpl59999713839</t>
+  </si>
+  <si>
+    <t>MGISMK</t>
+  </si>
+  <si>
+    <t>bnpl59999439496</t>
+  </si>
+  <si>
+    <t>OSKFQU</t>
+  </si>
+  <si>
+    <t>bnpl59999786418</t>
+  </si>
+  <si>
+    <t>DGBPUA</t>
+  </si>
+  <si>
+    <t>bnpl59999967775</t>
+  </si>
+  <si>
+    <t>OELBNS</t>
+  </si>
+  <si>
+    <t>bnpl59999495888</t>
+  </si>
+  <si>
+    <t>FGSNNB</t>
+  </si>
+  <si>
+    <t>bnpl59999982150</t>
+  </si>
+  <si>
+    <t>TPONCO</t>
+  </si>
+  <si>
+    <t>bnpl59999734264</t>
+  </si>
+  <si>
+    <t>IHJAEM</t>
+  </si>
+  <si>
+    <t>bnpl59999751888</t>
+  </si>
+  <si>
+    <t>SGGSON</t>
+  </si>
+  <si>
+    <t>335577018130268874</t>
+  </si>
+  <si>
+    <t>ICIC88080900005</t>
+  </si>
+  <si>
+    <t>ICIC98339152435</t>
+  </si>
+  <si>
+    <t>8751044463</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>VarunGopal41469@example.net</t>
+  </si>
+  <si>
+    <t>1980-05-15</t>
+  </si>
+  <si>
+    <t>644761404043985</t>
+  </si>
+  <si>
+    <t>5692e42600593e18</t>
+  </si>
+  <si>
+    <t>671073861784507</t>
+  </si>
+  <si>
+    <t>IDEP617519659745W4TN</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>bnpl59999510245</t>
+  </si>
+  <si>
+    <t>EKPQDE</t>
+  </si>
+  <si>
+    <t>BNPL5167198755752753</t>
+  </si>
+  <si>
+    <t>bnpl59999381655</t>
+  </si>
+  <si>
+    <t>SUDLMA</t>
+  </si>
+  <si>
+    <t>bnpl59999559932</t>
+  </si>
+  <si>
+    <t>PEBONH</t>
+  </si>
+  <si>
+    <t>bnpl59999732804</t>
+  </si>
+  <si>
+    <t>ROPUDC</t>
+  </si>
+  <si>
+    <t>bnpl59999057371</t>
+  </si>
+  <si>
+    <t>JAUEBM</t>
+  </si>
+  <si>
+    <t>bnpl59999458736</t>
+  </si>
+  <si>
+    <t>CKIHDQ</t>
+  </si>
+  <si>
+    <t>bnpl59999426124</t>
+  </si>
+  <si>
+    <t>KUSTMB</t>
+  </si>
+  <si>
+    <t>bnpl59999672743</t>
+  </si>
+  <si>
+    <t>CCOBDT</t>
+  </si>
+  <si>
+    <t>bnpl59999580280</t>
+  </si>
+  <si>
+    <t>QGFDNB</t>
+  </si>
+  <si>
+    <t>bnpl59999376474</t>
+  </si>
+  <si>
+    <t>BSIKPS</t>
+  </si>
+  <si>
+    <t>335577018751044463</t>
+  </si>
+  <si>
+    <t>ICIC82491371746</t>
+  </si>
+  <si>
+    <t>ICIC86101173778</t>
+  </si>
+  <si>
+    <t>6218793809</t>
+  </si>
+  <si>
+    <t>Munni</t>
+  </si>
+  <si>
+    <t>MohanChatterjee82615@example.net</t>
+  </si>
+  <si>
+    <t>1980-10-18</t>
+  </si>
+  <si>
+    <t>237044928355547</t>
+  </si>
+  <si>
+    <t>29743a2157102e01</t>
+  </si>
+  <si>
+    <t>144488525634741</t>
+  </si>
+  <si>
+    <t>IDEP165721232944Z6UT</t>
+  </si>
+  <si>
+    <t>bnpl59999651189</t>
+  </si>
+  <si>
+    <t>CFUHLJ</t>
+  </si>
+  <si>
+    <t>BNPL7561214555799716</t>
+  </si>
+  <si>
+    <t>bnpl59999626224</t>
+  </si>
+  <si>
+    <t>OFLSPG</t>
+  </si>
+  <si>
+    <t>bnpl59999915586</t>
+  </si>
+  <si>
+    <t>TIRNGN</t>
+  </si>
+  <si>
+    <t>bnpl59999177096</t>
+  </si>
+  <si>
+    <t>HEECAD</t>
+  </si>
+  <si>
+    <t>bnpl59999579267</t>
+  </si>
+  <si>
+    <t>OJOHBG</t>
+  </si>
+  <si>
+    <t>bnpl59999452912</t>
+  </si>
+  <si>
+    <t>TIBIDL</t>
+  </si>
+  <si>
+    <t>bnpl59999235263</t>
+  </si>
+  <si>
+    <t>LKLQFC</t>
+  </si>
+  <si>
+    <t>bnpl59999224086</t>
+  </si>
+  <si>
+    <t>HABOFO</t>
+  </si>
+  <si>
+    <t>bnpl59999679472</t>
+  </si>
+  <si>
+    <t>CKKGEC</t>
+  </si>
+  <si>
+    <t>bnpl59999093263</t>
+  </si>
+  <si>
+    <t>UBEKFO</t>
+  </si>
+  <si>
+    <t>335577016218793809</t>
+  </si>
+  <si>
+    <t>ICIC84238609344</t>
+  </si>
+  <si>
+    <t>ICIC97089090423</t>
+  </si>
+  <si>
+    <t>6220501767</t>
+  </si>
+  <si>
+    <t>Yamini</t>
+  </si>
+  <si>
+    <t>NavalGhosh58897@example.net</t>
+  </si>
+  <si>
+    <t>1979-01-23</t>
+  </si>
+  <si>
+    <t>793967897626512</t>
+  </si>
+  <si>
+    <t>b66e56984f4521e5</t>
+  </si>
+  <si>
+    <t>158308102177547</t>
+  </si>
+  <si>
+    <t>IDEP651722222633PXQ8</t>
+  </si>
+  <si>
+    <t>bnpl59999905544</t>
+  </si>
+  <si>
+    <t>EKGCLR</t>
+  </si>
+  <si>
+    <t>BNPL6157224386491926</t>
+  </si>
+  <si>
+    <t>bnpl59999897749</t>
+  </si>
+  <si>
+    <t>NNFCOF</t>
+  </si>
+  <si>
+    <t>bnpl59999411030</t>
+  </si>
+  <si>
+    <t>DISMRA</t>
+  </si>
+  <si>
+    <t>bnpl59999649083</t>
+  </si>
+  <si>
+    <t>GAHCUA</t>
+  </si>
+  <si>
+    <t>bnpl59999815168</t>
+  </si>
+  <si>
+    <t>CCCRBK</t>
+  </si>
+  <si>
+    <t>bnpl59999269495</t>
+  </si>
+  <si>
+    <t>JTAFEC</t>
+  </si>
+  <si>
+    <t>bnpl59999344701</t>
+  </si>
+  <si>
+    <t>ACPOGJ</t>
+  </si>
+  <si>
+    <t>bnpl59999710900</t>
+  </si>
+  <si>
+    <t>DBDANH</t>
+  </si>
+  <si>
+    <t>bnpl59999468840</t>
+  </si>
+  <si>
+    <t>EMTNIS</t>
+  </si>
+  <si>
+    <t>bnpl59999205939</t>
+  </si>
+  <si>
+    <t>FRILRK</t>
+  </si>
+  <si>
+    <t>335577016220501767</t>
+  </si>
+  <si>
+    <t>ICIC92588982970</t>
+  </si>
+  <si>
+    <t>ICIC91141869633</t>
+  </si>
+  <si>
+    <t>7128292565</t>
+  </si>
+  <si>
+    <t>ChinmayDoshi21604@example.net</t>
+  </si>
+  <si>
+    <t>1980-06-03</t>
+  </si>
+  <si>
+    <t>365976678760232</t>
+  </si>
+  <si>
+    <t>8cc04ae698aa9715</t>
+  </si>
+  <si>
+    <t>839923672012762</t>
+  </si>
+  <si>
+    <t>IDEP157623193752U435</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>bnpl59999948551</t>
+  </si>
+  <si>
+    <t>LNUERM</t>
+  </si>
+  <si>
+    <t>BNPL7615233886469471</t>
+  </si>
+  <si>
+    <t>bnpl59999592001</t>
+  </si>
+  <si>
+    <t>PTELAB</t>
+  </si>
+  <si>
+    <t>bnpl59999842513</t>
+  </si>
+  <si>
+    <t>ONIHBJ</t>
+  </si>
+  <si>
+    <t>bnpl59999138213</t>
+  </si>
+  <si>
+    <t>QUTOQL</t>
+  </si>
+  <si>
+    <t>bnpl59999192838</t>
+  </si>
+  <si>
+    <t>DBSQGM</t>
+  </si>
+  <si>
+    <t>bnpl59999421715</t>
+  </si>
+  <si>
+    <t>KIKFJG</t>
+  </si>
+  <si>
+    <t>bnpl59999524644</t>
+  </si>
+  <si>
+    <t>UKKJAR</t>
+  </si>
+  <si>
+    <t>bnpl59999666774</t>
+  </si>
+  <si>
+    <t>MLIDQA</t>
+  </si>
+  <si>
+    <t>bnpl59999497273</t>
+  </si>
+  <si>
+    <t>POMUOC</t>
+  </si>
+  <si>
+    <t>bnpl59999804454</t>
+  </si>
+  <si>
+    <t>NNJGLQ</t>
+  </si>
+  <si>
+    <t>335577017128292565</t>
+  </si>
+  <si>
+    <t>ICIC97144993743</t>
+  </si>
+  <si>
+    <t>ICIC95116078390</t>
   </si>
 </sst>
 </file>
@@ -3979,22 +5140,22 @@
         <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>1085</v>
+        <v>1471</v>
       </c>
       <c r="C2" t="s">
-        <v>818</v>
+        <v>1472</v>
       </c>
       <c r="D2" t="s">
         <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>1105</v>
+        <v>1492</v>
       </c>
       <c r="F2" t="s">
         <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>1106</v>
+        <v>1493</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4331,7 +5492,7 @@
         <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>1088</v>
+        <v>1475</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>153</v>
@@ -4428,16 +5589,16 @@
         <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>1083</v>
+        <v>1469</v>
       </c>
       <c r="C2" t="s">
-        <v>1084</v>
+        <v>1470</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>1082</v>
+        <v>1468</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4540,7 +5701,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1107</v>
+        <v>1494</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>171</v>
@@ -4552,7 +5713,7 @@
         <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>1108</v>
+        <v>1495</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -4561,7 +5722,7 @@
         <v>173</v>
       </c>
       <c r="J2" t="n">
-        <v>162.0</v>
+        <v>178.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -5423,13 +6584,13 @@
         <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>1079</v>
+        <v>1337</v>
       </c>
       <c r="E2" t="s">
-        <v>1080</v>
+        <v>1466</v>
       </c>
       <c r="F2" t="s">
-        <v>1081</v>
+        <v>1467</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>217</v>
@@ -5828,7 +6989,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1107</v>
+        <v>1494</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>171</v>
@@ -5840,7 +7001,7 @@
         <v>179</v>
       </c>
       <c r="G2" t="s">
-        <v>1109</v>
+        <v>1496</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -5849,7 +7010,7 @@
         <v>173</v>
       </c>
       <c r="J2" t="n">
-        <v>162.0</v>
+        <v>178.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5979,7 +7140,7 @@
         <v>9892189981</v>
       </c>
       <c r="E2" t="s">
-        <v>1080</v>
+        <v>1466</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>61</v>
@@ -5991,7 +7152,7 @@
         <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>1082</v>
+        <v>1468</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>64</v>
@@ -6000,10 +7161,10 @@
         <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>1085</v>
+        <v>1471</v>
       </c>
       <c r="M2" t="n">
-        <v>4233263.0</v>
+        <v>4234188.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>66</v>
@@ -6080,7 +7241,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>1078</v>
+        <v>1465</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -6097,7 +7258,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>1078</v>
+        <v>1465</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6114,7 +7275,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>1078</v>
+        <v>1465</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -6131,7 +7292,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>1078</v>
+        <v>1465</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -6283,7 +7444,7 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>1082</v>
+        <v>1468</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -6527,7 +7688,7 @@
         <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>1082</v>
+        <v>1468</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>64</v>
@@ -6742,7 +7903,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>1079</v>
+        <v>1337</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>101</v>
@@ -6825,7 +7986,7 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>1085</v>
+        <v>1471</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>107</v>
@@ -7123,7 +8284,7 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>1085</v>
+        <v>1471</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -7143,7 +8304,7 @@
         <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>1085</v>
+        <v>1471</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -7163,7 +8324,7 @@
         <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>1085</v>
+        <v>1471</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -7183,7 +8344,7 @@
         <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>1085</v>
+        <v>1471</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -7203,7 +8364,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>1085</v>
+        <v>1471</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -7223,7 +8384,7 @@
         <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>1085</v>
+        <v>1471</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -7243,7 +8404,7 @@
         <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>1085</v>
+        <v>1471</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -7302,7 +8463,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>818</v>
+        <v>1472</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>237</v>
@@ -7316,7 +8477,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>818</v>
+        <v>1472</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>237</v>
